--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="13080" yWindow="1020" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="fill-in" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="answers" sheetId="2" r:id="rId4"/>
+    <sheet name="fill-in" sheetId="1" r:id="rId1"/>
+    <sheet name="answers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1685,10 +1693,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>fast</t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t>: both active &amp; passive</t>
     </r>
   </si>
@@ -1714,10 +1729,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>fast</t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t>: both active &amp; passive</t>
     </r>
   </si>
@@ -1749,10 +1771,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>fast:</t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve"> all exits continuously</t>
     </r>
   </si>
@@ -1790,10 +1819,17 @@
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>fast:</t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve"> all exits continuously</t>
     </r>
   </si>
@@ -4129,53 +4165,64 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -4184,7 +4231,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4218,12 +4265,19 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -4238,305 +4292,518 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="81">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.14"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="3" width="22.29"/>
-    <col customWidth="1" min="4" max="4" width="25.14"/>
-    <col customWidth="1" min="5" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="29.43"/>
-    <col customWidth="1" min="7" max="7" width="26.29"/>
-    <col customWidth="1" min="8" max="8" width="23.57"/>
-    <col customWidth="1" min="9" max="9" width="23.43"/>
-    <col customWidth="1" min="10" max="10" width="14.29"/>
-    <col customWidth="1" min="11" max="11" width="9.43"/>
-    <col customWidth="1" min="12" max="12" width="30.29"/>
-    <col customWidth="1" min="13" max="13" width="18.0"/>
-    <col customWidth="1" min="14" max="14" width="22.29"/>
-    <col customWidth="1" min="15" max="15" width="23.57"/>
-    <col customWidth="1" min="16" max="16" width="20.29"/>
-    <col customWidth="1" min="17" max="17" width="18.57"/>
-    <col customWidth="1" min="18" max="18" width="20.43"/>
-    <col customWidth="1" min="19" max="19" width="22.43"/>
-    <col customWidth="1" min="20" max="20" width="22.29"/>
-    <col customWidth="1" min="21" max="21" width="32.14"/>
-    <col customWidth="1" min="22" max="22" width="15.57"/>
-    <col customWidth="1" min="23" max="23" width="25.14"/>
-    <col customWidth="1" min="24" max="24" width="45.29"/>
-    <col customWidth="1" min="25" max="25" width="11.86"/>
-    <col customWidth="1" min="26" max="26" width="24.29"/>
-    <col customWidth="1" min="27" max="27" width="29.14"/>
-    <col customWidth="1" min="28" max="28" width="18.71"/>
-    <col customWidth="1" min="29" max="29" width="22.43"/>
-    <col customWidth="1" min="30" max="30" width="17.71"/>
-    <col customWidth="1" min="31" max="31" width="27.71"/>
-    <col customWidth="1" min="32" max="32" width="19.14"/>
-    <col customWidth="1" min="33" max="33" width="25.57"/>
-    <col customWidth="1" min="34" max="34" width="13.0"/>
-    <col customWidth="1" min="35" max="35" width="26.57"/>
-    <col customWidth="1" min="36" max="36" width="8.71"/>
-    <col customWidth="1" min="37" max="37" width="11.86"/>
-    <col customWidth="1" min="38" max="38" width="26.57"/>
-    <col customWidth="1" min="39" max="39" width="9.86"/>
-    <col customWidth="1" min="40" max="40" width="24.86"/>
-    <col customWidth="1" min="41" max="41" width="24.0"/>
-    <col customWidth="1" min="42" max="42" width="21.29"/>
-    <col customWidth="1" min="43" max="43" width="16.57"/>
-    <col customWidth="1" min="44" max="44" width="28.86"/>
-    <col customWidth="1" min="45" max="45" width="24.29"/>
-    <col customWidth="1" min="46" max="47" width="18.14"/>
-    <col customWidth="1" min="48" max="48" width="24.43"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.5" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="22.5" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="32.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" customWidth="1"/>
+    <col min="24" max="24" width="45.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" customWidth="1"/>
+    <col min="26" max="26" width="24.33203125" customWidth="1"/>
+    <col min="27" max="27" width="29.1640625" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" customWidth="1"/>
+    <col min="29" max="29" width="22.5" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19.1640625" customWidth="1"/>
+    <col min="33" max="33" width="25.5" customWidth="1"/>
+    <col min="34" max="34" width="13" customWidth="1"/>
+    <col min="35" max="35" width="26.5" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.83203125" customWidth="1"/>
+    <col min="38" max="38" width="26.5" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" customWidth="1"/>
+    <col min="40" max="40" width="24.83203125" customWidth="1"/>
+    <col min="41" max="41" width="24" customWidth="1"/>
+    <col min="42" max="42" width="21.33203125" customWidth="1"/>
+    <col min="43" max="43" width="16.5" customWidth="1"/>
+    <col min="44" max="44" width="28.83203125" customWidth="1"/>
+    <col min="45" max="45" width="24.33203125" customWidth="1"/>
+    <col min="46" max="47" width="18.1640625" customWidth="1"/>
+    <col min="48" max="48" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4610,7 +4877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1">
       <c r="A2" s="4"/>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -4666,10 +4933,10 @@
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1">
       <c r="A3" s="4"/>
       <c r="C3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" s="5"/>
@@ -4711,10 +4978,10 @@
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:47" ht="14.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="C4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5"/>
       <c r="F4" s="5"/>
@@ -4755,10 +5022,10 @@
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="C5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5"/>
       <c r="F5" s="5"/>
@@ -4781,10 +5048,10 @@
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:47" ht="14.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="C6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5"/>
       <c r="J6" s="7" t="s">
@@ -4836,10 +5103,10 @@
       </c>
       <c r="AQ6" s="11"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="C7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5"/>
       <c r="F7" s="2" t="s">
@@ -4889,10 +5156,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="5"/>
@@ -4930,7 +5197,7 @@
       <c r="AN8" s="5"/>
       <c r="AT8" s="18"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1">
       <c r="A9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -4965,7 +5232,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="G10" s="5"/>
       <c r="J10" s="7" t="s">
@@ -5011,7 +5278,7 @@
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>167</v>
@@ -5067,7 +5334,7 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1">
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
       <c r="J12" s="7" t="s">
@@ -5117,7 +5384,7 @@
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -5168,7 +5435,7 @@
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -5216,7 +5483,7 @@
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -5258,7 +5525,7 @@
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -5309,7 +5576,7 @@
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -5354,7 +5621,7 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1">
       <c r="D18" s="5"/>
       <c r="F18" s="5"/>
       <c r="H18" s="5"/>
@@ -5413,7 +5680,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1">
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
@@ -5464,16 +5731,16 @@
         <v>375</v>
       </c>
       <c r="AR19" s="12">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="AS19" s="12">
-        <v>951.0</v>
+        <v>951</v>
       </c>
       <c r="AT19" s="12">
-        <v>2131.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="14.25" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
@@ -5516,7 +5783,7 @@
       <c r="AS20" s="12"/>
       <c r="AT20" s="12"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
         <v>395</v>
@@ -5545,7 +5812,7 @@
       <c r="V21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AH21" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI21" s="4"/>
       <c r="AK21" s="34"/>
@@ -5560,7 +5827,7 @@
       <c r="AS21" s="12"/>
       <c r="AT21" s="12"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>410</v>
@@ -5586,7 +5853,7 @@
       </c>
       <c r="AE22" s="4"/>
       <c r="AH22" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AI22" s="4"/>
       <c r="AK22" s="22"/>
@@ -5601,7 +5868,7 @@
       <c r="AS22" s="12"/>
       <c r="AT22" s="12"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>424</v>
@@ -5632,7 +5899,7 @@
       <c r="AB23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AH23" s="7">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AI23" s="4"/>
       <c r="AK23" s="37" t="s">
@@ -5651,7 +5918,7 @@
       <c r="AS23" s="12"/>
       <c r="AT23" s="12"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>439</v>
@@ -5676,7 +5943,7 @@
       <c r="AB24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AH24" s="7">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="AI24" s="4"/>
       <c r="AK24" s="44" t="s">
@@ -5693,7 +5960,7 @@
       <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>455</v>
@@ -5728,7 +5995,7 @@
       <c r="AB25" s="5"/>
       <c r="AE25" s="4"/>
       <c r="AH25" s="7">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="AI25" s="4"/>
       <c r="AK25" s="22"/>
@@ -5743,7 +6010,7 @@
       <c r="AS25" s="12"/>
       <c r="AT25" s="12"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="5"/>
       <c r="H26" s="5"/>
@@ -5770,7 +6037,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AH26" s="7">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="AI26" s="4"/>
       <c r="AK26" s="22"/>
@@ -5785,7 +6052,7 @@
       <c r="AS26" s="12"/>
       <c r="AT26" s="48"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>489</v>
       </c>
@@ -5816,7 +6083,7 @@
         <v>499</v>
       </c>
       <c r="AH27" s="7">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="AI27" s="4"/>
       <c r="AK27" s="39" t="s">
@@ -5830,7 +6097,7 @@
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1">
       <c r="A28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>505</v>
@@ -5877,7 +6144,7 @@
       </c>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="D29" s="4"/>
       <c r="F29" s="54"/>
@@ -5913,7 +6180,7 @@
       </c>
       <c r="AQ29" s="12"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1">
       <c r="A30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="54"/>
@@ -5939,7 +6206,7 @@
       <c r="AR30" s="12"/>
       <c r="AS30" s="12"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1">
       <c r="A31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="54"/>
@@ -5989,7 +6256,7 @@
       <c r="AR31" s="12"/>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="54"/>
@@ -6040,7 +6307,7 @@
       <c r="AR32" s="12"/>
       <c r="AS32" s="12"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1">
       <c r="A33" s="56" t="s">
         <v>585</v>
       </c>
@@ -6079,7 +6346,7 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>604</v>
       </c>
@@ -6126,7 +6393,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1">
       <c r="A35" s="4"/>
       <c r="D35" s="49" t="s">
         <v>624</v>
@@ -6165,7 +6432,7 @@
       <c r="AP35" s="18"/>
       <c r="AQ35" s="62"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1">
       <c r="A36" s="4"/>
       <c r="D36" s="54"/>
       <c r="F36" s="54"/>
@@ -6222,7 +6489,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1">
       <c r="A37" s="4"/>
       <c r="D37" s="54"/>
       <c r="F37" s="54"/>
@@ -6274,7 +6541,7 @@
       <c r="AT37" s="63"/>
       <c r="AU37" s="63"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1">
       <c r="A38" s="4"/>
       <c r="D38" s="54"/>
       <c r="F38" s="54"/>
@@ -6317,7 +6584,7 @@
       <c r="AT38" s="63"/>
       <c r="AU38" s="63"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1">
       <c r="A39" s="4"/>
       <c r="D39" s="54"/>
       <c r="J39" s="3" t="s">
@@ -6351,7 +6618,7 @@
       <c r="AT39" s="63"/>
       <c r="AU39" s="63"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6380,7 +6647,7 @@
       <c r="AT40" s="63"/>
       <c r="AU40" s="63"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>725</v>
       </c>
@@ -6434,11 +6701,11 @@
       <c r="AT41" s="63"/>
       <c r="AU41" s="63"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1">
       <c r="A42" s="4"/>
       <c r="D42" s="54"/>
       <c r="E42" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -6460,7 +6727,7 @@
       </c>
       <c r="AI42" s="4"/>
       <c r="AK42" s="67">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="29" t="s">
         <v>743</v>
@@ -6471,11 +6738,11 @@
       <c r="AT42" s="63"/>
       <c r="AU42" s="63"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1">
       <c r="A43" s="4"/>
       <c r="D43" s="54"/>
       <c r="E43" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -6507,13 +6774,13 @@
       <c r="AN43" s="33"/>
       <c r="AO43" s="22"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1">
       <c r="A44" s="4"/>
       <c r="D44" s="3" t="s">
         <v>761</v>
       </c>
       <c r="E44" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -6544,11 +6811,11 @@
         <v>795</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1">
       <c r="A45" s="4"/>
       <c r="D45" s="54"/>
       <c r="E45" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -6576,11 +6843,11 @@
       </c>
       <c r="AR45" s="4"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1">
       <c r="A46" s="4"/>
       <c r="D46" s="54"/>
       <c r="E46" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -6607,9 +6874,9 @@
       <c r="AI46" s="4"/>
       <c r="AR46" s="4"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1">
       <c r="E47" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
@@ -6651,7 +6918,7 @@
       <c r="AI47" s="4"/>
       <c r="AR47" s="4"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>843</v>
       </c>
@@ -6662,7 +6929,7 @@
         <v>844</v>
       </c>
       <c r="E48" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -6701,7 +6968,7 @@
       <c r="AO48" s="53"/>
       <c r="AR48" s="4"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -6740,7 +7007,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -6755,7 +7022,7 @@
       <c r="Q50" s="16"/>
       <c r="S50" s="5"/>
       <c r="T50" s="7">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="17"/>
@@ -6780,7 +7047,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6798,7 +7065,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
       <c r="T51" s="7">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="17"/>
@@ -6814,7 +7081,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1">
       <c r="I52" s="3" t="s">
         <v>898</v>
       </c>
@@ -6824,7 +7091,7 @@
         <v>900</v>
       </c>
       <c r="T52" s="7">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="17"/>
@@ -6845,7 +7112,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1">
       <c r="B53" s="71"/>
       <c r="C53" s="3" t="s">
         <v>916</v>
@@ -6859,7 +7126,7 @@
       </c>
       <c r="S53" s="5"/>
       <c r="T53" s="7">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="17"/>
@@ -6879,7 +7146,7 @@
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>927</v>
       </c>
@@ -6912,7 +7179,7 @@
       <c r="AN54" s="70"/>
       <c r="AO54" s="70"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>940</v>
       </c>
@@ -6945,7 +7212,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>940</v>
       </c>
@@ -6978,7 +7245,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>940</v>
       </c>
@@ -7015,7 +7282,7 @@
       <c r="AS57" s="72"/>
       <c r="AT57" s="72"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>952</v>
       </c>
@@ -7053,7 +7320,7 @@
       <c r="AS58" s="72"/>
       <c r="AT58" s="72"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>952</v>
       </c>
@@ -7092,7 +7359,7 @@
       <c r="AS59" s="72"/>
       <c r="AT59" s="72"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>952</v>
       </c>
@@ -7123,7 +7390,7 @@
       <c r="AA60" s="5"/>
       <c r="AL60" s="4"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>960</v>
       </c>
@@ -7153,7 +7420,7 @@
       <c r="AA61" s="5"/>
       <c r="AL61" s="4"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>960</v>
       </c>
@@ -7189,7 +7456,7 @@
       <c r="AA62" s="4"/>
       <c r="AL62" s="4"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>960</v>
       </c>
@@ -7216,7 +7483,7 @@
       </c>
       <c r="AL63" s="4"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1">
       <c r="H64" t="s">
         <v>1045</v>
       </c>
@@ -7231,7 +7498,7 @@
       <c r="AL64" s="3"/>
       <c r="AN64" s="3"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:43" ht="14.25" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>1048</v>
       </c>
@@ -7250,7 +7517,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:43" ht="14.25" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>1057</v>
       </c>
@@ -7268,7 +7535,7 @@
       <c r="AP66" s="70"/>
       <c r="AQ66" s="70"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:43" ht="14.25" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>1062</v>
       </c>
@@ -7293,7 +7560,7 @@
       <c r="AP67" s="70"/>
       <c r="AQ67" s="70"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:43" ht="14.25" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>1076</v>
       </c>
@@ -7316,7 +7583,7 @@
       <c r="AP68" s="70"/>
       <c r="AQ68" s="70"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:43" ht="14.25" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>1090</v>
       </c>
@@ -7334,7 +7601,7 @@
       </c>
       <c r="AL69" s="4"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:43" ht="14.25" customHeight="1">
       <c r="F70" s="71" t="s">
         <v>1093</v>
       </c>
@@ -7343,7 +7610,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:43" ht="14.25" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
@@ -7355,7 +7622,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:43" ht="14.25" customHeight="1">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="F72" s="71" t="s">
@@ -7378,7 +7645,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:43" ht="14.25" customHeight="1">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="F73" s="71" t="s">
@@ -7394,7 +7661,7 @@
       <c r="AP73" s="70"/>
       <c r="AQ73" s="70"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:43" ht="14.25" customHeight="1">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="N74" s="56" t="s">
@@ -7407,7 +7674,7 @@
       <c r="AP74" s="70"/>
       <c r="AQ74" s="70"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:43" ht="14.25" customHeight="1">
       <c r="M75" s="7" t="s">
         <v>1112</v>
       </c>
@@ -7423,7 +7690,7 @@
       <c r="AP75" s="70"/>
       <c r="AQ75" s="70"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:43" ht="14.25" customHeight="1">
       <c r="C76" s="3" t="s">
         <v>1115</v>
       </c>
@@ -7442,7 +7709,7 @@
       <c r="AP76" s="70"/>
       <c r="AQ76" s="70"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:43" ht="14.25" customHeight="1">
       <c r="B77" s="7" t="s">
         <v>1119</v>
       </c>
@@ -7460,7 +7727,7 @@
       <c r="AP77" s="70"/>
       <c r="AQ77" s="70"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:43" ht="14.25" customHeight="1">
       <c r="B78" s="7" t="s">
         <v>520</v>
       </c>
@@ -7472,7 +7739,7 @@
       <c r="N78" s="48"/>
       <c r="O78" s="48"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:43" ht="14.25" customHeight="1">
       <c r="B79" s="7" t="s">
         <v>1129</v>
       </c>
@@ -7484,7 +7751,7 @@
       <c r="N79" s="48"/>
       <c r="O79" s="48"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:43" ht="14.25" customHeight="1">
       <c r="B80" s="7" t="s">
         <v>1134</v>
       </c>
@@ -7496,34 +7763,34 @@
       <c r="N80" s="48"/>
       <c r="O80" s="48"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="2:4" ht="14.25" customHeight="1">
       <c r="B81" s="7" t="s">
         <v>1138</v>
       </c>
       <c r="C81" s="62"/>
       <c r="D81" s="62"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="2:4" ht="14.25" customHeight="1">
       <c r="B82" s="7" t="s">
         <v>1139</v>
       </c>
       <c r="C82" s="62"/>
       <c r="D82" s="62"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="83" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="84" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="85" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="86" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="87" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="88" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="89" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="90" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="91" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="92" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="93" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="94" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="95" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="96" spans="2:4" ht="14.25" customHeight="1"/>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -8427,74 +8694,77 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P32" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.14"/>
-    <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="3" max="3" width="22.29"/>
-    <col customWidth="1" min="4" max="4" width="25.14"/>
-    <col customWidth="1" min="5" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="34.14"/>
-    <col customWidth="1" min="7" max="7" width="26.29"/>
-    <col customWidth="1" min="8" max="8" width="40.43"/>
-    <col customWidth="1" min="9" max="9" width="23.43"/>
-    <col customWidth="1" min="10" max="10" width="14.29"/>
-    <col customWidth="1" min="11" max="11" width="9.43"/>
-    <col customWidth="1" min="12" max="12" width="30.29"/>
-    <col customWidth="1" min="13" max="13" width="18.0"/>
-    <col customWidth="1" min="14" max="14" width="22.29"/>
-    <col customWidth="1" min="15" max="15" width="23.57"/>
-    <col customWidth="1" min="16" max="16" width="20.29"/>
-    <col customWidth="1" min="17" max="17" width="18.57"/>
-    <col customWidth="1" min="18" max="18" width="20.43"/>
-    <col customWidth="1" min="19" max="19" width="28.86"/>
-    <col customWidth="1" min="20" max="20" width="22.29"/>
-    <col customWidth="1" min="21" max="21" width="32.14"/>
-    <col customWidth="1" min="22" max="22" width="15.57"/>
-    <col customWidth="1" min="23" max="23" width="32.86"/>
-    <col customWidth="1" min="24" max="24" width="45.29"/>
-    <col customWidth="1" min="25" max="25" width="11.86"/>
-    <col customWidth="1" min="26" max="26" width="24.29"/>
-    <col customWidth="1" min="27" max="27" width="29.14"/>
-    <col customWidth="1" min="28" max="28" width="22.14"/>
-    <col customWidth="1" min="29" max="29" width="22.43"/>
-    <col customWidth="1" min="30" max="30" width="17.71"/>
-    <col customWidth="1" min="31" max="31" width="27.71"/>
-    <col customWidth="1" min="32" max="32" width="19.14"/>
-    <col customWidth="1" min="33" max="33" width="25.57"/>
-    <col customWidth="1" min="34" max="34" width="13.0"/>
-    <col customWidth="1" min="35" max="35" width="26.57"/>
-    <col customWidth="1" min="36" max="36" width="8.71"/>
-    <col customWidth="1" min="37" max="37" width="11.86"/>
-    <col customWidth="1" min="38" max="38" width="26.57"/>
-    <col customWidth="1" min="39" max="39" width="9.86"/>
-    <col customWidth="1" min="40" max="40" width="24.86"/>
-    <col customWidth="1" min="41" max="41" width="24.0"/>
-    <col customWidth="1" min="42" max="42" width="21.29"/>
-    <col customWidth="1" min="43" max="43" width="16.57"/>
-    <col customWidth="1" min="44" max="44" width="28.86"/>
-    <col customWidth="1" min="45" max="45" width="27.29"/>
-    <col customWidth="1" min="46" max="46" width="28.43"/>
-    <col customWidth="1" min="47" max="47" width="19.43"/>
-    <col customWidth="1" min="48" max="48" width="24.43"/>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.5" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.5" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="28.83203125" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="32.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="32.83203125" customWidth="1"/>
+    <col min="24" max="24" width="45.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" customWidth="1"/>
+    <col min="26" max="26" width="24.33203125" customWidth="1"/>
+    <col min="27" max="27" width="29.1640625" customWidth="1"/>
+    <col min="28" max="28" width="22.1640625" customWidth="1"/>
+    <col min="29" max="29" width="22.5" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19.1640625" customWidth="1"/>
+    <col min="33" max="33" width="25.5" customWidth="1"/>
+    <col min="34" max="34" width="13" customWidth="1"/>
+    <col min="35" max="35" width="26.5" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.83203125" customWidth="1"/>
+    <col min="38" max="38" width="26.5" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" customWidth="1"/>
+    <col min="40" max="40" width="24.83203125" customWidth="1"/>
+    <col min="41" max="41" width="24" customWidth="1"/>
+    <col min="42" max="42" width="21.33203125" customWidth="1"/>
+    <col min="43" max="43" width="16.5" customWidth="1"/>
+    <col min="44" max="44" width="28.83203125" customWidth="1"/>
+    <col min="45" max="45" width="27.33203125" customWidth="1"/>
+    <col min="46" max="46" width="28.5" customWidth="1"/>
+    <col min="47" max="47" width="19.5" customWidth="1"/>
+    <col min="48" max="48" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8576,7 +8846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -8671,7 +8941,7 @@
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
@@ -8679,7 +8949,7 @@
         <v>62</v>
       </c>
       <c r="C3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>64</v>
@@ -8754,11 +9024,12 @@
       <c r="AS3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AT3" s="13" t="s">
+      <c r="AT3" s="79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+      <c r="AU3" s="80"/>
+    </row>
+    <row r="4" spans="1:47" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -8766,7 +9037,7 @@
         <v>62</v>
       </c>
       <c r="C4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>91</v>
@@ -8833,12 +9104,13 @@
       <c r="AQ4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS4" s="13" t="s">
+      <c r="AS4" s="79" t="s">
         <v>116</v>
       </c>
+      <c r="AT4" s="80"/>
       <c r="AU4" s="14"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
@@ -8846,7 +9118,7 @@
         <v>118</v>
       </c>
       <c r="C5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>119</v>
@@ -8884,11 +9156,12 @@
       <c r="AS5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AT5" s="13" t="s">
+      <c r="AT5" s="79" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+      <c r="AU5" s="80"/>
+    </row>
+    <row r="6" spans="1:47" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -8896,7 +9169,7 @@
         <v>134</v>
       </c>
       <c r="C6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>135</v>
@@ -8962,7 +9235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>147</v>
       </c>
@@ -8970,7 +9243,7 @@
         <v>149</v>
       </c>
       <c r="C7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>150</v>
@@ -9022,10 +9295,10 @@
         <v>168</v>
       </c>
       <c r="AD7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="17" t="s">
         <v>75</v>
@@ -9037,10 +9310,10 @@
         <v>124</v>
       </c>
       <c r="AM7" s="5">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="AN7" s="5">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="AP7" s="7" t="s">
         <v>125</v>
@@ -9052,7 +9325,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>172</v>
       </c>
@@ -9060,7 +9333,7 @@
         <v>173</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>174</v>
@@ -9106,10 +9379,10 @@
         <v>182</v>
       </c>
       <c r="AD8" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AE8" s="16">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AH8" s="17" t="s">
         <v>110</v>
@@ -9121,16 +9394,16 @@
         <v>136</v>
       </c>
       <c r="AM8" s="5">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="AN8" s="5">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="AT8" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -9172,10 +9445,10 @@
         <v>199</v>
       </c>
       <c r="AD9" s="4">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="AE9" s="16">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AH9" s="17" t="s">
         <v>145</v>
@@ -9187,16 +9460,16 @@
         <v>146</v>
       </c>
       <c r="AM9" s="5">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="AN9" s="5">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>201</v>
       </c>
@@ -9247,10 +9520,10 @@
         <v>207</v>
       </c>
       <c r="AD10" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="AE10" s="16">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="AH10" s="17" t="s">
         <v>161</v>
@@ -9266,7 +9539,7 @@
       </c>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>211</v>
       </c>
@@ -9326,10 +9599,10 @@
         <v>219</v>
       </c>
       <c r="AD11" s="4">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="AE11" s="16">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="AH11" s="17" t="s">
         <v>193</v>
@@ -9354,7 +9627,7 @@
       </c>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1">
       <c r="D12" s="5" t="s">
         <v>223</v>
       </c>
@@ -9406,7 +9679,7 @@
         <v>237</v>
       </c>
       <c r="AD12" s="4">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="AE12" s="16" t="s">
         <v>238</v>
@@ -9434,7 +9707,7 @@
       </c>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -9489,7 +9762,7 @@
         <v>258</v>
       </c>
       <c r="AD13" s="4">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="AE13" s="16" t="s">
         <v>259</v>
@@ -9515,12 +9788,12 @@
       </c>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>262</v>
       </c>
       <c r="B14" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>266</v>
@@ -9565,7 +9838,7 @@
         <v>274</v>
       </c>
       <c r="AD14" s="4">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="AE14" s="16" t="s">
         <v>276</v>
@@ -9591,12 +9864,12 @@
       </c>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>281</v>
       </c>
       <c r="B15" s="5">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>282</v>
@@ -9655,12 +9928,12 @@
       </c>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>295</v>
       </c>
       <c r="B16" s="5">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>300</v>
@@ -9730,12 +10003,12 @@
       </c>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>317</v>
       </c>
       <c r="B17" s="5">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>318</v>
@@ -9797,7 +10070,7 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1">
       <c r="D18" s="36" t="s">
         <v>336</v>
       </c>
@@ -9878,7 +10151,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1">
       <c r="D19" s="36" t="s">
         <v>364</v>
       </c>
@@ -9951,16 +10224,16 @@
         <v>375</v>
       </c>
       <c r="AR19" s="7">
-        <v>903.0</v>
+        <v>903</v>
       </c>
       <c r="AS19" s="7">
-        <v>951.0</v>
+        <v>951</v>
       </c>
       <c r="AT19" s="7">
-        <v>2131.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="14.25" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
@@ -10041,7 +10314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>396</v>
       </c>
@@ -10086,7 +10359,7 @@
         <v>406</v>
       </c>
       <c r="AH21" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI21" s="4" t="s">
         <v>339</v>
@@ -10113,7 +10386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>275</v>
       </c>
@@ -10161,7 +10434,7 @@
         <v>423</v>
       </c>
       <c r="AH22" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AI22" s="4" t="s">
         <v>425</v>
@@ -10184,7 +10457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>430</v>
       </c>
@@ -10233,7 +10506,7 @@
         <v>442</v>
       </c>
       <c r="AH23" s="7">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="AI23" s="4" t="s">
         <v>444</v>
@@ -10260,7 +10533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>446</v>
       </c>
@@ -10299,7 +10572,7 @@
         <v>451</v>
       </c>
       <c r="AH24" s="7">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="AI24" s="4" t="s">
         <v>452</v>
@@ -10326,7 +10599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>456</v>
       </c>
@@ -10375,7 +10648,7 @@
         <v>466</v>
       </c>
       <c r="AH25" s="7">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="AI25" s="4" t="s">
         <v>467</v>
@@ -10400,7 +10673,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1">
       <c r="D26" s="5" t="s">
         <v>473</v>
       </c>
@@ -10443,7 +10716,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AH26" s="7">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="AI26" s="4" t="s">
         <v>483</v>
@@ -10468,7 +10741,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>489</v>
       </c>
@@ -10511,7 +10784,7 @@
         <v>499</v>
       </c>
       <c r="AH27" s="7">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="AI27" s="4" t="s">
         <v>500</v>
@@ -10527,7 +10800,7 @@
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>503</v>
       </c>
@@ -10593,7 +10866,7 @@
       </c>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>521</v>
       </c>
@@ -10652,7 +10925,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>539</v>
       </c>
@@ -10692,14 +10965,14 @@
         <v>544</v>
       </c>
       <c r="AQ30" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AR30" s="12" t="s">
         <v>550</v>
       </c>
       <c r="AS30" s="12"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>551</v>
       </c>
@@ -10763,14 +11036,14 @@
         <v>567</v>
       </c>
       <c r="AQ31" s="12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="12" t="s">
         <v>571</v>
       </c>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>573</v>
       </c>
@@ -10843,14 +11116,14 @@
         <v>582</v>
       </c>
       <c r="AQ32" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AR32" s="12" t="s">
         <v>597</v>
       </c>
       <c r="AS32" s="12"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1">
       <c r="A33" s="56" t="s">
         <v>585</v>
       </c>
@@ -10909,7 +11182,7 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>604</v>
       </c>
@@ -10972,7 +11245,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>623</v>
       </c>
@@ -11030,7 +11303,7 @@
       </c>
       <c r="AQ35" s="62"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>642</v>
       </c>
@@ -11104,7 +11377,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>666</v>
       </c>
@@ -11153,7 +11426,7 @@
         <v>677</v>
       </c>
       <c r="AC37" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="5" t="s">
         <v>678</v>
@@ -11185,7 +11458,7 @@
       </c>
       <c r="AU37" s="63"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>683</v>
       </c>
@@ -11227,7 +11500,7 @@
         <v>693</v>
       </c>
       <c r="AC38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD38" s="4" t="s">
         <v>678</v>
@@ -11262,7 +11535,7 @@
       </c>
       <c r="AU38" s="63"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>700</v>
       </c>
@@ -11292,7 +11565,7 @@
         <v>709</v>
       </c>
       <c r="AC39" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD39" s="5" t="s">
         <v>710</v>
@@ -11325,7 +11598,7 @@
       </c>
       <c r="AU39" s="63"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1">
       <c r="J40" s="5" t="s">
         <v>717</v>
       </c>
@@ -11371,7 +11644,7 @@
       </c>
       <c r="AU40" s="63"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>725</v>
       </c>
@@ -11440,7 +11713,7 @@
       </c>
       <c r="AU41" s="63"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>751</v>
       </c>
@@ -11448,7 +11721,7 @@
         <v>752</v>
       </c>
       <c r="E42" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="54" t="s">
         <v>754</v>
@@ -11490,7 +11763,7 @@
         <v>765</v>
       </c>
       <c r="AK42" s="67">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="29" t="s">
         <v>743</v>
@@ -11510,7 +11783,7 @@
       </c>
       <c r="AU42" s="63"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>771</v>
       </c>
@@ -11518,7 +11791,7 @@
         <v>772</v>
       </c>
       <c r="E43" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="54" t="s">
         <v>773</v>
@@ -11574,7 +11847,7 @@
       </c>
       <c r="AU43" s="63"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>785</v>
       </c>
@@ -11582,7 +11855,7 @@
         <v>761</v>
       </c>
       <c r="E44" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="54" t="s">
         <v>786</v>
@@ -11640,7 +11913,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>797</v>
       </c>
@@ -11648,7 +11921,7 @@
         <v>798</v>
       </c>
       <c r="E45" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F45" s="54" t="s">
         <v>799</v>
@@ -11698,7 +11971,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>813</v>
       </c>
@@ -11706,7 +11979,7 @@
         <v>814</v>
       </c>
       <c r="E46" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="54" t="s">
         <v>815</v>
@@ -11749,9 +12022,9 @@
         <v>829</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1">
       <c r="E47" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F47" s="54" t="s">
         <v>830</v>
@@ -11798,7 +12071,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>843</v>
       </c>
@@ -11809,7 +12082,7 @@
         <v>844</v>
       </c>
       <c r="E48" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F48" s="54" t="s">
         <v>853</v>
@@ -11854,7 +12127,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>863</v>
       </c>
@@ -11901,7 +12174,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>876</v>
       </c>
@@ -11924,7 +12197,7 @@
         <v>883</v>
       </c>
       <c r="T50" s="7">
-        <v>1001.0</v>
+        <v>1002</v>
       </c>
       <c r="U50" s="4" t="s">
         <v>884</v>
@@ -11967,7 +12240,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>897</v>
       </c>
@@ -11990,7 +12263,7 @@
         <v>886</v>
       </c>
       <c r="T51" s="7">
-        <v>1002.0</v>
+        <v>1003</v>
       </c>
       <c r="U51" s="4" t="s">
         <v>903</v>
@@ -12033,7 +12306,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1">
       <c r="F52" s="4" t="s">
         <v>914</v>
       </c>
@@ -12053,7 +12326,7 @@
         <v>919</v>
       </c>
       <c r="T52" s="7">
-        <v>1003.0</v>
+        <v>1004</v>
       </c>
       <c r="U52" s="4" t="s">
         <v>921</v>
@@ -12089,7 +12362,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1">
       <c r="B53" s="71"/>
       <c r="C53" s="3" t="s">
         <v>916</v>
@@ -12123,7 +12396,7 @@
         <v>941</v>
       </c>
       <c r="T53" s="7">
-        <v>1004.0</v>
+        <v>1005</v>
       </c>
       <c r="U53" s="4" t="s">
         <v>942</v>
@@ -12162,7 +12435,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>927</v>
       </c>
@@ -12188,13 +12461,13 @@
         <v>845</v>
       </c>
       <c r="O54" s="4">
-        <v>1985.0</v>
+        <v>1985</v>
       </c>
       <c r="P54" s="4">
-        <v>1985.0</v>
+        <v>1985</v>
       </c>
       <c r="Q54" s="4">
-        <v>2029.0</v>
+        <v>2029</v>
       </c>
       <c r="S54" s="5" t="s">
         <v>961</v>
@@ -12224,7 +12497,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>940</v>
       </c>
@@ -12244,13 +12517,13 @@
         <v>852</v>
       </c>
       <c r="O55" s="4">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="P55" s="4">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="Q55" s="4">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="S55" s="5" t="s">
         <v>977</v>
@@ -12286,7 +12559,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>940</v>
       </c>
@@ -12346,7 +12619,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>940</v>
       </c>
@@ -12407,7 +12680,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>952</v>
       </c>
@@ -12462,7 +12735,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>952</v>
       </c>
@@ -12525,7 +12798,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>952</v>
       </c>
@@ -12576,7 +12849,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>960</v>
       </c>
@@ -12629,7 +12902,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>960</v>
       </c>
@@ -12681,10 +12954,10 @@
         <v>1071</v>
       </c>
       <c r="AT62" s="18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" ht="14.25" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>960</v>
       </c>
@@ -12732,7 +13005,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1">
       <c r="H64" t="s">
         <v>1045</v>
       </c>
@@ -12773,7 +13046,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:47" ht="14.25" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>1048</v>
       </c>
@@ -12821,7 +13094,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:47" ht="14.25" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>1057</v>
       </c>
@@ -12844,10 +13117,10 @@
         <v>1136</v>
       </c>
       <c r="U66" s="76">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V66" s="76">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y66" s="78" t="s">
         <v>115</v>
@@ -12884,7 +13157,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:47" ht="14.25" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>1062</v>
       </c>
@@ -12950,7 +13223,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:47" ht="14.25" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13022,7 +13295,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:47" ht="14.25" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>1090</v>
       </c>
@@ -13081,7 +13354,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:47" ht="14.25" customHeight="1">
       <c r="H70" s="7" t="s">
         <v>1182</v>
       </c>
@@ -13131,7 +13404,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:47" ht="14.25" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
@@ -13163,12 +13436,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:47" ht="14.25" customHeight="1">
       <c r="A72" s="18" t="s">
         <v>1193</v>
       </c>
       <c r="B72" s="18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="18" t="s">
         <v>1194</v>
@@ -13216,12 +13489,12 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:47" ht="14.25" customHeight="1">
       <c r="A73" s="18" t="s">
         <v>1199</v>
       </c>
       <c r="B73" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="71"/>
       <c r="H73" s="3" t="s">
@@ -13273,12 +13546,12 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:47" ht="14.25" customHeight="1">
       <c r="A74" s="18" t="s">
         <v>1209</v>
       </c>
       <c r="B74" s="18">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
         <v>1078</v>
@@ -13332,7 +13605,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:47" ht="14.25" customHeight="1">
       <c r="G75" t="s">
         <v>1091</v>
       </c>
@@ -13379,7 +13652,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:47" ht="14.25" customHeight="1">
       <c r="C76" s="3" t="s">
         <v>1115</v>
       </c>
@@ -13435,7 +13708,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:47" ht="14.25" customHeight="1">
       <c r="B77" s="7" t="s">
         <v>1119</v>
       </c>
@@ -13494,7 +13767,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:47" ht="14.25" customHeight="1">
       <c r="B78" s="7" t="s">
         <v>1138</v>
       </c>
@@ -13541,7 +13814,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:47" ht="14.25" customHeight="1">
       <c r="B79" s="7" t="s">
         <v>1129</v>
       </c>
@@ -13583,7 +13856,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:47" ht="14.25" customHeight="1">
       <c r="B80" s="7" t="s">
         <v>1243</v>
       </c>
@@ -13597,7 +13870,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:24" ht="14.25" customHeight="1">
       <c r="B81" s="7" t="s">
         <v>1139</v>
       </c>
@@ -13614,7 +13887,7 @@
         <v>1112</v>
       </c>
       <c r="N81" s="48">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O81" s="48" t="s">
         <v>1246</v>
@@ -13629,7 +13902,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:24" ht="14.25" customHeight="1">
       <c r="B82" s="7" t="s">
         <v>1248</v>
       </c>
@@ -13651,7 +13924,7 @@
         <v>1117</v>
       </c>
       <c r="N82" s="48">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O82" s="48" t="s">
         <v>1252</v>
@@ -13669,7 +13942,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:24" ht="14.25" customHeight="1">
       <c r="B83" s="7" t="s">
         <v>1256</v>
       </c>
@@ -13691,7 +13964,7 @@
         <v>1120</v>
       </c>
       <c r="N83" s="48">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="O83" s="48"/>
       <c r="R83" s="10"/>
@@ -13711,7 +13984,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:24" ht="14.25" customHeight="1">
       <c r="F84" s="7" t="s">
         <v>1002</v>
       </c>
@@ -13724,7 +13997,7 @@
         <v>1125</v>
       </c>
       <c r="N84" s="48">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="O84" s="48"/>
       <c r="R84" s="10"/>
@@ -13744,7 +14017,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:24" ht="14.25" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>1270</v>
       </c>
@@ -13782,7 +14055,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:24" ht="14.25" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>1277</v>
       </c>
@@ -13812,7 +14085,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:24" ht="14.25" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>1285</v>
       </c>
@@ -13840,7 +14113,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:24" ht="14.25" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>1293</v>
       </c>
@@ -13864,7 +14137,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:24" ht="14.25" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>1299</v>
       </c>
@@ -13879,7 +14152,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:24" ht="14.25" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>1303</v>
       </c>
@@ -13897,7 +14170,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:24" ht="14.25" customHeight="1">
       <c r="A91" s="7" t="s">
         <v>1307</v>
       </c>
@@ -13911,7 +14184,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:24" ht="14.25" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>940</v>
       </c>
@@ -13925,7 +14198,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:24" ht="14.25" customHeight="1">
       <c r="A93" s="7" t="s">
         <v>960</v>
       </c>
@@ -13939,7 +14212,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:24" ht="14.25" customHeight="1">
       <c r="A94" s="7" t="s">
         <v>952</v>
       </c>
@@ -13953,7 +14226,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:24" ht="14.25" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>1320</v>
       </c>
@@ -13961,7 +14234,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:24" ht="14.25" customHeight="1">
       <c r="A96" s="7" t="s">
         <v>1321</v>
       </c>
@@ -13972,7 +14245,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:7" ht="14.25" customHeight="1">
       <c r="A97" s="7" t="s">
         <v>1324</v>
       </c>
@@ -13986,7 +14259,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1">
       <c r="A98" s="7" t="s">
         <v>1328</v>
       </c>
@@ -13997,7 +14270,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1">
       <c r="A99" s="7" t="s">
         <v>1331</v>
       </c>
@@ -14008,7 +14281,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1">
       <c r="A100" s="7" t="s">
         <v>1334</v>
       </c>
@@ -14019,7 +14292,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1">
       <c r="F101" s="7" t="s">
         <v>1337</v>
       </c>
@@ -14027,7 +14300,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>1339</v>
       </c>
@@ -14041,7 +14314,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>1343</v>
       </c>
@@ -14052,7 +14325,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>1346</v>
       </c>
@@ -14060,7 +14333,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>1348</v>
       </c>
@@ -14068,7 +14341,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1">
       <c r="A106" s="7" t="s">
         <v>1350</v>
       </c>
@@ -14076,7 +14349,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:7" ht="14.25" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>1352</v>
       </c>
@@ -14087,7 +14360,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>1355</v>
       </c>
@@ -14095,22 +14368,22 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1">
       <c r="C109" s="5" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1">
       <c r="C110" s="5" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1">
       <c r="C111" s="5" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
@@ -15002,9 +15275,12 @@
     <mergeCell ref="AS4:AT4"/>
     <mergeCell ref="AT5:AU5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="1020" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3680" yWindow="260" windowWidth="30260" windowHeight="19960" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
     <sheet name="answers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="1363">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -4161,12 +4161,21 @@
   <si>
     <t>discard</t>
   </si>
+  <si>
+    <t>pim defaults</t>
+  </si>
+  <si>
+    <t>hold time</t>
+  </si>
+  <si>
+    <t>105 (1:45)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4224,6 +4233,18 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4295,10 +4316,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4414,12 +4439,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8708,8 +8738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P32" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -9024,10 +9054,10 @@
       <c r="AS3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AT3" s="79" t="s">
+      <c r="AT3" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="80"/>
+      <c r="AU3" s="81"/>
     </row>
     <row r="4" spans="1:47" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -9104,10 +9134,10 @@
       <c r="AQ4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS4" s="79" t="s">
+      <c r="AS4" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="AT4" s="80"/>
+      <c r="AT4" s="81"/>
       <c r="AU4" s="14"/>
     </row>
     <row r="5" spans="1:47" ht="14.25" customHeight="1">
@@ -9156,10 +9186,10 @@
       <c r="AS5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AT5" s="79" t="s">
+      <c r="AT5" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="AU5" s="80"/>
+      <c r="AU5" s="81"/>
     </row>
     <row r="6" spans="1:47" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -9610,13 +9640,15 @@
       <c r="AI11" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="AK11" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="23" t="s">
-        <v>210</v>
+      <c r="AK11" s="45" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN11" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="AO11" s="24"/>
       <c r="AP11" s="19" t="s">
@@ -9690,14 +9722,14 @@
       <c r="AI12" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AK12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL12" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
+      <c r="AK12" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AL12" s="79"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5" t="s">
+        <v>1362</v>
+      </c>
       <c r="AO12" s="28"/>
       <c r="AP12" s="19" t="s">
         <v>241</v>
@@ -9773,12 +9805,10 @@
       <c r="AI13" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="79"/>
+      <c r="AM13" s="79"/>
+      <c r="AN13" s="79"/>
       <c r="AO13" s="22"/>
       <c r="AP13" s="19" t="s">
         <v>261</v>
@@ -9849,12 +9879,14 @@
       <c r="AI14" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="29" t="s">
-        <v>278</v>
-      </c>
+      <c r="AK14" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL14" s="52"/>
       <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
+      <c r="AN14" s="23" t="s">
+        <v>210</v>
+      </c>
       <c r="AO14" s="22"/>
       <c r="AP14" s="19" t="s">
         <v>279</v>
@@ -9914,12 +9946,14 @@
       <c r="AI15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
+      <c r="AK15" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL15" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
       <c r="AP15" s="19" t="s">
         <v>294</v>
       </c>
@@ -9987,14 +10021,12 @@
       <c r="AI16" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="AK16" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL16" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="35"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
       <c r="AP16" s="19" t="s">
         <v>315</v>
       </c>
@@ -10064,8 +10096,10 @@
       <c r="AI17" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="22"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79" t="s">
+        <v>278</v>
+      </c>
       <c r="AM17" s="22"/>
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
@@ -10132,14 +10166,12 @@
       <c r="AI18" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="AK18" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="23" t="s">
-        <v>345</v>
-      </c>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
       <c r="AO18" s="31"/>
       <c r="AR18" s="3" t="s">
         <v>346</v>
@@ -10207,18 +10239,14 @@
       <c r="AE19" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="AK19" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="AL19" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="AM19" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="AN19" s="40" t="s">
-        <v>373</v>
-      </c>
+      <c r="AK19" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL19" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="35"/>
       <c r="AO19" s="24"/>
       <c r="AQ19" s="7" t="s">
         <v>375</v>
@@ -10288,18 +10316,10 @@
       <c r="AH20" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="AK20" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="AL20" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="AM20" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="AN20" s="42" t="s">
-        <v>393</v>
-      </c>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
       <c r="AO20" s="28"/>
       <c r="AQ20" s="7" t="s">
         <v>394</v>
@@ -10364,14 +10384,14 @@
       <c r="AI21" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="AM21" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="AN21" s="43"/>
+      <c r="AK21" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="23" t="s">
+        <v>345</v>
+      </c>
       <c r="AO21" s="31"/>
       <c r="AQ21" s="7" t="s">
         <v>409</v>
@@ -10439,10 +10459,18 @@
       <c r="AI22" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
+      <c r="AK22" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL22" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM22" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN22" s="40" t="s">
+        <v>373</v>
+      </c>
       <c r="AO22" s="31"/>
       <c r="AQ22" s="7" t="s">
         <v>422</v>
@@ -10511,13 +10539,17 @@
       <c r="AI23" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="AK23" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="23" t="s">
-        <v>435</v>
+      <c r="AK23" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL23" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM23" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN23" s="42" t="s">
+        <v>393</v>
       </c>
       <c r="AO23" s="27"/>
       <c r="AQ23" s="7" t="s">
@@ -10577,13 +10609,13 @@
       <c r="AI24" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="AK24" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="AL24" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="AM24" s="43"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM24" s="42" t="s">
+        <v>408</v>
+      </c>
       <c r="AN24" s="43"/>
       <c r="AO24" s="24"/>
       <c r="AQ24" s="7" t="s">
@@ -10654,11 +10686,9 @@
         <v>467</v>
       </c>
       <c r="AK25" s="22"/>
-      <c r="AL25" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
       <c r="AO25" s="28"/>
       <c r="AQ25" s="7" t="s">
         <v>469</v>
@@ -10721,12 +10751,14 @@
       <c r="AI26" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
+      <c r="AK26" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="23" t="s">
+        <v>435</v>
+      </c>
       <c r="AO26" s="47"/>
       <c r="AQ26" s="7" t="s">
         <v>485</v>
@@ -10789,14 +10821,14 @@
       <c r="AI27" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="AK27" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="AL27" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="21"/>
+      <c r="AK27" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL27" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
@@ -10846,14 +10878,12 @@
       <c r="AF28" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="40" t="s">
-        <v>516</v>
-      </c>
-      <c r="AM28" s="40" t="s">
-        <v>517</v>
-      </c>
-      <c r="AN28" s="52"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
       <c r="AO28" s="22"/>
       <c r="AP28" s="3" t="s">
         <v>518</v>
@@ -10907,16 +10937,12 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-      <c r="AK29" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="AL29" s="42" t="s">
-        <v>535</v>
-      </c>
-      <c r="AM29" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="AN29" s="43"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="46"/>
       <c r="AO29" s="22"/>
       <c r="AP29" s="7" t="s">
         <v>534</v>
@@ -10950,16 +10976,14 @@
       <c r="P30" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="AK30" s="44" t="s">
-        <v>540</v>
-      </c>
-      <c r="AL30" s="42" t="s">
-        <v>548</v>
-      </c>
-      <c r="AM30" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="AN30" s="43"/>
+      <c r="AK30" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL30" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
       <c r="AO30" s="22"/>
       <c r="AP30" s="7" t="s">
         <v>544</v>
@@ -11021,16 +11045,14 @@
       <c r="AH31" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="AK31" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="AL31" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="AM31" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="AN31" s="46"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="AM31" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN31" s="52"/>
       <c r="AO31" s="22"/>
       <c r="AP31" s="7" t="s">
         <v>567</v>
@@ -11107,10 +11129,16 @@
       <c r="AI32" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
+      <c r="AK32" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="AL32" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="AM32" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="AN32" s="43"/>
       <c r="AO32" s="22"/>
       <c r="AP32" s="7" t="s">
         <v>582</v>
@@ -11171,14 +11199,16 @@
       <c r="AI33" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AK33" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="AL33" s="58"/>
-      <c r="AM33" s="58"/>
-      <c r="AN33" s="23" t="s">
-        <v>601</v>
-      </c>
+      <c r="AK33" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="AL33" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM33" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN33" s="43"/>
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
@@ -11232,14 +11262,16 @@
       <c r="AI34" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="AK34" s="59" t="s">
-        <v>447</v>
-      </c>
-      <c r="AL34" s="33" t="s">
-        <v>621</v>
-      </c>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="43"/>
+      <c r="AK34" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="AL34" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="AM34" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN34" s="46"/>
       <c r="AO34" s="28"/>
       <c r="AP34" s="60" t="s">
         <v>622</v>
@@ -11289,14 +11321,10 @@
       <c r="AI35" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="AK35" s="61"/>
-      <c r="AL35" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="AM35" s="42" t="s">
-        <v>640</v>
-      </c>
-      <c r="AN35" s="43"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
       <c r="AO35" s="22"/>
       <c r="AP35" s="18" t="s">
         <v>641</v>
@@ -11363,10 +11391,14 @@
       <c r="AF36" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
+      <c r="AK36" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="AL36" s="58"/>
+      <c r="AM36" s="58"/>
+      <c r="AN36" s="23" t="s">
+        <v>601</v>
+      </c>
       <c r="AO36" s="22"/>
       <c r="AP36" s="18" t="s">
         <v>661</v>
@@ -11440,14 +11472,14 @@
       <c r="AH37" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="AK37" s="37" t="s">
-        <v>672</v>
-      </c>
-      <c r="AL37" s="58"/>
-      <c r="AM37" s="58"/>
-      <c r="AN37" s="23" t="s">
-        <v>435</v>
-      </c>
+      <c r="AK37" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL37" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="AM37" s="43"/>
+      <c r="AN37" s="43"/>
       <c r="AO37" s="24"/>
       <c r="AP37" s="29"/>
       <c r="AS37" s="7" t="s">
@@ -11517,14 +11549,14 @@
       <c r="AI38" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="AK38" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="AK38" s="61"/>
       <c r="AL38" s="33" t="s">
-        <v>697</v>
-      </c>
-      <c r="AM38" s="46"/>
-      <c r="AN38" s="46"/>
+        <v>639</v>
+      </c>
+      <c r="AM38" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="AN38" s="43"/>
       <c r="AO38" s="64"/>
       <c r="AP38" s="29"/>
       <c r="AS38" s="7" t="s">
@@ -11582,12 +11614,10 @@
       <c r="AI39" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="AK39" s="65"/>
-      <c r="AL39" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="AM39" s="46"/>
-      <c r="AN39" s="46"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
       <c r="AO39" s="22"/>
       <c r="AP39" s="22"/>
       <c r="AS39" s="7" t="s">
@@ -11628,12 +11658,14 @@
       <c r="AI40" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="AK40" s="65"/>
-      <c r="AL40" s="33" t="s">
-        <v>727</v>
-      </c>
-      <c r="AM40" s="46"/>
-      <c r="AN40" s="46"/>
+      <c r="AK40" s="37" t="s">
+        <v>672</v>
+      </c>
+      <c r="AL40" s="58"/>
+      <c r="AM40" s="58"/>
+      <c r="AN40" s="23" t="s">
+        <v>435</v>
+      </c>
       <c r="AO40" s="22"/>
       <c r="AP40" s="22"/>
       <c r="AS40" s="7" t="s">
@@ -11696,14 +11728,14 @@
       <c r="AI41" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="AK41" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="AL41" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="AM41" s="65"/>
-      <c r="AN41" s="65"/>
+      <c r="AK41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL41" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="AM41" s="46"/>
+      <c r="AN41" s="46"/>
       <c r="AO41" s="22"/>
       <c r="AS41" s="7" t="s">
         <v>746</v>
@@ -11762,18 +11794,12 @@
       <c r="AI42" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="AK42" s="67">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="29" t="s">
-        <v>743</v>
-      </c>
-      <c r="AM42" s="33" t="s">
-        <v>767</v>
-      </c>
-      <c r="AN42" s="33" t="s">
-        <v>768</v>
-      </c>
+      <c r="AK42" s="65"/>
+      <c r="AL42" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="AM42" s="46"/>
+      <c r="AN42" s="46"/>
       <c r="AO42" s="22"/>
       <c r="AS42" s="7" t="s">
         <v>769</v>
@@ -11831,16 +11857,12 @@
       <c r="AI43" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="29" t="s">
-        <v>755</v>
-      </c>
-      <c r="AM43" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="AN43" s="33" t="s">
-        <v>783</v>
-      </c>
+      <c r="AK43" s="65"/>
+      <c r="AL43" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM43" s="46"/>
+      <c r="AN43" s="46"/>
       <c r="AO43" s="22"/>
       <c r="AT43" s="63" t="s">
         <v>784</v>
@@ -11901,10 +11923,14 @@
       <c r="AI44" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="AK44" s="69"/>
-      <c r="AL44" s="69"/>
-      <c r="AM44" s="69"/>
-      <c r="AN44" s="69"/>
+      <c r="AK44" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="AL44" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="65"/>
       <c r="AO44" s="69"/>
       <c r="AR44" s="3" t="s">
         <v>795</v>
@@ -11964,6 +11990,22 @@
         <v>808</v>
       </c>
       <c r="AF45" s="3"/>
+      <c r="AK45" s="67">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="AM45" s="33" t="s">
+        <v>767</v>
+      </c>
+      <c r="AN45" s="33" t="s">
+        <v>768</v>
+      </c>
+      <c r="AO45" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="AP45" s="53"/>
       <c r="AR45" s="4" t="s">
         <v>810</v>
       </c>
@@ -12015,6 +12057,22 @@
       <c r="AI46" s="3" t="s">
         <v>826</v>
       </c>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="AM46" s="33" t="s">
+        <v>782</v>
+      </c>
+      <c r="AN46" s="33" t="s">
+        <v>783</v>
+      </c>
+      <c r="AO46" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="AP46" s="3" t="s">
+        <v>867</v>
+      </c>
       <c r="AR46" s="4" t="s">
         <v>827</v>
       </c>
@@ -12067,6 +12125,16 @@
       <c r="AI47" s="70" t="s">
         <v>849</v>
       </c>
+      <c r="AK47" s="69"/>
+      <c r="AL47" s="69"/>
+      <c r="AM47" s="69"/>
+      <c r="AN47" s="69"/>
+      <c r="AO47" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="AP47" s="70" t="s">
+        <v>896</v>
+      </c>
       <c r="AR47" s="4" t="s">
         <v>851</v>
       </c>
@@ -12116,13 +12184,12 @@
       <c r="AI48" s="70" t="s">
         <v>861</v>
       </c>
-      <c r="AL48" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="AN48" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="AO48" s="53"/>
+      <c r="AO48" s="70" t="s">
+        <v>909</v>
+      </c>
+      <c r="AP48" s="70" t="s">
+        <v>910</v>
+      </c>
       <c r="AR48" s="4" t="s">
         <v>862</v>
       </c>
@@ -12164,14 +12231,11 @@
       <c r="AI49" s="70" t="s">
         <v>874</v>
       </c>
-      <c r="AL49" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="AN49" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="AO49" s="3" t="s">
-        <v>867</v>
+      <c r="AO49" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP49" s="70" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="50" spans="1:46" ht="14.25" customHeight="1">
@@ -12221,14 +12285,11 @@
       <c r="AI50" s="70" t="s">
         <v>892</v>
       </c>
-      <c r="AL50" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="AN50" s="70" t="s">
-        <v>895</v>
-      </c>
       <c r="AO50" s="70" t="s">
-        <v>896</v>
+        <v>947</v>
+      </c>
+      <c r="AP50" s="70" t="s">
+        <v>948</v>
       </c>
       <c r="AR50" s="3" t="s">
         <v>880</v>
@@ -12287,14 +12348,14 @@
       <c r="AI51" s="70" t="s">
         <v>907</v>
       </c>
-      <c r="AL51" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="AN51" s="70" t="s">
-        <v>909</v>
+      <c r="AL51" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="AO51" s="70" t="s">
-        <v>910</v>
+        <v>971</v>
+      </c>
+      <c r="AP51" s="70" t="s">
+        <v>972</v>
       </c>
       <c r="AR51" s="4" t="s">
         <v>911</v>
@@ -12343,14 +12404,14 @@
       <c r="AD52" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="AL52" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="AN52" s="70" t="s">
-        <v>925</v>
+      <c r="AL52" s="3" t="s">
+        <v>864</v>
       </c>
       <c r="AO52" s="70" t="s">
-        <v>926</v>
+        <v>981</v>
+      </c>
+      <c r="AP52" s="70" t="s">
+        <v>982</v>
       </c>
       <c r="AR52" s="4" t="s">
         <v>928</v>
@@ -12417,13 +12478,7 @@
         <v>945</v>
       </c>
       <c r="AL53" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="AN53" s="70" t="s">
-        <v>947</v>
-      </c>
-      <c r="AO53" s="70" t="s">
-        <v>948</v>
+        <v>893</v>
       </c>
       <c r="AR53" s="4" t="s">
         <v>950</v>
@@ -12488,13 +12543,7 @@
         <v>967</v>
       </c>
       <c r="AL54" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="AN54" s="70" t="s">
-        <v>971</v>
-      </c>
-      <c r="AO54" s="70" t="s">
-        <v>972</v>
+        <v>908</v>
       </c>
     </row>
     <row r="55" spans="1:46" ht="14.25" customHeight="1">
@@ -12547,13 +12596,7 @@
         <v>979</v>
       </c>
       <c r="AL55" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="AN55" s="70" t="s">
-        <v>981</v>
-      </c>
-      <c r="AO55" s="70" t="s">
-        <v>982</v>
+        <v>924</v>
       </c>
       <c r="AR55" s="56" t="s">
         <v>949</v>
@@ -12607,7 +12650,7 @@
         <v>992</v>
       </c>
       <c r="AL56" s="4" t="s">
-        <v>993</v>
+        <v>946</v>
       </c>
       <c r="AR56" s="3" t="s">
         <v>957</v>
@@ -12665,7 +12708,7 @@
       </c>
       <c r="X57" s="5"/>
       <c r="AL57" s="4" t="s">
-        <v>998</v>
+        <v>970</v>
       </c>
       <c r="AQ57" s="7" t="s">
         <v>973</v>
@@ -12720,7 +12763,7 @@
         <v>922</v>
       </c>
       <c r="AL58" s="4" t="s">
-        <v>1010</v>
+        <v>980</v>
       </c>
       <c r="AQ58" s="7" t="s">
         <v>995</v>
@@ -12782,8 +12825,8 @@
         <v>1029</v>
       </c>
       <c r="AE59" s="4"/>
-      <c r="AL59" s="3" t="s">
-        <v>1006</v>
+      <c r="AL59" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="AQ59" s="7" t="s">
         <v>1008</v>
@@ -12846,7 +12889,7 @@
       </c>
       <c r="AE60" s="4"/>
       <c r="AL60" s="4" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
     </row>
     <row r="61" spans="1:46" ht="14.25" customHeight="1">
@@ -12895,7 +12938,7 @@
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AL61" s="4" t="s">
-        <v>1059</v>
+        <v>1010</v>
       </c>
       <c r="AS61" s="7"/>
       <c r="AT61" s="3" t="s">
@@ -12947,8 +12990,8 @@
       </c>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
-      <c r="AL62" s="4" t="s">
-        <v>1070</v>
+      <c r="AL62" s="3" t="s">
+        <v>1006</v>
       </c>
       <c r="AS62" s="7" t="s">
         <v>1071</v>
@@ -12996,7 +13039,7 @@
         <v>1080</v>
       </c>
       <c r="AL63" s="4" t="s">
-        <v>1081</v>
+        <v>970</v>
       </c>
       <c r="AS63" s="7" t="s">
         <v>1082</v>
@@ -13037,8 +13080,9 @@
       <c r="AD64" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="AL64" s="3"/>
-      <c r="AN64" s="3"/>
+      <c r="AL64" s="4" t="s">
+        <v>1059</v>
+      </c>
       <c r="AS64" s="7" t="s">
         <v>1105</v>
       </c>
@@ -13075,11 +13119,8 @@
       <c r="AD65" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="AL65" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AN65" s="3" t="s">
-        <v>1054</v>
+      <c r="AL65" s="4" t="s">
+        <v>1070</v>
       </c>
       <c r="AO65" s="3" t="s">
         <v>1126</v>
@@ -13138,10 +13179,7 @@
         <v>115</v>
       </c>
       <c r="AL66" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AN66" s="7" t="s">
-        <v>1060</v>
+        <v>1081</v>
       </c>
       <c r="AO66" s="70" t="s">
         <v>1142</v>
@@ -13203,12 +13241,8 @@
       <c r="AD67" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="AL67" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AN67" s="7" t="s">
-        <v>1073</v>
-      </c>
+      <c r="AL67" s="3"/>
+      <c r="AN67" s="3"/>
       <c r="AO67" s="70" t="s">
         <v>1153</v>
       </c>
@@ -13275,11 +13309,11 @@
       <c r="AD68" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="AL68" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="AN68" s="7" t="s">
-        <v>1089</v>
+      <c r="AL68" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AN68" s="3" t="s">
+        <v>1054</v>
       </c>
       <c r="AO68" s="70" t="s">
         <v>1167</v>
@@ -13345,7 +13379,10 @@
         <v>115</v>
       </c>
       <c r="AL69" s="4" t="s">
-        <v>1179</v>
+        <v>1141</v>
+      </c>
+      <c r="AN69" s="7" t="s">
+        <v>1060</v>
       </c>
       <c r="AS69" s="7" t="s">
         <v>1180</v>
@@ -13397,6 +13434,12 @@
       <c r="AD70" s="7" t="s">
         <v>1151</v>
       </c>
+      <c r="AL70" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AN70" s="7" t="s">
+        <v>1073</v>
+      </c>
       <c r="AS70" s="7" t="s">
         <v>1188</v>
       </c>
@@ -13435,6 +13478,12 @@
       <c r="Z71" s="78" t="s">
         <v>50</v>
       </c>
+      <c r="AL71" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="AN71" s="7" t="s">
+        <v>1089</v>
+      </c>
     </row>
     <row r="72" spans="1:47" ht="14.25" customHeight="1">
       <c r="A72" s="18" t="s">
@@ -13470,8 +13519,8 @@
       <c r="Z72" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="AN72" s="3" t="s">
-        <v>1098</v>
+      <c r="AL72" s="4" t="s">
+        <v>1179</v>
       </c>
       <c r="AO72" s="3" t="s">
         <v>1099</v>
@@ -13524,9 +13573,6 @@
       <c r="X73" s="19" t="s">
         <v>1204</v>
       </c>
-      <c r="AN73" s="7" t="s">
-        <v>1107</v>
-      </c>
       <c r="AO73" s="70" t="s">
         <v>1205</v>
       </c>
@@ -13583,9 +13629,6 @@
       <c r="X74" s="19" t="s">
         <v>1212</v>
       </c>
-      <c r="AN74" s="7" t="s">
-        <v>1111</v>
-      </c>
       <c r="AO74" s="70" t="s">
         <v>1213</v>
       </c>
@@ -13630,8 +13673,8 @@
       <c r="V75" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AN75" s="7" t="s">
-        <v>1114</v>
+      <c r="AN75" s="3" t="s">
+        <v>1098</v>
       </c>
       <c r="AO75" s="70" t="s">
         <v>1216</v>
@@ -13687,7 +13730,7 @@
         <v>50</v>
       </c>
       <c r="AN76" s="7" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="AO76" s="70" t="s">
         <v>1221</v>
@@ -13746,7 +13789,7 @@
         <v>115</v>
       </c>
       <c r="AN77" s="7" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="AO77" s="70" t="s">
         <v>1229</v>
@@ -13804,6 +13847,9 @@
       <c r="V78" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="AN78" s="7" t="s">
+        <v>1114</v>
+      </c>
       <c r="AS78" s="18" t="s">
         <v>115</v>
       </c>
@@ -13846,6 +13892,9 @@
       <c r="V79" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="AN79" s="7" t="s">
+        <v>1118</v>
+      </c>
       <c r="AS79" s="18" t="s">
         <v>115</v>
       </c>
@@ -13868,6 +13917,9 @@
       </c>
       <c r="N80" s="56" t="s">
         <v>1110</v>
+      </c>
+      <c r="AN80" s="7" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="14.25" customHeight="1">

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="260" windowWidth="30260" windowHeight="19960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5120" yWindow="240" windowWidth="30260" windowHeight="19960" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
@@ -4316,8 +4316,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4445,11 +4451,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8738,8 +8750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="AO39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AR49" sqref="AR49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -13122,6 +13134,9 @@
       <c r="AL65" s="4" t="s">
         <v>1070</v>
       </c>
+      <c r="AN65" s="3" t="s">
+        <v>1054</v>
+      </c>
       <c r="AO65" s="3" t="s">
         <v>1126</v>
       </c>
@@ -13181,6 +13196,9 @@
       <c r="AL66" s="4" t="s">
         <v>1081</v>
       </c>
+      <c r="AN66" s="7" t="s">
+        <v>1060</v>
+      </c>
       <c r="AO66" s="70" t="s">
         <v>1142</v>
       </c>
@@ -13242,7 +13260,9 @@
         <v>1151</v>
       </c>
       <c r="AL67" s="3"/>
-      <c r="AN67" s="3"/>
+      <c r="AN67" s="7" t="s">
+        <v>1073</v>
+      </c>
       <c r="AO67" s="70" t="s">
         <v>1153</v>
       </c>
@@ -13312,8 +13332,8 @@
       <c r="AL68" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="AN68" s="3" t="s">
-        <v>1054</v>
+      <c r="AN68" s="7" t="s">
+        <v>1089</v>
       </c>
       <c r="AO68" s="70" t="s">
         <v>1167</v>
@@ -13381,9 +13401,6 @@
       <c r="AL69" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="AN69" s="7" t="s">
-        <v>1060</v>
-      </c>
       <c r="AS69" s="7" t="s">
         <v>1180</v>
       </c>
@@ -13437,8 +13454,17 @@
       <c r="AL70" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="AN70" s="7" t="s">
-        <v>1073</v>
+      <c r="AN70" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AO70" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AP70" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AQ70" s="3" t="s">
+        <v>1102</v>
       </c>
       <c r="AS70" s="7" t="s">
         <v>1188</v>
@@ -13482,7 +13508,16 @@
         <v>970</v>
       </c>
       <c r="AN71" s="7" t="s">
-        <v>1089</v>
+        <v>1107</v>
+      </c>
+      <c r="AO71" s="70" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AP71" s="70" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AQ71" s="70" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="72" spans="1:47" ht="14.25" customHeight="1">
@@ -13522,14 +13557,17 @@
       <c r="AL72" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="AO72" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AP72" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AQ72" s="3" t="s">
-        <v>1102</v>
+      <c r="AN72" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AO72" s="70" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AP72" s="70" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AQ72" s="70" t="s">
+        <v>1206</v>
       </c>
       <c r="AS72" s="3" t="s">
         <v>1197</v>
@@ -13573,14 +13611,17 @@
       <c r="X73" s="19" t="s">
         <v>1204</v>
       </c>
+      <c r="AN73" s="7" t="s">
+        <v>1114</v>
+      </c>
       <c r="AO73" s="70" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
       <c r="AP73" s="70" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AQ73" s="70" t="s">
         <v>1206</v>
-      </c>
-      <c r="AQ73" s="70" t="s">
-        <v>1207</v>
       </c>
       <c r="AS73" s="18" t="s">
         <v>50</v>
@@ -13629,11 +13670,14 @@
       <c r="X74" s="19" t="s">
         <v>1212</v>
       </c>
+      <c r="AN74" s="7" t="s">
+        <v>1118</v>
+      </c>
       <c r="AO74" s="70" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="AP74" s="70" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="AQ74" s="70" t="s">
         <v>1206</v>
@@ -13673,11 +13717,11 @@
       <c r="V75" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AN75" s="3" t="s">
-        <v>1098</v>
+      <c r="AN75" s="7" t="s">
+        <v>1122</v>
       </c>
       <c r="AO75" s="70" t="s">
-        <v>1216</v>
+        <v>1229</v>
       </c>
       <c r="AP75" s="70" t="s">
         <v>1217</v>
@@ -13729,18 +13773,6 @@
       <c r="V76" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AN76" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AO76" s="70" t="s">
-        <v>1221</v>
-      </c>
-      <c r="AP76" s="70" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AQ76" s="70" t="s">
-        <v>1206</v>
-      </c>
       <c r="AS76" s="18" t="s">
         <v>50</v>
       </c>
@@ -13788,18 +13820,6 @@
       <c r="V77" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AN77" s="7" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AO77" s="70" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AP77" s="70" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AQ77" s="70" t="s">
-        <v>1206</v>
-      </c>
       <c r="AS77" s="18" t="s">
         <v>115</v>
       </c>
@@ -13847,9 +13867,6 @@
       <c r="V78" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AN78" s="7" t="s">
-        <v>1114</v>
-      </c>
       <c r="AS78" s="18" t="s">
         <v>115</v>
       </c>
@@ -13892,9 +13909,6 @@
       <c r="V79" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AN79" s="7" t="s">
-        <v>1118</v>
-      </c>
       <c r="AS79" s="18" t="s">
         <v>115</v>
       </c>
@@ -13917,9 +13931,6 @@
       </c>
       <c r="N80" s="56" t="s">
         <v>1110</v>
-      </c>
-      <c r="AN80" s="7" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="14.25" customHeight="1">

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qdemmon\Desktop\git\notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="240" windowWidth="30260" windowHeight="19960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5115" yWindow="240" windowWidth="30255" windowHeight="19965" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1379">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -4170,12 +4175,60 @@
   <si>
     <t>105 (1:45)</t>
   </si>
+  <si>
+    <t>ipv4 multicast ranges</t>
+  </si>
+  <si>
+    <t>224.0.0.0/8</t>
+  </si>
+  <si>
+    <t>ipv4 multicast groups</t>
+  </si>
+  <si>
+    <t>232.0.0.0/8</t>
+  </si>
+  <si>
+    <t>239.0.0.0/8</t>
+  </si>
+  <si>
+    <t>private ip space</t>
+  </si>
+  <si>
+    <t>224.0.0.0/24</t>
+  </si>
+  <si>
+    <t>local network control block</t>
+  </si>
+  <si>
+    <t>224.0.1.0/24</t>
+  </si>
+  <si>
+    <t>internetwork control block</t>
+  </si>
+  <si>
+    <t>232.0.0.0/24</t>
+  </si>
+  <si>
+    <t>source-specific multicast</t>
+  </si>
+  <si>
+    <t>239.0.0.0/24</t>
+  </si>
+  <si>
+    <t>organization-local scope</t>
+  </si>
+  <si>
+    <t>224.0.1.39</t>
+  </si>
+  <si>
+    <t>224.0.1.40</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4245,6 +4298,25 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4329,7 +4401,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4446,10 +4518,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4466,6 +4547,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4795,57 +4884,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.5" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="22.5" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" customWidth="1"/>
-    <col min="21" max="21" width="32.1640625" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="25.1640625" customWidth="1"/>
-    <col min="24" max="24" width="45.33203125" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" customWidth="1"/>
-    <col min="26" max="26" width="24.33203125" customWidth="1"/>
-    <col min="27" max="27" width="29.1640625" customWidth="1"/>
-    <col min="28" max="28" width="18.6640625" customWidth="1"/>
-    <col min="29" max="29" width="22.5" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" customWidth="1"/>
-    <col min="31" max="31" width="27.6640625" customWidth="1"/>
-    <col min="32" max="32" width="19.1640625" customWidth="1"/>
-    <col min="33" max="33" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" customWidth="1"/>
+    <col min="24" max="24" width="45.28515625" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="26" max="26" width="24.28515625" customWidth="1"/>
+    <col min="27" max="27" width="29.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" customWidth="1"/>
+    <col min="29" max="29" width="22.42578125" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="26.5" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" customWidth="1"/>
-    <col min="37" max="37" width="11.83203125" customWidth="1"/>
-    <col min="38" max="38" width="26.5" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" customWidth="1"/>
-    <col min="40" max="40" width="24.83203125" customWidth="1"/>
+    <col min="35" max="35" width="26.42578125" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="38" max="38" width="26.42578125" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" customWidth="1"/>
+    <col min="40" max="40" width="24.85546875" customWidth="1"/>
     <col min="41" max="41" width="24" customWidth="1"/>
-    <col min="42" max="42" width="21.33203125" customWidth="1"/>
-    <col min="43" max="43" width="16.5" customWidth="1"/>
-    <col min="44" max="44" width="28.83203125" customWidth="1"/>
-    <col min="45" max="45" width="24.33203125" customWidth="1"/>
-    <col min="46" max="47" width="18.1640625" customWidth="1"/>
-    <col min="48" max="48" width="24.5" customWidth="1"/>
+    <col min="42" max="42" width="21.28515625" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" customWidth="1"/>
+    <col min="45" max="45" width="24.28515625" customWidth="1"/>
+    <col min="46" max="47" width="18.140625" customWidth="1"/>
+    <col min="48" max="48" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4919,7 +5008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -4975,7 +5064,7 @@
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>10</v>
@@ -5020,7 +5109,7 @@
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
     </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1">
+    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>7</v>
@@ -5064,7 +5153,7 @@
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>4</v>
@@ -5090,7 +5179,7 @@
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
     </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1">
+    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>3</v>
@@ -5145,7 +5234,7 @@
       </c>
       <c r="AQ6" s="11"/>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="C7">
         <v>1</v>
@@ -5198,7 +5287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8">
         <v>0</v>
@@ -5239,7 +5328,7 @@
       <c r="AN8" s="5"/>
       <c r="AT8" s="18"/>
     </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -5274,7 +5363,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="G10" s="5"/>
       <c r="J10" s="7" t="s">
@@ -5320,7 +5409,7 @@
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>167</v>
@@ -5376,7 +5465,7 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
       <c r="J12" s="7" t="s">
@@ -5426,7 +5515,7 @@
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -5477,7 +5566,7 @@
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -5525,7 +5614,7 @@
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -5567,7 +5656,7 @@
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -5618,7 +5707,7 @@
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -5663,7 +5752,7 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
       <c r="F18" s="5"/>
       <c r="H18" s="5"/>
@@ -5722,7 +5811,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
@@ -5782,7 +5871,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
@@ -5825,7 +5914,7 @@
       <c r="AS20" s="12"/>
       <c r="AT20" s="12"/>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
         <v>395</v>
@@ -5869,7 +5958,7 @@
       <c r="AS21" s="12"/>
       <c r="AT21" s="12"/>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>410</v>
@@ -5910,7 +5999,7 @@
       <c r="AS22" s="12"/>
       <c r="AT22" s="12"/>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>424</v>
@@ -5960,7 +6049,7 @@
       <c r="AS23" s="12"/>
       <c r="AT23" s="12"/>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>439</v>
@@ -6002,7 +6091,7 @@
       <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>455</v>
@@ -6052,7 +6141,7 @@
       <c r="AS25" s="12"/>
       <c r="AT25" s="12"/>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="F26" s="5"/>
       <c r="H26" s="5"/>
@@ -6094,7 +6183,7 @@
       <c r="AS26" s="12"/>
       <c r="AT26" s="48"/>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>489</v>
       </c>
@@ -6139,7 +6228,7 @@
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>505</v>
@@ -6186,7 +6275,7 @@
       </c>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="D29" s="4"/>
       <c r="F29" s="54"/>
@@ -6222,7 +6311,7 @@
       </c>
       <c r="AQ29" s="12"/>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="54"/>
@@ -6248,7 +6337,7 @@
       <c r="AR30" s="12"/>
       <c r="AS30" s="12"/>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="54"/>
@@ -6298,7 +6387,7 @@
       <c r="AR31" s="12"/>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="54"/>
@@ -6349,7 +6438,7 @@
       <c r="AR32" s="12"/>
       <c r="AS32" s="12"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25" customHeight="1">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>585</v>
       </c>
@@ -6388,7 +6477,7 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" spans="1:47" ht="14.25" customHeight="1">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>604</v>
       </c>
@@ -6435,7 +6524,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="14.25" customHeight="1">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="D35" s="49" t="s">
         <v>624</v>
@@ -6474,7 +6563,7 @@
       <c r="AP35" s="18"/>
       <c r="AQ35" s="62"/>
     </row>
-    <row r="36" spans="1:47" ht="14.25" customHeight="1">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="D36" s="54"/>
       <c r="F36" s="54"/>
@@ -6531,7 +6620,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="14.25" customHeight="1">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="D37" s="54"/>
       <c r="F37" s="54"/>
@@ -6583,7 +6672,7 @@
       <c r="AT37" s="63"/>
       <c r="AU37" s="63"/>
     </row>
-    <row r="38" spans="1:47" ht="14.25" customHeight="1">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="D38" s="54"/>
       <c r="F38" s="54"/>
@@ -6626,7 +6715,7 @@
       <c r="AT38" s="63"/>
       <c r="AU38" s="63"/>
     </row>
-    <row r="39" spans="1:47" ht="14.25" customHeight="1">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="D39" s="54"/>
       <c r="J39" s="3" t="s">
@@ -6660,7 +6749,7 @@
       <c r="AT39" s="63"/>
       <c r="AU39" s="63"/>
     </row>
-    <row r="40" spans="1:47" ht="14.25" customHeight="1">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6689,7 +6778,7 @@
       <c r="AT40" s="63"/>
       <c r="AU40" s="63"/>
     </row>
-    <row r="41" spans="1:47" ht="14.25" customHeight="1">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>725</v>
       </c>
@@ -6743,7 +6832,7 @@
       <c r="AT41" s="63"/>
       <c r="AU41" s="63"/>
     </row>
-    <row r="42" spans="1:47" ht="14.25" customHeight="1">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="D42" s="54"/>
       <c r="E42" s="7">
@@ -6780,7 +6869,7 @@
       <c r="AT42" s="63"/>
       <c r="AU42" s="63"/>
     </row>
-    <row r="43" spans="1:47" ht="14.25" customHeight="1">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="D43" s="54"/>
       <c r="E43" s="7">
@@ -6816,7 +6905,7 @@
       <c r="AN43" s="33"/>
       <c r="AO43" s="22"/>
     </row>
-    <row r="44" spans="1:47" ht="14.25" customHeight="1">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="D44" s="3" t="s">
         <v>761</v>
@@ -6853,7 +6942,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="14.25" customHeight="1">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="D45" s="54"/>
       <c r="E45" s="7">
@@ -6885,7 +6974,7 @@
       </c>
       <c r="AR45" s="4"/>
     </row>
-    <row r="46" spans="1:47" ht="14.25" customHeight="1">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="D46" s="54"/>
       <c r="E46" s="7">
@@ -6916,7 +7005,7 @@
       <c r="AI46" s="4"/>
       <c r="AR46" s="4"/>
     </row>
-    <row r="47" spans="1:47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="7">
         <v>8</v>
       </c>
@@ -6960,7 +7049,7 @@
       <c r="AI47" s="4"/>
       <c r="AR47" s="4"/>
     </row>
-    <row r="48" spans="1:47" ht="14.25" customHeight="1">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>843</v>
       </c>
@@ -7010,7 +7099,7 @@
       <c r="AO48" s="53"/>
       <c r="AR48" s="4"/>
     </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -7049,7 +7138,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7089,7 +7178,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7123,7 +7212,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I52" s="3" t="s">
         <v>898</v>
       </c>
@@ -7154,7 +7243,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="71"/>
       <c r="C53" s="3" t="s">
         <v>916</v>
@@ -7188,7 +7277,7 @@
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
     </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>927</v>
       </c>
@@ -7221,7 +7310,7 @@
       <c r="AN54" s="70"/>
       <c r="AO54" s="70"/>
     </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>940</v>
       </c>
@@ -7254,7 +7343,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>940</v>
       </c>
@@ -7287,7 +7376,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>940</v>
       </c>
@@ -7324,7 +7413,7 @@
       <c r="AS57" s="72"/>
       <c r="AT57" s="72"/>
     </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>952</v>
       </c>
@@ -7362,7 +7451,7 @@
       <c r="AS58" s="72"/>
       <c r="AT58" s="72"/>
     </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>952</v>
       </c>
@@ -7401,7 +7490,7 @@
       <c r="AS59" s="72"/>
       <c r="AT59" s="72"/>
     </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>952</v>
       </c>
@@ -7432,7 +7521,7 @@
       <c r="AA60" s="5"/>
       <c r="AL60" s="4"/>
     </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>960</v>
       </c>
@@ -7462,7 +7551,7 @@
       <c r="AA61" s="5"/>
       <c r="AL61" s="4"/>
     </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>960</v>
       </c>
@@ -7498,7 +7587,7 @@
       <c r="AA62" s="4"/>
       <c r="AL62" s="4"/>
     </row>
-    <row r="63" spans="1:46" ht="14.25" customHeight="1">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>960</v>
       </c>
@@ -7525,7 +7614,7 @@
       </c>
       <c r="AL63" s="4"/>
     </row>
-    <row r="64" spans="1:46" ht="14.25" customHeight="1">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
         <v>1045</v>
       </c>
@@ -7540,7 +7629,7 @@
       <c r="AL64" s="3"/>
       <c r="AN64" s="3"/>
     </row>
-    <row r="65" spans="1:43" ht="14.25" customHeight="1">
+    <row r="65" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1048</v>
       </c>
@@ -7559,7 +7648,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="14.25" customHeight="1">
+    <row r="66" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>1057</v>
       </c>
@@ -7577,7 +7666,7 @@
       <c r="AP66" s="70"/>
       <c r="AQ66" s="70"/>
     </row>
-    <row r="67" spans="1:43" ht="14.25" customHeight="1">
+    <row r="67" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>1062</v>
       </c>
@@ -7602,7 +7691,7 @@
       <c r="AP67" s="70"/>
       <c r="AQ67" s="70"/>
     </row>
-    <row r="68" spans="1:43" ht="14.25" customHeight="1">
+    <row r="68" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>1076</v>
       </c>
@@ -7625,7 +7714,7 @@
       <c r="AP68" s="70"/>
       <c r="AQ68" s="70"/>
     </row>
-    <row r="69" spans="1:43" ht="14.25" customHeight="1">
+    <row r="69" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>1090</v>
       </c>
@@ -7643,7 +7732,7 @@
       </c>
       <c r="AL69" s="4"/>
     </row>
-    <row r="70" spans="1:43" ht="14.25" customHeight="1">
+    <row r="70" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="71" t="s">
         <v>1093</v>
       </c>
@@ -7652,7 +7741,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:43" ht="14.25" customHeight="1">
+    <row r="71" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
@@ -7664,7 +7753,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:43" ht="14.25" customHeight="1">
+    <row r="72" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="F72" s="71" t="s">
@@ -7687,7 +7776,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="14.25" customHeight="1">
+    <row r="73" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="F73" s="71" t="s">
@@ -7703,7 +7792,7 @@
       <c r="AP73" s="70"/>
       <c r="AQ73" s="70"/>
     </row>
-    <row r="74" spans="1:43" ht="14.25" customHeight="1">
+    <row r="74" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="N74" s="56" t="s">
@@ -7716,7 +7805,7 @@
       <c r="AP74" s="70"/>
       <c r="AQ74" s="70"/>
     </row>
-    <row r="75" spans="1:43" ht="14.25" customHeight="1">
+    <row r="75" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M75" s="7" t="s">
         <v>1112</v>
       </c>
@@ -7732,7 +7821,7 @@
       <c r="AP75" s="70"/>
       <c r="AQ75" s="70"/>
     </row>
-    <row r="76" spans="1:43" ht="14.25" customHeight="1">
+    <row r="76" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
         <v>1115</v>
       </c>
@@ -7751,7 +7840,7 @@
       <c r="AP76" s="70"/>
       <c r="AQ76" s="70"/>
     </row>
-    <row r="77" spans="1:43" ht="14.25" customHeight="1">
+    <row r="77" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>1119</v>
       </c>
@@ -7769,7 +7858,7 @@
       <c r="AP77" s="70"/>
       <c r="AQ77" s="70"/>
     </row>
-    <row r="78" spans="1:43" ht="14.25" customHeight="1">
+    <row r="78" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>520</v>
       </c>
@@ -7781,7 +7870,7 @@
       <c r="N78" s="48"/>
       <c r="O78" s="48"/>
     </row>
-    <row r="79" spans="1:43" ht="14.25" customHeight="1">
+    <row r="79" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>1129</v>
       </c>
@@ -7793,7 +7882,7 @@
       <c r="N79" s="48"/>
       <c r="O79" s="48"/>
     </row>
-    <row r="80" spans="1:43" ht="14.25" customHeight="1">
+    <row r="80" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>1134</v>
       </c>
@@ -7805,936 +7894,936 @@
       <c r="N80" s="48"/>
       <c r="O80" s="48"/>
     </row>
-    <row r="81" spans="2:4" ht="14.25" customHeight="1">
+    <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>1138</v>
       </c>
       <c r="C81" s="62"/>
       <c r="D81" s="62"/>
     </row>
-    <row r="82" spans="2:4" ht="14.25" customHeight="1">
+    <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>1139</v>
       </c>
       <c r="C82" s="62"/>
       <c r="D82" s="62"/>
     </row>
-    <row r="83" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="84" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="85" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="86" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="87" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="88" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="89" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="90" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="91" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="92" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="93" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="94" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="95" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="96" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8750,63 +8839,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AR49" sqref="AR49"/>
+    <sheetView tabSelected="1" topLeftCell="AM53" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AP64" sqref="AP64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="40.5" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.5" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="28.83203125" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" customWidth="1"/>
-    <col min="21" max="21" width="32.1640625" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="32.83203125" customWidth="1"/>
-    <col min="24" max="24" width="45.33203125" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" customWidth="1"/>
-    <col min="26" max="26" width="24.33203125" customWidth="1"/>
-    <col min="27" max="27" width="29.1640625" customWidth="1"/>
-    <col min="28" max="28" width="22.1640625" customWidth="1"/>
-    <col min="29" max="29" width="22.5" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" customWidth="1"/>
-    <col min="31" max="31" width="27.6640625" customWidth="1"/>
-    <col min="32" max="32" width="19.1640625" customWidth="1"/>
-    <col min="33" max="33" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" customWidth="1"/>
+    <col min="23" max="23" width="32.85546875" customWidth="1"/>
+    <col min="24" max="24" width="45.28515625" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="26" max="26" width="24.28515625" customWidth="1"/>
+    <col min="27" max="27" width="29.140625" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" customWidth="1"/>
+    <col min="29" max="29" width="22.42578125" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="26.5" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" customWidth="1"/>
-    <col min="37" max="37" width="11.83203125" customWidth="1"/>
-    <col min="38" max="38" width="26.5" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" customWidth="1"/>
-    <col min="40" max="40" width="24.83203125" customWidth="1"/>
+    <col min="35" max="35" width="26.42578125" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="38" max="38" width="26.42578125" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" customWidth="1"/>
+    <col min="40" max="40" width="24.85546875" customWidth="1"/>
     <col min="41" max="41" width="24" customWidth="1"/>
-    <col min="42" max="42" width="21.33203125" customWidth="1"/>
-    <col min="43" max="43" width="16.5" customWidth="1"/>
-    <col min="44" max="44" width="28.83203125" customWidth="1"/>
-    <col min="45" max="45" width="27.33203125" customWidth="1"/>
-    <col min="46" max="46" width="28.5" customWidth="1"/>
-    <col min="47" max="47" width="19.5" customWidth="1"/>
-    <col min="48" max="48" width="24.5" customWidth="1"/>
+    <col min="42" max="42" width="21.28515625" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" customWidth="1"/>
+    <col min="45" max="45" width="27.28515625" customWidth="1"/>
+    <col min="46" max="46" width="28.42578125" customWidth="1"/>
+    <col min="47" max="47" width="19.42578125" customWidth="1"/>
+    <col min="48" max="48" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8888,7 +8977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -8983,7 +9072,7 @@
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
@@ -9066,12 +9155,12 @@
       <c r="AS3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AT3" s="80" t="s">
+      <c r="AT3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="81"/>
-    </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1">
+      <c r="AU3" s="82"/>
+    </row>
+    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -9146,13 +9235,13 @@
       <c r="AQ4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS4" s="80" t="s">
+      <c r="AS4" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="AT4" s="81"/>
+      <c r="AT4" s="82"/>
       <c r="AU4" s="14"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
@@ -9198,12 +9287,12 @@
       <c r="AS5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AT5" s="80" t="s">
+      <c r="AT5" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="AU5" s="81"/>
-    </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1">
+      <c r="AU5" s="82"/>
+    </row>
+    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -9277,7 +9366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>147</v>
       </c>
@@ -9342,11 +9431,11 @@
       <c r="AE7" s="16">
         <v>0</v>
       </c>
-      <c r="AH7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>171</v>
+      <c r="AH7" s="83" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AI7" s="85" t="s">
+        <v>1370</v>
       </c>
       <c r="AK7" s="7" t="s">
         <v>124</v>
@@ -9367,7 +9456,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>172</v>
       </c>
@@ -9427,10 +9516,10 @@
         <v>20</v>
       </c>
       <c r="AH8" s="17" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AK8" s="7" t="s">
         <v>136</v>
@@ -9445,7 +9534,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -9493,10 +9582,10 @@
         <v>40</v>
       </c>
       <c r="AH9" s="17" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="AK9" s="7" t="s">
         <v>146</v>
@@ -9511,7 +9600,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>201</v>
       </c>
@@ -9568,10 +9657,10 @@
         <v>60</v>
       </c>
       <c r="AH10" s="17" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AP10" s="19" t="s">
         <v>162</v>
@@ -9581,7 +9670,7 @@
       </c>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>211</v>
       </c>
@@ -9647,10 +9736,10 @@
         <v>80</v>
       </c>
       <c r="AH11" s="17" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AK11" s="45" t="s">
         <v>1360</v>
@@ -9671,7 +9760,7 @@
       </c>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
         <v>223</v>
       </c>
@@ -9729,10 +9818,10 @@
         <v>238</v>
       </c>
       <c r="AH12" s="17" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="AK12" s="7" t="s">
         <v>1361</v>
@@ -9751,7 +9840,7 @@
       </c>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -9812,10 +9901,10 @@
         <v>259</v>
       </c>
       <c r="AH13" s="17" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="AK13" s="79"/>
       <c r="AL13" s="79"/>
@@ -9830,7 +9919,7 @@
       </c>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -9886,10 +9975,10 @@
         <v>276</v>
       </c>
       <c r="AH14" s="17" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AK14" s="65" t="s">
         <v>194</v>
@@ -9908,7 +9997,7 @@
       </c>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -9953,10 +10042,10 @@
         <v>292</v>
       </c>
       <c r="AH15" s="17" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="AK15" s="49" t="s">
         <v>14</v>
@@ -9974,7 +10063,7 @@
       </c>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -10028,10 +10117,10 @@
         <v>306</v>
       </c>
       <c r="AH16" s="17" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>313</v>
+        <v>8</v>
       </c>
       <c r="AK16" s="79"/>
       <c r="AL16" s="79" t="s">
@@ -10047,7 +10136,7 @@
       </c>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -10102,11 +10191,11 @@
       </c>
       <c r="AB17" s="16"/>
       <c r="AC17" s="4"/>
-      <c r="AH17" s="17" t="s">
-        <v>330</v>
+      <c r="AH17" s="84" t="s">
+        <v>1377</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="AK17" s="79"/>
       <c r="AL17" s="79" t="s">
@@ -10116,7 +10205,7 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="36" t="s">
         <v>336</v>
       </c>
@@ -10172,11 +10261,11 @@
       <c r="AE18" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="AH18" s="17" t="s">
-        <v>342</v>
+      <c r="AH18" s="84" t="s">
+        <v>1378</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="AK18" s="79"/>
       <c r="AL18" s="79" t="s">
@@ -10195,7 +10284,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="36" t="s">
         <v>364</v>
       </c>
@@ -10250,6 +10339,12 @@
       <c r="AC19" s="4"/>
       <c r="AE19" s="4" t="s">
         <v>376</v>
+      </c>
+      <c r="AH19" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="AK19" s="32" t="s">
         <v>310</v>
@@ -10273,7 +10368,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
@@ -10325,8 +10420,11 @@
       <c r="AE20" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="AH20" s="3" t="s">
-        <v>384</v>
+      <c r="AH20" s="86" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AI20" s="85" t="s">
+        <v>1372</v>
       </c>
       <c r="AK20" s="31"/>
       <c r="AL20" s="22"/>
@@ -10346,7 +10444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>396</v>
       </c>
@@ -10390,11 +10488,11 @@
       <c r="AE21" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="AH21" s="7">
-        <v>3</v>
-      </c>
-      <c r="AI21" s="4" t="s">
-        <v>339</v>
+      <c r="AH21" s="86" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AI21" s="85" t="s">
+        <v>1374</v>
       </c>
       <c r="AK21" s="37" t="s">
         <v>343</v>
@@ -10418,7 +10516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>275</v>
       </c>
@@ -10465,11 +10563,11 @@
       <c r="AE22" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AH22" s="7">
-        <v>6</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>425</v>
+      <c r="AH22" s="86" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AI22" s="85" t="s">
+        <v>1376</v>
       </c>
       <c r="AK22" s="39" t="s">
         <v>355</v>
@@ -10497,7 +10595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>430</v>
       </c>
@@ -10545,12 +10643,8 @@
       <c r="AE23" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="AH23" s="7">
-        <v>43</v>
-      </c>
-      <c r="AI23" s="4" t="s">
-        <v>444</v>
-      </c>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
       <c r="AK23" s="41" t="s">
         <v>343</v>
       </c>
@@ -10577,7 +10671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>446</v>
       </c>
@@ -10615,11 +10709,8 @@
       <c r="AE24" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="AH24" s="7">
-        <v>60</v>
-      </c>
-      <c r="AI24" s="4" t="s">
-        <v>452</v>
+      <c r="AH24" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="AK24" s="34"/>
       <c r="AL24" s="42" t="s">
@@ -10643,7 +10734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>456</v>
       </c>
@@ -10692,10 +10783,10 @@
         <v>466</v>
       </c>
       <c r="AH25" s="7">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>467</v>
+        <v>339</v>
       </c>
       <c r="AK25" s="22"/>
       <c r="AL25" s="31"/>
@@ -10715,7 +10806,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="5" t="s">
         <v>473</v>
       </c>
@@ -10758,10 +10849,10 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AH26" s="7">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="AK26" s="37" t="s">
         <v>433</v>
@@ -10785,7 +10876,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>489</v>
       </c>
@@ -10828,10 +10919,10 @@
         <v>499</v>
       </c>
       <c r="AH27" s="7">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="AK27" s="44" t="s">
         <v>447</v>
@@ -10844,7 +10935,7 @@
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>503</v>
       </c>
@@ -10890,6 +10981,12 @@
       <c r="AF28" s="4" t="s">
         <v>515</v>
       </c>
+      <c r="AH28" s="7">
+        <v>60</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="AK28" s="22"/>
       <c r="AL28" s="33" t="s">
         <v>468</v>
@@ -10908,7 +11005,7 @@
       </c>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>521</v>
       </c>
@@ -10949,6 +11046,12 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
+      <c r="AH29" s="7">
+        <v>66</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="AK29" s="22"/>
       <c r="AL29" s="33" t="s">
         <v>484</v>
@@ -10963,7 +11066,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>539</v>
       </c>
@@ -10987,6 +11090,12 @@
       </c>
       <c r="P30" s="7" t="s">
         <v>538</v>
+      </c>
+      <c r="AH30" s="7">
+        <v>82</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>483</v>
       </c>
       <c r="AK30" s="39" t="s">
         <v>501</v>
@@ -11008,7 +11117,7 @@
       </c>
       <c r="AS30" s="12"/>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>551</v>
       </c>
@@ -11054,8 +11163,11 @@
       <c r="AE31" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="AH31" s="3" t="s">
-        <v>564</v>
+      <c r="AH31" s="7">
+        <v>150</v>
+      </c>
+      <c r="AI31" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="AK31" s="51"/>
       <c r="AL31" s="40" t="s">
@@ -11077,7 +11189,7 @@
       </c>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>573</v>
       </c>
@@ -11134,12 +11246,6 @@
       </c>
       <c r="AF32" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="AH32" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="AI32" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="AK32" s="44" t="s">
         <v>533</v>
@@ -11163,7 +11269,7 @@
       </c>
       <c r="AS32" s="12"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25" customHeight="1">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>585</v>
       </c>
@@ -11205,12 +11311,6 @@
       <c r="AF33" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="AH33" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="AI33" s="4" t="s">
-        <v>596</v>
-      </c>
       <c r="AK33" s="44" t="s">
         <v>540</v>
       </c>
@@ -11224,7 +11324,7 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" spans="1:47" ht="14.25" customHeight="1">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>604</v>
       </c>
@@ -11267,12 +11367,6 @@
       </c>
       <c r="AF34" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="AH34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI34" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="AK34" s="44" t="s">
         <v>565</v>
@@ -11289,7 +11383,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="14.25" customHeight="1">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>623</v>
       </c>
@@ -11327,11 +11421,8 @@
       <c r="X35" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="AH35" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="AI35" s="4" t="s">
-        <v>638</v>
+      <c r="AH35" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="AK35" s="31"/>
       <c r="AL35" s="22"/>
@@ -11343,7 +11434,7 @@
       </c>
       <c r="AQ35" s="62"/>
     </row>
-    <row r="36" spans="1:47" ht="14.25" customHeight="1">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>642</v>
       </c>
@@ -11402,6 +11493,12 @@
       </c>
       <c r="AF36" s="3" t="s">
         <v>658</v>
+      </c>
+      <c r="AH36" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="AI36" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="AK36" s="37" t="s">
         <v>592</v>
@@ -11421,7 +11518,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="14.25" customHeight="1">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>666</v>
       </c>
@@ -11481,8 +11578,11 @@
       <c r="AF37" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="AH37" s="3" t="s">
-        <v>670</v>
+      <c r="AH37" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="AI37" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="AK37" s="59" t="s">
         <v>447</v>
@@ -11502,7 +11602,7 @@
       </c>
       <c r="AU37" s="63"/>
     </row>
-    <row r="38" spans="1:47" ht="14.25" customHeight="1">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>683</v>
       </c>
@@ -11556,10 +11656,10 @@
         <v>695</v>
       </c>
       <c r="AH38" s="7" t="s">
-        <v>692</v>
+        <v>72</v>
       </c>
       <c r="AI38" s="4" t="s">
-        <v>696</v>
+        <v>620</v>
       </c>
       <c r="AK38" s="61"/>
       <c r="AL38" s="33" t="s">
@@ -11579,7 +11679,7 @@
       </c>
       <c r="AU38" s="63"/>
     </row>
-    <row r="39" spans="1:47" ht="14.25" customHeight="1">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>700</v>
       </c>
@@ -11621,10 +11721,10 @@
         <v>711</v>
       </c>
       <c r="AH39" s="7" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>712</v>
+        <v>638</v>
       </c>
       <c r="AK39" s="22"/>
       <c r="AL39" s="22"/>
@@ -11640,7 +11740,7 @@
       </c>
       <c r="AU39" s="63"/>
     </row>
-    <row r="40" spans="1:47" ht="14.25" customHeight="1">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J40" s="5" t="s">
         <v>717</v>
       </c>
@@ -11663,12 +11763,6 @@
       </c>
       <c r="X40" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="AH40" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="AI40" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="AK40" s="37" t="s">
         <v>672</v>
@@ -11688,7 +11782,7 @@
       </c>
       <c r="AU40" s="63"/>
     </row>
-    <row r="41" spans="1:47" ht="14.25" customHeight="1">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>725</v>
       </c>
@@ -11734,11 +11828,8 @@
       <c r="AC41" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="AH41" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="AI41" s="4" t="s">
-        <v>745</v>
+      <c r="AH41" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="AK41" s="24" t="s">
         <v>14</v>
@@ -11757,7 +11848,7 @@
       </c>
       <c r="AU41" s="63"/>
     </row>
-    <row r="42" spans="1:47" ht="14.25" customHeight="1">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>751</v>
       </c>
@@ -11801,10 +11892,10 @@
         <v>763</v>
       </c>
       <c r="AH42" s="7" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="AI42" s="4" t="s">
-        <v>765</v>
+        <v>696</v>
       </c>
       <c r="AK42" s="65"/>
       <c r="AL42" s="33" t="s">
@@ -11821,7 +11912,7 @@
       </c>
       <c r="AU42" s="63"/>
     </row>
-    <row r="43" spans="1:47" ht="14.25" customHeight="1">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>771</v>
       </c>
@@ -11864,10 +11955,10 @@
         <v>779</v>
       </c>
       <c r="AH43" s="7" t="s">
-        <v>753</v>
+        <v>708</v>
       </c>
       <c r="AI43" s="4" t="s">
-        <v>781</v>
+        <v>712</v>
       </c>
       <c r="AK43" s="65"/>
       <c r="AL43" s="33" t="s">
@@ -11881,7 +11972,7 @@
       </c>
       <c r="AU43" s="63"/>
     </row>
-    <row r="44" spans="1:47" ht="14.25" customHeight="1">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>785</v>
       </c>
@@ -11930,10 +12021,10 @@
         <v>792</v>
       </c>
       <c r="AH44" s="7" t="s">
-        <v>793</v>
+        <v>721</v>
       </c>
       <c r="AI44" s="4" t="s">
-        <v>794</v>
+        <v>724</v>
       </c>
       <c r="AK44" s="26" t="s">
         <v>737</v>
@@ -11951,7 +12042,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="14.25" customHeight="1">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>797</v>
       </c>
@@ -12002,6 +12093,12 @@
         <v>808</v>
       </c>
       <c r="AF45" s="3"/>
+      <c r="AH45" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="AI45" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="AK45" s="67">
         <v>0</v>
       </c>
@@ -12025,7 +12122,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="14.25" customHeight="1">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>813</v>
       </c>
@@ -12062,12 +12159,15 @@
       <c r="U46" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="Y46" s="4"/>
+      <c r="Y46" s="80"/>
       <c r="AG46" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="AI46" s="3" t="s">
-        <v>826</v>
+      <c r="AH46" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI46" s="4" t="s">
+        <v>765</v>
       </c>
       <c r="AK46" s="22"/>
       <c r="AL46" s="29" t="s">
@@ -12092,7 +12192,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="47" spans="1:47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="7">
         <v>8</v>
       </c>
@@ -12124,7 +12224,7 @@
       <c r="W47" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="Y47" s="5"/>
+      <c r="Y47" s="80"/>
       <c r="AB47" s="3" t="s">
         <v>839</v>
       </c>
@@ -12134,8 +12234,11 @@
       <c r="AG47" s="70" t="s">
         <v>841</v>
       </c>
-      <c r="AI47" s="70" t="s">
-        <v>849</v>
+      <c r="AH47" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AI47" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="AK47" s="69"/>
       <c r="AL47" s="69"/>
@@ -12151,7 +12254,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="14.25" customHeight="1">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>843</v>
       </c>
@@ -12183,7 +12286,7 @@
       <c r="X48" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="Y48" s="5"/>
+      <c r="Y48" s="80"/>
       <c r="AB48" s="70" t="s">
         <v>859</v>
       </c>
@@ -12193,8 +12296,11 @@
       <c r="AG48" s="70" t="s">
         <v>860</v>
       </c>
-      <c r="AI48" s="70" t="s">
-        <v>861</v>
+      <c r="AH48" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="AI48" s="4" t="s">
+        <v>794</v>
       </c>
       <c r="AO48" s="70" t="s">
         <v>909</v>
@@ -12206,7 +12312,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>863</v>
       </c>
@@ -12230,7 +12336,7 @@
       <c r="X49" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="Y49" s="4"/>
+      <c r="Y49" s="80"/>
       <c r="AB49" s="11" t="s">
         <v>871</v>
       </c>
@@ -12240,9 +12346,6 @@
       <c r="AG49" s="70" t="s">
         <v>873</v>
       </c>
-      <c r="AI49" s="70" t="s">
-        <v>874</v>
-      </c>
       <c r="AO49" s="70" t="s">
         <v>925</v>
       </c>
@@ -12250,7 +12353,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>876</v>
       </c>
@@ -12294,8 +12397,8 @@
       <c r="AG50" s="70" t="s">
         <v>891</v>
       </c>
-      <c r="AI50" s="70" t="s">
-        <v>892</v>
+      <c r="AI50" s="3" t="s">
+        <v>826</v>
       </c>
       <c r="AO50" s="70" t="s">
         <v>947</v>
@@ -12313,7 +12416,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>897</v>
       </c>
@@ -12358,7 +12461,7 @@
         <v>555</v>
       </c>
       <c r="AI51" s="70" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
       <c r="AL51" s="3" t="s">
         <v>850</v>
@@ -12379,7 +12482,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="4" t="s">
         <v>914</v>
       </c>
@@ -12405,8 +12508,6 @@
         <v>921</v>
       </c>
       <c r="V52" s="17"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
       <c r="AB52" s="70" t="s">
         <v>50</v>
       </c>
@@ -12416,6 +12517,9 @@
       <c r="AD52" s="7" t="s">
         <v>923</v>
       </c>
+      <c r="AI52" s="70" t="s">
+        <v>861</v>
+      </c>
       <c r="AL52" s="3" t="s">
         <v>864</v>
       </c>
@@ -12435,7 +12539,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="71"/>
       <c r="C53" s="3" t="s">
         <v>916</v>
@@ -12478,8 +12582,8 @@
       <c r="W53" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
       <c r="AB53" s="11" t="s">
         <v>50</v>
       </c>
@@ -12489,6 +12593,9 @@
       <c r="AD53" s="7" t="s">
         <v>945</v>
       </c>
+      <c r="AI53" s="70" t="s">
+        <v>874</v>
+      </c>
       <c r="AL53" s="4" t="s">
         <v>893</v>
       </c>
@@ -12502,7 +12609,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>927</v>
       </c>
@@ -12543,8 +12650,8 @@
         <v>962</v>
       </c>
       <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
       <c r="AB54" s="70" t="s">
         <v>964</v>
       </c>
@@ -12554,11 +12661,14 @@
       <c r="AD54" s="7" t="s">
         <v>967</v>
       </c>
+      <c r="AI54" s="70" t="s">
+        <v>892</v>
+      </c>
       <c r="AL54" s="4" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>940</v>
       </c>
@@ -12596,8 +12706,8 @@
         <v>978</v>
       </c>
       <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="80"/>
       <c r="AB55" s="11" t="s">
         <v>115</v>
       </c>
@@ -12607,6 +12717,9 @@
       <c r="AD55" s="7" t="s">
         <v>979</v>
       </c>
+      <c r="AI55" s="70" t="s">
+        <v>907</v>
+      </c>
       <c r="AL55" s="4" t="s">
         <v>924</v>
       </c>
@@ -12614,7 +12727,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>940</v>
       </c>
@@ -12650,8 +12763,8 @@
         <v>991</v>
       </c>
       <c r="X56" s="4"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
       <c r="AB56" s="11" t="s">
         <v>50</v>
       </c>
@@ -12674,7 +12787,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>940</v>
       </c>
@@ -12719,6 +12832,7 @@
         <v>997</v>
       </c>
       <c r="X57" s="5"/>
+      <c r="Y57" s="80"/>
       <c r="AL57" s="4" t="s">
         <v>970</v>
       </c>
@@ -12735,7 +12849,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>952</v>
       </c>
@@ -12768,9 +12882,6 @@
         <v>1009</v>
       </c>
       <c r="X58" s="5"/>
-      <c r="Y58" s="3" t="s">
-        <v>660</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>922</v>
       </c>
@@ -12790,7 +12901,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>952</v>
       </c>
@@ -12825,11 +12936,6 @@
       <c r="U59" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="Y59" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
       <c r="AC59" s="7" t="s">
         <v>936</v>
       </c>
@@ -12853,7 +12959,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>952</v>
       </c>
@@ -12888,11 +12994,9 @@
       <c r="X60" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="Y60" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="Y60" s="3" t="s">
+        <v>660</v>
+      </c>
       <c r="AC60" s="7" t="s">
         <v>944</v>
       </c>
@@ -12904,7 +13008,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>960</v>
       </c>
@@ -12944,11 +13048,11 @@
       <c r="X61" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="Y61" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
+      <c r="Y61" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
       <c r="AL61" s="4" t="s">
         <v>1010</v>
       </c>
@@ -12957,7 +13061,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>960</v>
       </c>
@@ -12997,11 +13101,11 @@
       <c r="X62" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="Y62" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
+      <c r="Y62" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
       <c r="AL62" s="3" t="s">
         <v>1006</v>
       </c>
@@ -13012,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:46" ht="14.25" customHeight="1">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>960</v>
       </c>
@@ -13050,6 +13154,11 @@
       <c r="X63" s="5" t="s">
         <v>1080</v>
       </c>
+      <c r="Y63" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
       <c r="AL63" s="4" t="s">
         <v>970</v>
       </c>
@@ -13060,7 +13169,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="64" spans="1:46" ht="14.25" customHeight="1">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
         <v>1045</v>
       </c>
@@ -13080,18 +13189,11 @@
       <c r="X64" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="Y64" s="76" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Z64" s="76" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AC64" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AD64" s="7" t="s">
-        <v>1103</v>
-      </c>
+      <c r="Y64" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
       <c r="AL64" s="4" t="s">
         <v>1059</v>
       </c>
@@ -13102,7 +13204,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="65" spans="1:47" ht="14.25" customHeight="1">
+    <row r="65" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>1048</v>
       </c>
@@ -13116,21 +13218,6 @@
         <v>1109</v>
       </c>
       <c r="L65" s="62"/>
-      <c r="Y65" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z65" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB65" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AC65" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AD65" s="7" t="s">
-        <v>1124</v>
-      </c>
       <c r="AL65" s="4" t="s">
         <v>1070</v>
       </c>
@@ -13150,7 +13237,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="66" spans="1:47" ht="14.25" customHeight="1">
+    <row r="66" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>1057</v>
       </c>
@@ -13178,20 +13265,11 @@
       <c r="V66" s="76">
         <v>3</v>
       </c>
-      <c r="Y66" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z66" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB66" s="7" t="s">
-        <v>1140</v>
-      </c>
       <c r="AC66" s="7" t="s">
-        <v>50</v>
+        <v>1100</v>
       </c>
       <c r="AD66" s="7" t="s">
-        <v>115</v>
+        <v>1103</v>
       </c>
       <c r="AL66" s="4" t="s">
         <v>1081</v>
@@ -13213,7 +13291,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="67" spans="1:47" ht="14.25" customHeight="1">
+    <row r="67" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>1062</v>
       </c>
@@ -13241,23 +13319,20 @@
       <c r="V67" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="X67" s="19" t="s">
-        <v>1149</v>
-      </c>
-      <c r="Y67" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z67" s="78" t="s">
-        <v>115</v>
+      <c r="Y67" s="76" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Z67" s="76" t="s">
+        <v>1094</v>
       </c>
       <c r="AB67" s="7" t="s">
-        <v>1150</v>
+        <v>1121</v>
       </c>
       <c r="AC67" s="7" t="s">
-        <v>50</v>
+        <v>1123</v>
       </c>
       <c r="AD67" s="7" t="s">
-        <v>1151</v>
+        <v>1124</v>
       </c>
       <c r="AL67" s="3"/>
       <c r="AN67" s="7" t="s">
@@ -13277,7 +13352,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="68" spans="1:47" ht="14.25" customHeight="1">
+    <row r="68" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13312,7 +13387,7 @@
         <v>1162</v>
       </c>
       <c r="X68" s="19" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
       <c r="Y68" s="77" t="s">
         <v>115</v>
@@ -13321,13 +13396,13 @@
         <v>50</v>
       </c>
       <c r="AB68" s="7" t="s">
-        <v>1164</v>
+        <v>1140</v>
       </c>
       <c r="AC68" s="7" t="s">
-        <v>1165</v>
+        <v>50</v>
       </c>
       <c r="AD68" s="7" t="s">
-        <v>1166</v>
+        <v>115</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>1053</v>
@@ -13349,7 +13424,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="69" spans="1:47" ht="14.25" customHeight="1">
+    <row r="69" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>1090</v>
       </c>
@@ -13381,22 +13456,22 @@
         <v>1176</v>
       </c>
       <c r="X69" s="19" t="s">
-        <v>1177</v>
-      </c>
-      <c r="Y69" s="77" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Y69" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Z69" s="77" t="s">
+      <c r="Z69" s="78" t="s">
         <v>50</v>
       </c>
       <c r="AB69" s="7" t="s">
-        <v>1178</v>
+        <v>1150</v>
       </c>
       <c r="AC69" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AD69" s="7" t="s">
-        <v>115</v>
+        <v>1151</v>
       </c>
       <c r="AL69" s="4" t="s">
         <v>1141</v>
@@ -13408,7 +13483,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="70" spans="1:47" ht="14.25" customHeight="1">
+    <row r="70" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H70" s="7" t="s">
         <v>1182</v>
       </c>
@@ -13434,22 +13509,22 @@
         <v>115</v>
       </c>
       <c r="X70" s="19" t="s">
-        <v>103</v>
+        <v>1177</v>
       </c>
       <c r="Y70" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z70" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Z70" s="78" t="s">
-        <v>50</v>
-      </c>
       <c r="AB70" s="7" t="s">
-        <v>1187</v>
+        <v>1164</v>
       </c>
       <c r="AC70" s="7" t="s">
-        <v>115</v>
+        <v>1165</v>
       </c>
       <c r="AD70" s="7" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="AL70" s="4" t="s">
         <v>1152</v>
@@ -13473,7 +13548,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="71" spans="1:47" ht="14.25" customHeight="1">
+    <row r="71" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
@@ -13496,13 +13571,22 @@
         <v>50</v>
       </c>
       <c r="X71" s="19" t="s">
-        <v>1192</v>
-      </c>
-      <c r="Y71" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y71" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="Z71" s="78" t="s">
+      <c r="Z71" s="77" t="s">
         <v>50</v>
+      </c>
+      <c r="AB71" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AC71" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD71" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="AL71" s="4" t="s">
         <v>970</v>
@@ -13520,7 +13604,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="72" spans="1:47" ht="14.25" customHeight="1">
+    <row r="72" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>1193</v>
       </c>
@@ -13546,7 +13630,7 @@
         <v>50</v>
       </c>
       <c r="X72" s="19" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="Y72" s="77" t="s">
         <v>115</v>
@@ -13554,6 +13638,15 @@
       <c r="Z72" s="77" t="s">
         <v>50</v>
       </c>
+      <c r="AB72" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AC72" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD72" s="7" t="s">
+        <v>1151</v>
+      </c>
       <c r="AL72" s="4" t="s">
         <v>1179</v>
       </c>
@@ -13576,7 +13669,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="14.25" customHeight="1">
+    <row r="73" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>1199</v>
       </c>
@@ -13609,7 +13702,13 @@
         <v>50</v>
       </c>
       <c r="X73" s="19" t="s">
-        <v>1204</v>
+        <v>1196</v>
+      </c>
+      <c r="Y73" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z73" s="78" t="s">
+        <v>50</v>
       </c>
       <c r="AN73" s="7" t="s">
         <v>1114</v>
@@ -13633,7 +13732,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="74" spans="1:47" ht="14.25" customHeight="1">
+    <row r="74" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>1209</v>
       </c>
@@ -13668,7 +13767,13 @@
         <v>115</v>
       </c>
       <c r="X74" s="19" t="s">
-        <v>1212</v>
+        <v>1204</v>
+      </c>
+      <c r="Y74" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z74" s="78" t="s">
+        <v>50</v>
       </c>
       <c r="AN74" s="7" t="s">
         <v>1118</v>
@@ -13692,7 +13797,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="75" spans="1:47" ht="14.25" customHeight="1">
+    <row r="75" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
         <v>1091</v>
       </c>
@@ -13717,6 +13822,15 @@
       <c r="V75" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="X75" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="Y75" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z75" s="77" t="s">
+        <v>50</v>
+      </c>
       <c r="AN75" s="7" t="s">
         <v>1122</v>
       </c>
@@ -13739,7 +13853,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" spans="1:47" ht="14.25" customHeight="1">
+    <row r="76" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
         <v>1115</v>
       </c>
@@ -13783,7 +13897,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="77" spans="1:47" ht="14.25" customHeight="1">
+    <row r="77" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>1119</v>
       </c>
@@ -13830,7 +13944,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="78" spans="1:47" ht="14.25" customHeight="1">
+    <row r="78" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>1138</v>
       </c>
@@ -13877,7 +13991,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="79" spans="1:47" ht="14.25" customHeight="1">
+    <row r="79" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>1129</v>
       </c>
@@ -13919,7 +14033,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="80" spans="1:47" ht="14.25" customHeight="1">
+    <row r="80" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>1243</v>
       </c>
@@ -13933,7 +14047,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="14.25" customHeight="1">
+    <row r="81" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
         <v>1139</v>
       </c>
@@ -13961,11 +14075,8 @@
       <c r="S81" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" ht="14.25" customHeight="1">
+    </row>
+    <row r="82" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>1248</v>
       </c>
@@ -14001,11 +14112,8 @@
       <c r="T82" s="5" t="s">
         <v>1255</v>
       </c>
-      <c r="V82" s="7" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="14.25" customHeight="1">
+    </row>
+    <row r="83" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>1256</v>
       </c>
@@ -14037,8 +14145,8 @@
       <c r="T83" s="5" t="s">
         <v>1261</v>
       </c>
-      <c r="V83" s="7" t="s">
-        <v>1262</v>
+      <c r="V83" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>613</v>
@@ -14047,7 +14155,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="14.25" customHeight="1">
+    <row r="84" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F84" s="7" t="s">
         <v>1002</v>
       </c>
@@ -14071,7 +14179,7 @@
         <v>1266</v>
       </c>
       <c r="V84" s="7" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
       <c r="W84" s="5" t="s">
         <v>1268</v>
@@ -14080,7 +14188,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="14.25" customHeight="1">
+    <row r="85" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1270</v>
       </c>
@@ -14109,7 +14217,7 @@
         <v>1119</v>
       </c>
       <c r="V85" s="7" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>1275</v>
@@ -14118,7 +14226,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="14.25" customHeight="1">
+    <row r="86" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>1277</v>
       </c>
@@ -14141,6 +14249,9 @@
       <c r="T86" s="5" t="s">
         <v>1282</v>
       </c>
+      <c r="V86" s="7" t="s">
+        <v>1267</v>
+      </c>
       <c r="W86" s="5" t="s">
         <v>1283</v>
       </c>
@@ -14148,7 +14259,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="14.25" customHeight="1">
+    <row r="87" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>1285</v>
       </c>
@@ -14169,6 +14280,9 @@
       <c r="T87" s="5" t="s">
         <v>1290</v>
       </c>
+      <c r="V87" s="7" t="s">
+        <v>1274</v>
+      </c>
       <c r="W87" s="5" t="s">
         <v>1291</v>
       </c>
@@ -14176,7 +14290,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="14.25" customHeight="1">
+    <row r="88" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>1293</v>
       </c>
@@ -14200,7 +14314,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="14.25" customHeight="1">
+    <row r="89" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>1299</v>
       </c>
@@ -14215,7 +14329,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="14.25" customHeight="1">
+    <row r="90" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>1303</v>
       </c>
@@ -14233,7 +14347,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="14.25" customHeight="1">
+    <row r="91" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>1307</v>
       </c>
@@ -14247,7 +14361,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="14.25" customHeight="1">
+    <row r="92" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>940</v>
       </c>
@@ -14260,8 +14374,11 @@
       <c r="G92" s="5" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="14.25" customHeight="1">
+      <c r="S92" s="7" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>960</v>
       </c>
@@ -14274,8 +14391,14 @@
       <c r="G93" s="5" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="14.25" customHeight="1">
+      <c r="S93" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>952</v>
       </c>
@@ -14288,16 +14411,28 @@
       <c r="G94" s="5" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" ht="14.25" customHeight="1">
+      <c r="S94" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>1320</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" ht="14.25" customHeight="1">
+      <c r="S95" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="T95" s="4" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>1321</v>
       </c>
@@ -14308,7 +14443,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1">
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>1324</v>
       </c>
@@ -14322,7 +14457,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>1328</v>
       </c>
@@ -14333,7 +14468,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>1331</v>
       </c>
@@ -14344,7 +14479,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>1334</v>
       </c>
@@ -14355,7 +14490,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" s="7" t="s">
         <v>1337</v>
       </c>
@@ -14363,7 +14498,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>1339</v>
       </c>
@@ -14377,7 +14512,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>1343</v>
       </c>
@@ -14388,7 +14523,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>1346</v>
       </c>
@@ -14396,7 +14531,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>1348</v>
       </c>
@@ -14404,7 +14539,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>1350</v>
       </c>
@@ -14412,7 +14547,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1">
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>1352</v>
       </c>
@@ -14423,7 +14558,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>1355</v>
       </c>
@@ -14431,907 +14566,907 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="5" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="5" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14.25" customHeight="1">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="5" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AT3:AU3"/>
@@ -15339,7 +15474,7 @@
     <mergeCell ref="AT5:AU5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E533C92-4A12-F64C-B8BB-E87F1331FC0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="240" windowWidth="30260" windowHeight="19960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5120" yWindow="460" windowWidth="30260" windowHeight="19960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
     <sheet name="answers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1377">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -4170,11 +4176,53 @@
   <si>
     <t>105 (1:45)</t>
   </si>
+  <si>
+    <t>IoT data protocols</t>
+  </si>
+  <si>
+    <t>CoAP</t>
+  </si>
+  <si>
+    <t>RESTful like HTTP</t>
+  </si>
+  <si>
+    <t>IP protocol</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>Constrained Applications Protocol</t>
+  </si>
+  <si>
+    <t>Message Queue Telemetry Transport</t>
+  </si>
+  <si>
+    <t>subscriber/publisher/broker</t>
+  </si>
+  <si>
+    <t>data model</t>
+  </si>
+  <si>
+    <t>XMPP</t>
+  </si>
+  <si>
+    <t>extensible messaging and presence protocol</t>
+  </si>
+  <si>
+    <t>XML, publish-subscribe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4466,6 +4514,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4790,12 +4846,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -4845,7 +4901,7 @@
     <col min="48" max="48" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4919,7 +4975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -4975,7 +5031,7 @@
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>10</v>
@@ -5020,7 +5076,7 @@
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
     </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1">
+    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>7</v>
@@ -5064,7 +5120,7 @@
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>4</v>
@@ -5090,7 +5146,7 @@
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
     </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1">
+    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>3</v>
@@ -5145,7 +5201,7 @@
       </c>
       <c r="AQ6" s="11"/>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="C7">
         <v>1</v>
@@ -5198,7 +5254,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="C8">
         <v>0</v>
@@ -5239,7 +5295,7 @@
       <c r="AN8" s="5"/>
       <c r="AT8" s="18"/>
     </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -5274,7 +5330,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="G10" s="5"/>
       <c r="J10" s="7" t="s">
@@ -5320,7 +5376,7 @@
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>167</v>
@@ -5376,7 +5432,7 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
       <c r="J12" s="7" t="s">
@@ -5426,7 +5482,7 @@
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -5477,7 +5533,7 @@
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -5525,7 +5581,7 @@
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -5567,7 +5623,7 @@
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -5618,7 +5674,7 @@
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -5663,7 +5719,7 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
       <c r="F18" s="5"/>
       <c r="H18" s="5"/>
@@ -5722,7 +5778,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
@@ -5782,7 +5838,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
@@ -5825,7 +5881,7 @@
       <c r="AS20" s="12"/>
       <c r="AT20" s="12"/>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
         <v>395</v>
@@ -5869,7 +5925,7 @@
       <c r="AS21" s="12"/>
       <c r="AT21" s="12"/>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>410</v>
@@ -5910,7 +5966,7 @@
       <c r="AS22" s="12"/>
       <c r="AT22" s="12"/>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>424</v>
@@ -5960,7 +6016,7 @@
       <c r="AS23" s="12"/>
       <c r="AT23" s="12"/>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>439</v>
@@ -6002,7 +6058,7 @@
       <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>455</v>
@@ -6052,7 +6108,7 @@
       <c r="AS25" s="12"/>
       <c r="AT25" s="12"/>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="5"/>
       <c r="F26" s="5"/>
       <c r="H26" s="5"/>
@@ -6094,7 +6150,7 @@
       <c r="AS26" s="12"/>
       <c r="AT26" s="48"/>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>489</v>
       </c>
@@ -6139,7 +6195,7 @@
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>505</v>
@@ -6186,7 +6242,7 @@
       </c>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="D29" s="4"/>
       <c r="F29" s="54"/>
@@ -6222,7 +6278,7 @@
       </c>
       <c r="AQ29" s="12"/>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="54"/>
@@ -6248,7 +6304,7 @@
       <c r="AR30" s="12"/>
       <c r="AS30" s="12"/>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="54"/>
@@ -6298,7 +6354,7 @@
       <c r="AR31" s="12"/>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="54"/>
@@ -6349,7 +6405,7 @@
       <c r="AR32" s="12"/>
       <c r="AS32" s="12"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25" customHeight="1">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
         <v>585</v>
       </c>
@@ -6388,7 +6444,7 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" spans="1:47" ht="14.25" customHeight="1">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>604</v>
       </c>
@@ -6435,7 +6491,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="14.25" customHeight="1">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="D35" s="49" t="s">
         <v>624</v>
@@ -6474,7 +6530,7 @@
       <c r="AP35" s="18"/>
       <c r="AQ35" s="62"/>
     </row>
-    <row r="36" spans="1:47" ht="14.25" customHeight="1">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="D36" s="54"/>
       <c r="F36" s="54"/>
@@ -6531,7 +6587,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="14.25" customHeight="1">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="D37" s="54"/>
       <c r="F37" s="54"/>
@@ -6583,7 +6639,7 @@
       <c r="AT37" s="63"/>
       <c r="AU37" s="63"/>
     </row>
-    <row r="38" spans="1:47" ht="14.25" customHeight="1">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="D38" s="54"/>
       <c r="F38" s="54"/>
@@ -6626,7 +6682,7 @@
       <c r="AT38" s="63"/>
       <c r="AU38" s="63"/>
     </row>
-    <row r="39" spans="1:47" ht="14.25" customHeight="1">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="D39" s="54"/>
       <c r="J39" s="3" t="s">
@@ -6660,7 +6716,7 @@
       <c r="AT39" s="63"/>
       <c r="AU39" s="63"/>
     </row>
-    <row r="40" spans="1:47" ht="14.25" customHeight="1">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6689,7 +6745,7 @@
       <c r="AT40" s="63"/>
       <c r="AU40" s="63"/>
     </row>
-    <row r="41" spans="1:47" ht="14.25" customHeight="1">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>725</v>
       </c>
@@ -6743,7 +6799,7 @@
       <c r="AT41" s="63"/>
       <c r="AU41" s="63"/>
     </row>
-    <row r="42" spans="1:47" ht="14.25" customHeight="1">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="D42" s="54"/>
       <c r="E42" s="7">
@@ -6780,7 +6836,7 @@
       <c r="AT42" s="63"/>
       <c r="AU42" s="63"/>
     </row>
-    <row r="43" spans="1:47" ht="14.25" customHeight="1">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="D43" s="54"/>
       <c r="E43" s="7">
@@ -6816,7 +6872,7 @@
       <c r="AN43" s="33"/>
       <c r="AO43" s="22"/>
     </row>
-    <row r="44" spans="1:47" ht="14.25" customHeight="1">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="D44" s="3" t="s">
         <v>761</v>
@@ -6853,7 +6909,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="14.25" customHeight="1">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="D45" s="54"/>
       <c r="E45" s="7">
@@ -6885,7 +6941,7 @@
       </c>
       <c r="AR45" s="4"/>
     </row>
-    <row r="46" spans="1:47" ht="14.25" customHeight="1">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="D46" s="54"/>
       <c r="E46" s="7">
@@ -6916,7 +6972,7 @@
       <c r="AI46" s="4"/>
       <c r="AR46" s="4"/>
     </row>
-    <row r="47" spans="1:47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="7">
         <v>8</v>
       </c>
@@ -6960,7 +7016,7 @@
       <c r="AI47" s="4"/>
       <c r="AR47" s="4"/>
     </row>
-    <row r="48" spans="1:47" ht="14.25" customHeight="1">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>843</v>
       </c>
@@ -7010,7 +7066,7 @@
       <c r="AO48" s="53"/>
       <c r="AR48" s="4"/>
     </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -7049,7 +7105,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7089,7 +7145,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7123,7 +7179,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I52" s="3" t="s">
         <v>898</v>
       </c>
@@ -7154,7 +7210,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="71"/>
       <c r="C53" s="3" t="s">
         <v>916</v>
@@ -7188,7 +7244,7 @@
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
     </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>927</v>
       </c>
@@ -7221,7 +7277,7 @@
       <c r="AN54" s="70"/>
       <c r="AO54" s="70"/>
     </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>940</v>
       </c>
@@ -7254,7 +7310,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>940</v>
       </c>
@@ -7287,7 +7343,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>940</v>
       </c>
@@ -7324,7 +7380,7 @@
       <c r="AS57" s="72"/>
       <c r="AT57" s="72"/>
     </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>952</v>
       </c>
@@ -7362,7 +7418,7 @@
       <c r="AS58" s="72"/>
       <c r="AT58" s="72"/>
     </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>952</v>
       </c>
@@ -7401,7 +7457,7 @@
       <c r="AS59" s="72"/>
       <c r="AT59" s="72"/>
     </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>952</v>
       </c>
@@ -7432,7 +7488,7 @@
       <c r="AA60" s="5"/>
       <c r="AL60" s="4"/>
     </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>960</v>
       </c>
@@ -7462,7 +7518,7 @@
       <c r="AA61" s="5"/>
       <c r="AL61" s="4"/>
     </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>960</v>
       </c>
@@ -7498,7 +7554,7 @@
       <c r="AA62" s="4"/>
       <c r="AL62" s="4"/>
     </row>
-    <row r="63" spans="1:46" ht="14.25" customHeight="1">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>960</v>
       </c>
@@ -7525,7 +7581,7 @@
       </c>
       <c r="AL63" s="4"/>
     </row>
-    <row r="64" spans="1:46" ht="14.25" customHeight="1">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
         <v>1045</v>
       </c>
@@ -7540,7 +7596,7 @@
       <c r="AL64" s="3"/>
       <c r="AN64" s="3"/>
     </row>
-    <row r="65" spans="1:43" ht="14.25" customHeight="1">
+    <row r="65" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>1048</v>
       </c>
@@ -7559,7 +7615,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="14.25" customHeight="1">
+    <row r="66" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>1057</v>
       </c>
@@ -7577,7 +7633,7 @@
       <c r="AP66" s="70"/>
       <c r="AQ66" s="70"/>
     </row>
-    <row r="67" spans="1:43" ht="14.25" customHeight="1">
+    <row r="67" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>1062</v>
       </c>
@@ -7602,7 +7658,7 @@
       <c r="AP67" s="70"/>
       <c r="AQ67" s="70"/>
     </row>
-    <row r="68" spans="1:43" ht="14.25" customHeight="1">
+    <row r="68" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>1076</v>
       </c>
@@ -7625,7 +7681,7 @@
       <c r="AP68" s="70"/>
       <c r="AQ68" s="70"/>
     </row>
-    <row r="69" spans="1:43" ht="14.25" customHeight="1">
+    <row r="69" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>1090</v>
       </c>
@@ -7643,7 +7699,7 @@
       </c>
       <c r="AL69" s="4"/>
     </row>
-    <row r="70" spans="1:43" ht="14.25" customHeight="1">
+    <row r="70" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" s="71" t="s">
         <v>1093</v>
       </c>
@@ -7652,7 +7708,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:43" ht="14.25" customHeight="1">
+    <row r="71" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
@@ -7664,7 +7720,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:43" ht="14.25" customHeight="1">
+    <row r="72" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="F72" s="71" t="s">
@@ -7687,7 +7743,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="14.25" customHeight="1">
+    <row r="73" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="F73" s="71" t="s">
@@ -7703,7 +7759,7 @@
       <c r="AP73" s="70"/>
       <c r="AQ73" s="70"/>
     </row>
-    <row r="74" spans="1:43" ht="14.25" customHeight="1">
+    <row r="74" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="N74" s="56" t="s">
@@ -7716,7 +7772,7 @@
       <c r="AP74" s="70"/>
       <c r="AQ74" s="70"/>
     </row>
-    <row r="75" spans="1:43" ht="14.25" customHeight="1">
+    <row r="75" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M75" s="7" t="s">
         <v>1112</v>
       </c>
@@ -7732,7 +7788,7 @@
       <c r="AP75" s="70"/>
       <c r="AQ75" s="70"/>
     </row>
-    <row r="76" spans="1:43" ht="14.25" customHeight="1">
+    <row r="76" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="3" t="s">
         <v>1115</v>
       </c>
@@ -7751,7 +7807,7 @@
       <c r="AP76" s="70"/>
       <c r="AQ76" s="70"/>
     </row>
-    <row r="77" spans="1:43" ht="14.25" customHeight="1">
+    <row r="77" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>1119</v>
       </c>
@@ -7769,7 +7825,7 @@
       <c r="AP77" s="70"/>
       <c r="AQ77" s="70"/>
     </row>
-    <row r="78" spans="1:43" ht="14.25" customHeight="1">
+    <row r="78" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>520</v>
       </c>
@@ -7781,7 +7837,7 @@
       <c r="N78" s="48"/>
       <c r="O78" s="48"/>
     </row>
-    <row r="79" spans="1:43" ht="14.25" customHeight="1">
+    <row r="79" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>1129</v>
       </c>
@@ -7793,7 +7849,7 @@
       <c r="N79" s="48"/>
       <c r="O79" s="48"/>
     </row>
-    <row r="80" spans="1:43" ht="14.25" customHeight="1">
+    <row r="80" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>1134</v>
       </c>
@@ -7805,936 +7861,936 @@
       <c r="N80" s="48"/>
       <c r="O80" s="48"/>
     </row>
-    <row r="81" spans="2:4" ht="14.25" customHeight="1">
+    <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>1138</v>
       </c>
       <c r="C81" s="62"/>
       <c r="D81" s="62"/>
     </row>
-    <row r="82" spans="2:4" ht="14.25" customHeight="1">
+    <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>1139</v>
       </c>
       <c r="C82" s="62"/>
       <c r="D82" s="62"/>
     </row>
-    <row r="83" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="84" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="85" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="86" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="87" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="88" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="89" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="90" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="91" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="92" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="93" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="94" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="95" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="96" spans="2:4" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8747,14 +8803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AR49" sqref="AR49"/>
+    <sheetView tabSelected="1" topLeftCell="P74" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="S92" sqref="S92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
@@ -8806,7 +8862,7 @@
     <col min="48" max="48" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8888,7 +8944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -8983,7 +9039,7 @@
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
@@ -9071,7 +9127,7 @@
       </c>
       <c r="AU3" s="81"/>
     </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1">
+    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -9152,7 +9208,7 @@
       <c r="AT4" s="81"/>
       <c r="AU4" s="14"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
@@ -9203,7 +9259,7 @@
       </c>
       <c r="AU5" s="81"/>
     </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1">
+    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -9277,7 +9333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>147</v>
       </c>
@@ -9367,7 +9423,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>172</v>
       </c>
@@ -9445,7 +9501,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -9511,7 +9567,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>201</v>
       </c>
@@ -9581,7 +9637,7 @@
       </c>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>211</v>
       </c>
@@ -9671,7 +9727,7 @@
       </c>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="5" t="s">
         <v>223</v>
       </c>
@@ -9751,7 +9807,7 @@
       </c>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -9830,7 +9886,7 @@
       </c>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -9908,7 +9964,7 @@
       </c>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -9974,7 +10030,7 @@
       </c>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -10047,7 +10103,7 @@
       </c>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -10116,7 +10172,7 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="36" t="s">
         <v>336</v>
       </c>
@@ -10195,7 +10251,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="36" t="s">
         <v>364</v>
       </c>
@@ -10273,7 +10329,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
@@ -10346,7 +10402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>396</v>
       </c>
@@ -10418,7 +10474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>275</v>
       </c>
@@ -10497,7 +10553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>430</v>
       </c>
@@ -10577,7 +10633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>446</v>
       </c>
@@ -10643,7 +10699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>456</v>
       </c>
@@ -10715,7 +10771,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="5" t="s">
         <v>473</v>
       </c>
@@ -10785,7 +10841,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>489</v>
       </c>
@@ -10844,7 +10900,7 @@
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>503</v>
       </c>
@@ -10908,7 +10964,7 @@
       </c>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>521</v>
       </c>
@@ -10963,7 +11019,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>539</v>
       </c>
@@ -11008,7 +11064,7 @@
       </c>
       <c r="AS30" s="12"/>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>551</v>
       </c>
@@ -11077,7 +11133,7 @@
       </c>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>573</v>
       </c>
@@ -11163,7 +11219,7 @@
       </c>
       <c r="AS32" s="12"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25" customHeight="1">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
         <v>585</v>
       </c>
@@ -11224,7 +11280,7 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" spans="1:47" ht="14.25" customHeight="1">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>604</v>
       </c>
@@ -11289,7 +11345,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="14.25" customHeight="1">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>623</v>
       </c>
@@ -11343,7 +11399,7 @@
       </c>
       <c r="AQ35" s="62"/>
     </row>
-    <row r="36" spans="1:47" ht="14.25" customHeight="1">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>642</v>
       </c>
@@ -11421,7 +11477,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="14.25" customHeight="1">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>666</v>
       </c>
@@ -11502,7 +11558,7 @@
       </c>
       <c r="AU37" s="63"/>
     </row>
-    <row r="38" spans="1:47" ht="14.25" customHeight="1">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>683</v>
       </c>
@@ -11579,7 +11635,7 @@
       </c>
       <c r="AU38" s="63"/>
     </row>
-    <row r="39" spans="1:47" ht="14.25" customHeight="1">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>700</v>
       </c>
@@ -11640,7 +11696,7 @@
       </c>
       <c r="AU39" s="63"/>
     </row>
-    <row r="40" spans="1:47" ht="14.25" customHeight="1">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="5" t="s">
         <v>717</v>
       </c>
@@ -11688,7 +11744,7 @@
       </c>
       <c r="AU40" s="63"/>
     </row>
-    <row r="41" spans="1:47" ht="14.25" customHeight="1">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>725</v>
       </c>
@@ -11757,7 +11813,7 @@
       </c>
       <c r="AU41" s="63"/>
     </row>
-    <row r="42" spans="1:47" ht="14.25" customHeight="1">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>751</v>
       </c>
@@ -11821,7 +11877,7 @@
       </c>
       <c r="AU42" s="63"/>
     </row>
-    <row r="43" spans="1:47" ht="14.25" customHeight="1">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>771</v>
       </c>
@@ -11881,7 +11937,7 @@
       </c>
       <c r="AU43" s="63"/>
     </row>
-    <row r="44" spans="1:47" ht="14.25" customHeight="1">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>785</v>
       </c>
@@ -11951,7 +12007,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="14.25" customHeight="1">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>797</v>
       </c>
@@ -12025,7 +12081,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="14.25" customHeight="1">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>813</v>
       </c>
@@ -12092,7 +12148,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="47" spans="1:47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="7">
         <v>8</v>
       </c>
@@ -12151,7 +12207,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="14.25" customHeight="1">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>843</v>
       </c>
@@ -12206,7 +12262,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>863</v>
       </c>
@@ -12250,7 +12306,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>876</v>
       </c>
@@ -12313,7 +12369,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>897</v>
       </c>
@@ -12379,7 +12435,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="4" t="s">
         <v>914</v>
       </c>
@@ -12435,7 +12491,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="71"/>
       <c r="C53" s="3" t="s">
         <v>916</v>
@@ -12502,7 +12558,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>927</v>
       </c>
@@ -12558,7 +12614,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>940</v>
       </c>
@@ -12614,7 +12670,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>940</v>
       </c>
@@ -12674,7 +12730,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>940</v>
       </c>
@@ -12735,7 +12791,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>952</v>
       </c>
@@ -12790,7 +12846,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>952</v>
       </c>
@@ -12853,7 +12909,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>952</v>
       </c>
@@ -12904,7 +12960,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>960</v>
       </c>
@@ -12957,7 +13013,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>960</v>
       </c>
@@ -13012,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:46" ht="14.25" customHeight="1">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>960</v>
       </c>
@@ -13060,7 +13116,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="64" spans="1:46" ht="14.25" customHeight="1">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
         <v>1045</v>
       </c>
@@ -13102,7 +13158,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="65" spans="1:47" ht="14.25" customHeight="1">
+    <row r="65" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>1048</v>
       </c>
@@ -13150,7 +13206,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="66" spans="1:47" ht="14.25" customHeight="1">
+    <row r="66" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>1057</v>
       </c>
@@ -13213,7 +13269,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="67" spans="1:47" ht="14.25" customHeight="1">
+    <row r="67" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>1062</v>
       </c>
@@ -13277,7 +13333,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="68" spans="1:47" ht="14.25" customHeight="1">
+    <row r="68" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13349,7 +13405,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="69" spans="1:47" ht="14.25" customHeight="1">
+    <row r="69" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>1090</v>
       </c>
@@ -13408,7 +13464,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="70" spans="1:47" ht="14.25" customHeight="1">
+    <row r="70" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H70" s="7" t="s">
         <v>1182</v>
       </c>
@@ -13473,7 +13529,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="71" spans="1:47" ht="14.25" customHeight="1">
+    <row r="71" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
@@ -13520,7 +13576,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="72" spans="1:47" ht="14.25" customHeight="1">
+    <row r="72" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>1193</v>
       </c>
@@ -13576,7 +13632,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="14.25" customHeight="1">
+    <row r="73" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>1199</v>
       </c>
@@ -13633,7 +13689,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="74" spans="1:47" ht="14.25" customHeight="1">
+    <row r="74" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>1209</v>
       </c>
@@ -13692,7 +13748,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="75" spans="1:47" ht="14.25" customHeight="1">
+    <row r="75" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
         <v>1091</v>
       </c>
@@ -13739,7 +13795,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" spans="1:47" ht="14.25" customHeight="1">
+    <row r="76" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="3" t="s">
         <v>1115</v>
       </c>
@@ -13783,7 +13839,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="77" spans="1:47" ht="14.25" customHeight="1">
+    <row r="77" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>1119</v>
       </c>
@@ -13830,7 +13886,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="78" spans="1:47" ht="14.25" customHeight="1">
+    <row r="78" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>1138</v>
       </c>
@@ -13877,7 +13933,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="79" spans="1:47" ht="14.25" customHeight="1">
+    <row r="79" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>1129</v>
       </c>
@@ -13919,7 +13975,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="80" spans="1:47" ht="14.25" customHeight="1">
+    <row r="80" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>1243</v>
       </c>
@@ -13933,7 +13989,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="14.25" customHeight="1">
+    <row r="81" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>1139</v>
       </c>
@@ -13965,7 +14021,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="14.25" customHeight="1">
+    <row r="82" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>1248</v>
       </c>
@@ -14005,7 +14061,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="14.25" customHeight="1">
+    <row r="83" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
         <v>1256</v>
       </c>
@@ -14047,7 +14103,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="14.25" customHeight="1">
+    <row r="84" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F84" s="7" t="s">
         <v>1002</v>
       </c>
@@ -14080,7 +14136,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="14.25" customHeight="1">
+    <row r="85" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>1270</v>
       </c>
@@ -14118,7 +14174,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="14.25" customHeight="1">
+    <row r="86" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>1277</v>
       </c>
@@ -14148,7 +14204,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="14.25" customHeight="1">
+    <row r="87" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>1285</v>
       </c>
@@ -14176,7 +14232,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="14.25" customHeight="1">
+    <row r="88" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>1293</v>
       </c>
@@ -14200,7 +14256,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="14.25" customHeight="1">
+    <row r="89" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>1299</v>
       </c>
@@ -14215,7 +14271,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="14.25" customHeight="1">
+    <row r="90" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>1303</v>
       </c>
@@ -14233,7 +14289,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="14.25" customHeight="1">
+    <row r="91" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>1307</v>
       </c>
@@ -14247,7 +14303,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="14.25" customHeight="1">
+    <row r="92" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>940</v>
       </c>
@@ -14260,8 +14316,20 @@
       <c r="G92" s="5" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="14.25" customHeight="1">
+      <c r="S92" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="T92" t="s">
+        <v>1364</v>
+      </c>
+      <c r="U92" t="s">
+        <v>1368</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>960</v>
       </c>
@@ -14274,8 +14342,20 @@
       <c r="G93" s="5" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="14.25" customHeight="1">
+      <c r="S93" t="s">
+        <v>443</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="U93" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="V93" s="5" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>952</v>
       </c>
@@ -14288,16 +14368,40 @@
       <c r="G94" s="5" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" ht="14.25" customHeight="1">
+      <c r="S94" t="s">
+        <v>1373</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>1320</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" ht="14.25" customHeight="1">
+      <c r="S95" t="s">
+        <v>1366</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="U95" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="V95" s="5" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>1321</v>
       </c>
@@ -14308,7 +14412,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1">
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>1324</v>
       </c>
@@ -14322,7 +14426,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>1328</v>
       </c>
@@ -14333,7 +14437,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>1331</v>
       </c>
@@ -14344,7 +14448,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>1334</v>
       </c>
@@ -14355,7 +14459,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F101" s="7" t="s">
         <v>1337</v>
       </c>
@@ -14363,7 +14467,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>1339</v>
       </c>
@@ -14377,7 +14481,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>1343</v>
       </c>
@@ -14388,7 +14492,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>1346</v>
       </c>
@@ -14396,7 +14500,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>1348</v>
       </c>
@@ -14404,7 +14508,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>1350</v>
       </c>
@@ -14412,7 +14516,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1">
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>1352</v>
       </c>
@@ -14423,7 +14527,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>1355</v>
       </c>
@@ -14431,907 +14535,907 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="5" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="5" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14.25" customHeight="1">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="5" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AT3:AU3"/>

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E533C92-4A12-F64C-B8BB-E87F1331FC0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACB82F-9E61-7B47-9C34-D0B4C34FECFD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="460" windowWidth="30260" windowHeight="19960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4377,7 +4377,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4493,6 +4493,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8806,8 +8807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P74" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="S92" sqref="S92"/>
+    <sheetView tabSelected="1" topLeftCell="X19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9122,10 +9123,10 @@
       <c r="AS3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AT3" s="80" t="s">
+      <c r="AT3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="81"/>
+      <c r="AU3" s="82"/>
     </row>
     <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -9202,10 +9203,10 @@
       <c r="AQ4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS4" s="80" t="s">
+      <c r="AS4" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="AT4" s="81"/>
+      <c r="AT4" s="82"/>
       <c r="AU4" s="14"/>
     </row>
     <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9254,10 +9255,10 @@
       <c r="AS5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AT5" s="80" t="s">
+      <c r="AT5" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="AU5" s="81"/>
+      <c r="AU5" s="82"/>
     </row>
     <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -12118,7 +12119,8 @@
       <c r="U46" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="Y46" s="4"/>
+      <c r="Y46" s="80"/>
+      <c r="Z46" s="80"/>
       <c r="AG46" s="3" t="s">
         <v>825</v>
       </c>
@@ -12180,7 +12182,8 @@
       <c r="W47" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="Y47" s="5"/>
+      <c r="Y47" s="80"/>
+      <c r="Z47" s="80"/>
       <c r="AB47" s="3" t="s">
         <v>839</v>
       </c>
@@ -12239,7 +12242,8 @@
       <c r="X48" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="Y48" s="5"/>
+      <c r="Y48" s="80"/>
+      <c r="Z48" s="80"/>
       <c r="AB48" s="70" t="s">
         <v>859</v>
       </c>
@@ -12286,7 +12290,8 @@
       <c r="X49" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="Y49" s="4"/>
+      <c r="Y49" s="80"/>
+      <c r="Z49" s="80"/>
       <c r="AB49" s="11" t="s">
         <v>871</v>
       </c>
@@ -12341,6 +12346,8 @@
       <c r="X50" s="5" t="s">
         <v>887</v>
       </c>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
       <c r="AB50" s="70" t="s">
         <v>889</v>
       </c>
@@ -12404,6 +12411,8 @@
       <c r="X51" s="4" t="s">
         <v>904</v>
       </c>
+      <c r="Y51" s="80"/>
+      <c r="Z51" s="80"/>
       <c r="AB51" s="11" t="s">
         <v>905</v>
       </c>
@@ -12461,8 +12470,8 @@
         <v>921</v>
       </c>
       <c r="V52" s="17"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
+      <c r="Y52" s="80"/>
+      <c r="Z52" s="80"/>
       <c r="AB52" s="70" t="s">
         <v>50</v>
       </c>
@@ -12534,8 +12543,8 @@
       <c r="W53" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
       <c r="AB53" s="11" t="s">
         <v>50</v>
       </c>
@@ -12599,8 +12608,8 @@
         <v>962</v>
       </c>
       <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
       <c r="AB54" s="70" t="s">
         <v>964</v>
       </c>
@@ -12652,8 +12661,8 @@
         <v>978</v>
       </c>
       <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="80"/>
       <c r="AB55" s="11" t="s">
         <v>115</v>
       </c>
@@ -12706,8 +12715,8 @@
         <v>991</v>
       </c>
       <c r="X56" s="4"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
       <c r="AB56" s="11" t="s">
         <v>50</v>
       </c>
@@ -12824,9 +12833,6 @@
         <v>1009</v>
       </c>
       <c r="X58" s="5"/>
-      <c r="Y58" s="3" t="s">
-        <v>660</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>922</v>
       </c>
@@ -12881,11 +12887,6 @@
       <c r="U59" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="Y59" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
       <c r="AC59" s="7" t="s">
         <v>936</v>
       </c>
@@ -12944,11 +12945,9 @@
       <c r="X60" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="Y60" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="Y60" s="3" t="s">
+        <v>660</v>
+      </c>
       <c r="AC60" s="7" t="s">
         <v>944</v>
       </c>
@@ -13000,11 +12999,11 @@
       <c r="X61" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="Y61" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
+      <c r="Y61" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
       <c r="AL61" s="4" t="s">
         <v>1010</v>
       </c>
@@ -13053,11 +13052,11 @@
       <c r="X62" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="Y62" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
+      <c r="Y62" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
       <c r="AL62" s="3" t="s">
         <v>1006</v>
       </c>
@@ -13106,6 +13105,11 @@
       <c r="X63" s="5" t="s">
         <v>1080</v>
       </c>
+      <c r="Y63" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
       <c r="AL63" s="4" t="s">
         <v>970</v>
       </c>
@@ -13136,12 +13140,11 @@
       <c r="X64" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="Y64" s="76" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Z64" s="76" t="s">
-        <v>1094</v>
-      </c>
+      <c r="Y64" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
       <c r="AC64" s="7" t="s">
         <v>1100</v>
       </c>
@@ -13172,12 +13175,6 @@
         <v>1109</v>
       </c>
       <c r="L65" s="62"/>
-      <c r="Y65" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z65" s="77" t="s">
-        <v>50</v>
-      </c>
       <c r="AB65" s="7" t="s">
         <v>1121</v>
       </c>
@@ -13234,12 +13231,6 @@
       <c r="V66" s="76">
         <v>3</v>
       </c>
-      <c r="Y66" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z66" s="78" t="s">
-        <v>50</v>
-      </c>
       <c r="AB66" s="7" t="s">
         <v>1140</v>
       </c>
@@ -13300,11 +13291,11 @@
       <c r="X67" s="19" t="s">
         <v>1149</v>
       </c>
-      <c r="Y67" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z67" s="78" t="s">
-        <v>115</v>
+      <c r="Y67" s="76" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Z67" s="76" t="s">
+        <v>1094</v>
       </c>
       <c r="AB67" s="7" t="s">
         <v>1150</v>
@@ -13439,10 +13430,10 @@
       <c r="X69" s="19" t="s">
         <v>1177</v>
       </c>
-      <c r="Y69" s="77" t="s">
+      <c r="Y69" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Z69" s="77" t="s">
+      <c r="Z69" s="78" t="s">
         <v>50</v>
       </c>
       <c r="AB69" s="7" t="s">
@@ -13493,10 +13484,10 @@
         <v>103</v>
       </c>
       <c r="Y70" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z70" s="78" t="s">
         <v>115</v>
-      </c>
-      <c r="Z70" s="78" t="s">
-        <v>50</v>
       </c>
       <c r="AB70" s="7" t="s">
         <v>1187</v>
@@ -13554,10 +13545,10 @@
       <c r="X71" s="19" t="s">
         <v>1192</v>
       </c>
-      <c r="Y71" s="78" t="s">
+      <c r="Y71" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="Z71" s="78" t="s">
+      <c r="Z71" s="77" t="s">
         <v>50</v>
       </c>
       <c r="AL71" s="4" t="s">
@@ -13667,6 +13658,12 @@
       <c r="X73" s="19" t="s">
         <v>1204</v>
       </c>
+      <c r="Y73" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z73" s="78" t="s">
+        <v>50</v>
+      </c>
       <c r="AN73" s="7" t="s">
         <v>1114</v>
       </c>
@@ -13726,6 +13723,12 @@
       <c r="X74" s="19" t="s">
         <v>1212</v>
       </c>
+      <c r="Y74" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z74" s="78" t="s">
+        <v>50</v>
+      </c>
       <c r="AN74" s="7" t="s">
         <v>1118</v>
       </c>
@@ -13771,6 +13774,12 @@
         <v>115</v>
       </c>
       <c r="V75" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y75" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z75" s="77" t="s">
         <v>50</v>
       </c>
       <c r="AN75" s="7" t="s">

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="240" windowWidth="30255" windowHeight="19965" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5112" yWindow="240" windowWidth="30252" windowHeight="19968" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1380">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -4223,12 +4223,15 @@
   <si>
     <t>224.0.1.40</t>
   </si>
+  <si>
+    <t>l</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4519,10 +4522,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4531,6 +4530,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4884,57 +4887,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" customWidth="1"/>
-    <col min="21" max="21" width="32.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" customWidth="1"/>
-    <col min="24" max="24" width="45.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" customWidth="1"/>
-    <col min="26" max="26" width="24.28515625" customWidth="1"/>
-    <col min="27" max="27" width="29.140625" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" customWidth="1"/>
-    <col min="30" max="30" width="17.7109375" customWidth="1"/>
-    <col min="31" max="31" width="27.7109375" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" customWidth="1"/>
-    <col min="33" max="33" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" customWidth="1"/>
+    <col min="19" max="19" width="22.44140625" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="32.109375" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" customWidth="1"/>
+    <col min="23" max="23" width="25.109375" customWidth="1"/>
+    <col min="24" max="24" width="45.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="26" width="24.33203125" customWidth="1"/>
+    <col min="27" max="27" width="29.109375" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" customWidth="1"/>
+    <col min="29" max="29" width="22.44140625" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" customWidth="1"/>
+    <col min="33" max="33" width="25.44140625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="26.42578125" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" customWidth="1"/>
-    <col min="38" max="38" width="26.42578125" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" customWidth="1"/>
-    <col min="40" max="40" width="24.85546875" customWidth="1"/>
+    <col min="35" max="35" width="26.44140625" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.88671875" customWidth="1"/>
+    <col min="38" max="38" width="26.44140625" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" customWidth="1"/>
+    <col min="40" max="40" width="24.88671875" customWidth="1"/>
     <col min="41" max="41" width="24" customWidth="1"/>
-    <col min="42" max="42" width="21.28515625" customWidth="1"/>
-    <col min="43" max="43" width="16.42578125" customWidth="1"/>
-    <col min="44" max="44" width="28.85546875" customWidth="1"/>
-    <col min="45" max="45" width="24.28515625" customWidth="1"/>
-    <col min="46" max="47" width="18.140625" customWidth="1"/>
-    <col min="48" max="48" width="24.42578125" customWidth="1"/>
+    <col min="42" max="42" width="21.33203125" customWidth="1"/>
+    <col min="43" max="43" width="16.44140625" customWidth="1"/>
+    <col min="44" max="44" width="28.88671875" customWidth="1"/>
+    <col min="45" max="45" width="24.33203125" customWidth="1"/>
+    <col min="46" max="47" width="18.109375" customWidth="1"/>
+    <col min="48" max="48" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1">
       <c r="A2" s="4"/>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -5064,7 +5067,7 @@
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>10</v>
@@ -5109,7 +5112,7 @@
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
     </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="14.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>7</v>
@@ -5153,7 +5156,7 @@
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>4</v>
@@ -5179,7 +5182,7 @@
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
     </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="14.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>3</v>
@@ -5234,7 +5237,7 @@
       </c>
       <c r="AQ6" s="11"/>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="C7">
         <v>1</v>
@@ -5287,7 +5290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="C8">
         <v>0</v>
@@ -5328,7 +5331,7 @@
       <c r="AN8" s="5"/>
       <c r="AT8" s="18"/>
     </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1">
       <c r="A9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -5363,7 +5366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="G10" s="5"/>
       <c r="J10" s="7" t="s">
@@ -5409,7 +5412,7 @@
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>167</v>
@@ -5465,7 +5468,7 @@
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1">
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
       <c r="J12" s="7" t="s">
@@ -5515,7 +5518,7 @@
       <c r="AQ12" s="11"/>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -5566,7 +5569,7 @@
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -5614,7 +5617,7 @@
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -5656,7 +5659,7 @@
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -5707,7 +5710,7 @@
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -5752,7 +5755,7 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1">
       <c r="D18" s="5"/>
       <c r="F18" s="5"/>
       <c r="H18" s="5"/>
@@ -5811,7 +5814,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1">
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
@@ -5871,7 +5874,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
@@ -5914,7 +5917,7 @@
       <c r="AS20" s="12"/>
       <c r="AT20" s="12"/>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
         <v>395</v>
@@ -5958,7 +5961,7 @@
       <c r="AS21" s="12"/>
       <c r="AT21" s="12"/>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>410</v>
@@ -5999,7 +6002,7 @@
       <c r="AS22" s="12"/>
       <c r="AT22" s="12"/>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>424</v>
@@ -6049,7 +6052,7 @@
       <c r="AS23" s="12"/>
       <c r="AT23" s="12"/>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>439</v>
@@ -6091,7 +6094,7 @@
       <c r="AS24" s="12"/>
       <c r="AT24" s="12"/>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>455</v>
@@ -6141,7 +6144,7 @@
       <c r="AS25" s="12"/>
       <c r="AT25" s="12"/>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="5"/>
       <c r="H26" s="5"/>
@@ -6183,7 +6186,7 @@
       <c r="AS26" s="12"/>
       <c r="AT26" s="48"/>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>489</v>
       </c>
@@ -6228,7 +6231,7 @@
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1">
       <c r="A28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>505</v>
@@ -6275,7 +6278,7 @@
       </c>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="D29" s="4"/>
       <c r="F29" s="54"/>
@@ -6311,7 +6314,7 @@
       </c>
       <c r="AQ29" s="12"/>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1">
       <c r="A30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="54"/>
@@ -6337,7 +6340,7 @@
       <c r="AR30" s="12"/>
       <c r="AS30" s="12"/>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1">
       <c r="A31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="54"/>
@@ -6387,7 +6390,7 @@
       <c r="AR31" s="12"/>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="54"/>
@@ -6438,7 +6441,7 @@
       <c r="AR32" s="12"/>
       <c r="AS32" s="12"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1">
       <c r="A33" s="56" t="s">
         <v>585</v>
       </c>
@@ -6477,7 +6480,7 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>604</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1">
       <c r="A35" s="4"/>
       <c r="D35" s="49" t="s">
         <v>624</v>
@@ -6563,7 +6566,7 @@
       <c r="AP35" s="18"/>
       <c r="AQ35" s="62"/>
     </row>
-    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1">
       <c r="A36" s="4"/>
       <c r="D36" s="54"/>
       <c r="F36" s="54"/>
@@ -6620,7 +6623,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1">
       <c r="A37" s="4"/>
       <c r="D37" s="54"/>
       <c r="F37" s="54"/>
@@ -6672,7 +6675,7 @@
       <c r="AT37" s="63"/>
       <c r="AU37" s="63"/>
     </row>
-    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1">
       <c r="A38" s="4"/>
       <c r="D38" s="54"/>
       <c r="F38" s="54"/>
@@ -6715,7 +6718,7 @@
       <c r="AT38" s="63"/>
       <c r="AU38" s="63"/>
     </row>
-    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1">
       <c r="A39" s="4"/>
       <c r="D39" s="54"/>
       <c r="J39" s="3" t="s">
@@ -6749,7 +6752,7 @@
       <c r="AT39" s="63"/>
       <c r="AU39" s="63"/>
     </row>
-    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6778,7 +6781,7 @@
       <c r="AT40" s="63"/>
       <c r="AU40" s="63"/>
     </row>
-    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>725</v>
       </c>
@@ -6832,7 +6835,7 @@
       <c r="AT41" s="63"/>
       <c r="AU41" s="63"/>
     </row>
-    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1">
       <c r="A42" s="4"/>
       <c r="D42" s="54"/>
       <c r="E42" s="7">
@@ -6869,7 +6872,7 @@
       <c r="AT42" s="63"/>
       <c r="AU42" s="63"/>
     </row>
-    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1">
       <c r="A43" s="4"/>
       <c r="D43" s="54"/>
       <c r="E43" s="7">
@@ -6905,7 +6908,7 @@
       <c r="AN43" s="33"/>
       <c r="AO43" s="22"/>
     </row>
-    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1">
       <c r="A44" s="4"/>
       <c r="D44" s="3" t="s">
         <v>761</v>
@@ -6942,7 +6945,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1">
       <c r="A45" s="4"/>
       <c r="D45" s="54"/>
       <c r="E45" s="7">
@@ -6974,7 +6977,7 @@
       </c>
       <c r="AR45" s="4"/>
     </row>
-    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1">
       <c r="A46" s="4"/>
       <c r="D46" s="54"/>
       <c r="E46" s="7">
@@ -7005,7 +7008,7 @@
       <c r="AI46" s="4"/>
       <c r="AR46" s="4"/>
     </row>
-    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1">
       <c r="E47" s="7">
         <v>8</v>
       </c>
@@ -7049,7 +7052,7 @@
       <c r="AI47" s="4"/>
       <c r="AR47" s="4"/>
     </row>
-    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>843</v>
       </c>
@@ -7099,7 +7102,7 @@
       <c r="AO48" s="53"/>
       <c r="AR48" s="4"/>
     </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -7138,7 +7141,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7178,7 +7181,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7212,7 +7215,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1">
       <c r="I52" s="3" t="s">
         <v>898</v>
       </c>
@@ -7243,7 +7246,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1">
       <c r="B53" s="71"/>
       <c r="C53" s="3" t="s">
         <v>916</v>
@@ -7277,7 +7280,7 @@
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
     </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>927</v>
       </c>
@@ -7310,7 +7313,7 @@
       <c r="AN54" s="70"/>
       <c r="AO54" s="70"/>
     </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>940</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>940</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>940</v>
       </c>
@@ -7413,7 +7416,7 @@
       <c r="AS57" s="72"/>
       <c r="AT57" s="72"/>
     </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>952</v>
       </c>
@@ -7451,7 +7454,7 @@
       <c r="AS58" s="72"/>
       <c r="AT58" s="72"/>
     </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>952</v>
       </c>
@@ -7490,7 +7493,7 @@
       <c r="AS59" s="72"/>
       <c r="AT59" s="72"/>
     </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>952</v>
       </c>
@@ -7521,7 +7524,7 @@
       <c r="AA60" s="5"/>
       <c r="AL60" s="4"/>
     </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>960</v>
       </c>
@@ -7551,7 +7554,7 @@
       <c r="AA61" s="5"/>
       <c r="AL61" s="4"/>
     </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>960</v>
       </c>
@@ -7587,7 +7590,7 @@
       <c r="AA62" s="4"/>
       <c r="AL62" s="4"/>
     </row>
-    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>960</v>
       </c>
@@ -7614,7 +7617,7 @@
       </c>
       <c r="AL63" s="4"/>
     </row>
-    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1">
       <c r="H64" t="s">
         <v>1045</v>
       </c>
@@ -7629,7 +7632,7 @@
       <c r="AL64" s="3"/>
       <c r="AN64" s="3"/>
     </row>
-    <row r="65" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" ht="14.25" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>1048</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="14.25" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>1057</v>
       </c>
@@ -7666,7 +7669,7 @@
       <c r="AP66" s="70"/>
       <c r="AQ66" s="70"/>
     </row>
-    <row r="67" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" ht="14.25" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>1062</v>
       </c>
@@ -7691,7 +7694,7 @@
       <c r="AP67" s="70"/>
       <c r="AQ67" s="70"/>
     </row>
-    <row r="68" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="14.25" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>1076</v>
       </c>
@@ -7714,7 +7717,7 @@
       <c r="AP68" s="70"/>
       <c r="AQ68" s="70"/>
     </row>
-    <row r="69" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" ht="14.25" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>1090</v>
       </c>
@@ -7732,7 +7735,7 @@
       </c>
       <c r="AL69" s="4"/>
     </row>
-    <row r="70" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="14.25" customHeight="1">
       <c r="F70" s="71" t="s">
         <v>1093</v>
       </c>
@@ -7741,7 +7744,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" ht="14.25" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
@@ -7753,7 +7756,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="14.25" customHeight="1">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="F72" s="71" t="s">
@@ -7776,7 +7779,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" ht="14.25" customHeight="1">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="F73" s="71" t="s">
@@ -7792,7 +7795,7 @@
       <c r="AP73" s="70"/>
       <c r="AQ73" s="70"/>
     </row>
-    <row r="74" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="14.25" customHeight="1">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="N74" s="56" t="s">
@@ -7805,7 +7808,7 @@
       <c r="AP74" s="70"/>
       <c r="AQ74" s="70"/>
     </row>
-    <row r="75" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" ht="14.25" customHeight="1">
       <c r="M75" s="7" t="s">
         <v>1112</v>
       </c>
@@ -7821,7 +7824,7 @@
       <c r="AP75" s="70"/>
       <c r="AQ75" s="70"/>
     </row>
-    <row r="76" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="14.25" customHeight="1">
       <c r="C76" s="3" t="s">
         <v>1115</v>
       </c>
@@ -7840,7 +7843,7 @@
       <c r="AP76" s="70"/>
       <c r="AQ76" s="70"/>
     </row>
-    <row r="77" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" ht="14.25" customHeight="1">
       <c r="B77" s="7" t="s">
         <v>1119</v>
       </c>
@@ -7858,7 +7861,7 @@
       <c r="AP77" s="70"/>
       <c r="AQ77" s="70"/>
     </row>
-    <row r="78" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="14.25" customHeight="1">
       <c r="B78" s="7" t="s">
         <v>520</v>
       </c>
@@ -7870,7 +7873,7 @@
       <c r="N78" s="48"/>
       <c r="O78" s="48"/>
     </row>
-    <row r="79" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" ht="14.25" customHeight="1">
       <c r="B79" s="7" t="s">
         <v>1129</v>
       </c>
@@ -7882,7 +7885,7 @@
       <c r="N79" s="48"/>
       <c r="O79" s="48"/>
     </row>
-    <row r="80" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="14.25" customHeight="1">
       <c r="B80" s="7" t="s">
         <v>1134</v>
       </c>
@@ -7894,936 +7897,936 @@
       <c r="N80" s="48"/>
       <c r="O80" s="48"/>
     </row>
-    <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" ht="14.25" customHeight="1">
       <c r="B81" s="7" t="s">
         <v>1138</v>
       </c>
       <c r="C81" s="62"/>
       <c r="D81" s="62"/>
     </row>
-    <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" ht="14.25" customHeight="1">
       <c r="B82" s="7" t="s">
         <v>1139</v>
       </c>
       <c r="C82" s="62"/>
       <c r="D82" s="62"/>
     </row>
-    <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="84" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="85" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="86" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="87" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="88" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="89" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="90" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="91" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="92" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="93" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="94" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="95" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="96" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8839,63 +8842,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM53" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AP64" sqref="AP64"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AO53" sqref="AO53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="40.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" customWidth="1"/>
-    <col min="21" max="21" width="32.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" customWidth="1"/>
-    <col min="23" max="23" width="32.85546875" customWidth="1"/>
-    <col min="24" max="24" width="45.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" customWidth="1"/>
-    <col min="26" max="26" width="24.28515625" customWidth="1"/>
-    <col min="27" max="27" width="29.140625" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" customWidth="1"/>
-    <col min="30" max="30" width="17.7109375" customWidth="1"/>
-    <col min="31" max="31" width="27.7109375" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" customWidth="1"/>
-    <col min="33" max="33" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" customWidth="1"/>
+    <col min="19" max="19" width="28.88671875" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="32.109375" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" customWidth="1"/>
+    <col min="23" max="23" width="32.88671875" customWidth="1"/>
+    <col min="24" max="24" width="45.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="26" width="24.33203125" customWidth="1"/>
+    <col min="27" max="27" width="29.109375" customWidth="1"/>
+    <col min="28" max="28" width="22.109375" customWidth="1"/>
+    <col min="29" max="29" width="22.44140625" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" customWidth="1"/>
+    <col min="33" max="33" width="25.44140625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="26.42578125" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" customWidth="1"/>
-    <col min="38" max="38" width="26.42578125" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" customWidth="1"/>
-    <col min="40" max="40" width="24.85546875" customWidth="1"/>
+    <col min="35" max="35" width="26.44140625" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.88671875" customWidth="1"/>
+    <col min="38" max="38" width="26.44140625" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" customWidth="1"/>
+    <col min="40" max="40" width="24.88671875" customWidth="1"/>
     <col min="41" max="41" width="24" customWidth="1"/>
-    <col min="42" max="42" width="21.28515625" customWidth="1"/>
-    <col min="43" max="43" width="16.42578125" customWidth="1"/>
-    <col min="44" max="44" width="28.85546875" customWidth="1"/>
-    <col min="45" max="45" width="27.28515625" customWidth="1"/>
-    <col min="46" max="46" width="28.42578125" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="24.42578125" customWidth="1"/>
+    <col min="42" max="42" width="21.33203125" customWidth="1"/>
+    <col min="43" max="43" width="16.44140625" customWidth="1"/>
+    <col min="44" max="44" width="28.88671875" customWidth="1"/>
+    <col min="45" max="45" width="27.33203125" customWidth="1"/>
+    <col min="46" max="46" width="28.44140625" customWidth="1"/>
+    <col min="47" max="47" width="19.44140625" customWidth="1"/>
+    <col min="48" max="48" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -9072,7 +9075,7 @@
       <c r="AT2" s="14"/>
       <c r="AU2" s="14"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
@@ -9155,12 +9158,12 @@
       <c r="AS3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AT3" s="81" t="s">
+      <c r="AT3" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="82"/>
-    </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU3" s="86"/>
+    </row>
+    <row r="4" spans="1:47" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>90</v>
       </c>
@@ -9235,13 +9238,13 @@
       <c r="AQ4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS4" s="81" t="s">
+      <c r="AS4" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="AT4" s="82"/>
+      <c r="AT4" s="86"/>
       <c r="AU4" s="14"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
@@ -9287,12 +9290,12 @@
       <c r="AS5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AT5" s="81" t="s">
+      <c r="AT5" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="AU5" s="82"/>
-    </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU5" s="86"/>
+    </row>
+    <row r="6" spans="1:47" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -9366,7 +9369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>147</v>
       </c>
@@ -9431,10 +9434,10 @@
       <c r="AE7" s="16">
         <v>0</v>
       </c>
-      <c r="AH7" s="83" t="s">
+      <c r="AH7" s="81" t="s">
         <v>1369</v>
       </c>
-      <c r="AI7" s="85" t="s">
+      <c r="AI7" s="83" t="s">
         <v>1370</v>
       </c>
       <c r="AK7" s="7" t="s">
@@ -9456,7 +9459,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>172</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>186</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>201</v>
       </c>
@@ -9670,7 +9673,7 @@
       </c>
       <c r="AR10" s="11"/>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>211</v>
       </c>
@@ -9760,7 +9763,7 @@
       </c>
       <c r="AR11" s="11"/>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1">
       <c r="D12" s="5" t="s">
         <v>223</v>
       </c>
@@ -9840,7 +9843,7 @@
       </c>
       <c r="AR12" s="11"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>243</v>
       </c>
@@ -9919,7 +9922,7 @@
       </c>
       <c r="AR13" s="11"/>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>262</v>
       </c>
@@ -9997,7 +10000,7 @@
       </c>
       <c r="AR14" s="11"/>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -10063,7 +10066,7 @@
       </c>
       <c r="AR15" s="11"/>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -10136,7 +10139,7 @@
       </c>
       <c r="AR16" s="11"/>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>317</v>
       </c>
@@ -10191,7 +10194,7 @@
       </c>
       <c r="AB17" s="16"/>
       <c r="AC17" s="4"/>
-      <c r="AH17" s="84" t="s">
+      <c r="AH17" s="82" t="s">
         <v>1377</v>
       </c>
       <c r="AI17" s="4" t="s">
@@ -10205,7 +10208,7 @@
       <c r="AN17" s="22"/>
       <c r="AO17" s="22"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1">
       <c r="D18" s="36" t="s">
         <v>336</v>
       </c>
@@ -10261,7 +10264,7 @@
       <c r="AE18" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="AH18" s="84" t="s">
+      <c r="AH18" s="82" t="s">
         <v>1378</v>
       </c>
       <c r="AI18" s="4" t="s">
@@ -10284,7 +10287,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1">
       <c r="D19" s="36" t="s">
         <v>364</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>377</v>
       </c>
@@ -10420,10 +10423,10 @@
       <c r="AE20" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="AH20" s="86" t="s">
+      <c r="AH20" s="84" t="s">
         <v>1371</v>
       </c>
-      <c r="AI20" s="85" t="s">
+      <c r="AI20" s="83" t="s">
         <v>1372</v>
       </c>
       <c r="AK20" s="31"/>
@@ -10444,7 +10447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>396</v>
       </c>
@@ -10488,10 +10491,10 @@
       <c r="AE21" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="AH21" s="86" t="s">
+      <c r="AH21" s="84" t="s">
         <v>1373</v>
       </c>
-      <c r="AI21" s="85" t="s">
+      <c r="AI21" s="83" t="s">
         <v>1374</v>
       </c>
       <c r="AK21" s="37" t="s">
@@ -10516,7 +10519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>275</v>
       </c>
@@ -10563,10 +10566,10 @@
       <c r="AE22" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AH22" s="86" t="s">
+      <c r="AH22" s="84" t="s">
         <v>1375</v>
       </c>
-      <c r="AI22" s="85" t="s">
+      <c r="AI22" s="83" t="s">
         <v>1376</v>
       </c>
       <c r="AK22" s="39" t="s">
@@ -10595,7 +10598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>430</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>446</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>456</v>
       </c>
@@ -10806,7 +10809,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1">
       <c r="D26" s="5" t="s">
         <v>473</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>489</v>
       </c>
@@ -10935,7 +10938,7 @@
       <c r="AO27" s="47"/>
       <c r="AP27" s="47"/>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>503</v>
       </c>
@@ -11005,7 +11008,7 @@
       </c>
       <c r="AS28" s="53"/>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>521</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>539</v>
       </c>
@@ -11117,7 +11120,7 @@
       </c>
       <c r="AS30" s="12"/>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>551</v>
       </c>
@@ -11189,7 +11192,7 @@
       </c>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>573</v>
       </c>
@@ -11269,7 +11272,7 @@
       </c>
       <c r="AS32" s="12"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1">
       <c r="A33" s="56" t="s">
         <v>585</v>
       </c>
@@ -11324,7 +11327,7 @@
       <c r="AO33" s="24"/>
       <c r="AP33" s="24"/>
     </row>
-    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>604</v>
       </c>
@@ -11383,7 +11386,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>623</v>
       </c>
@@ -11434,7 +11437,7 @@
       </c>
       <c r="AQ35" s="62"/>
     </row>
-    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>642</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>666</v>
       </c>
@@ -11602,7 +11605,7 @@
       </c>
       <c r="AU37" s="63"/>
     </row>
-    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>683</v>
       </c>
@@ -11679,7 +11682,7 @@
       </c>
       <c r="AU38" s="63"/>
     </row>
-    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>700</v>
       </c>
@@ -11740,7 +11743,7 @@
       </c>
       <c r="AU39" s="63"/>
     </row>
-    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1">
       <c r="J40" s="5" t="s">
         <v>717</v>
       </c>
@@ -11782,7 +11785,7 @@
       </c>
       <c r="AU40" s="63"/>
     </row>
-    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>725</v>
       </c>
@@ -11848,7 +11851,7 @@
       </c>
       <c r="AU41" s="63"/>
     </row>
-    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>751</v>
       </c>
@@ -11912,7 +11915,7 @@
       </c>
       <c r="AU42" s="63"/>
     </row>
-    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>771</v>
       </c>
@@ -11972,7 +11975,7 @@
       </c>
       <c r="AU43" s="63"/>
     </row>
-    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>785</v>
       </c>
@@ -12042,7 +12045,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>797</v>
       </c>
@@ -12111,10 +12114,6 @@
       <c r="AN45" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="AO45" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="AP45" s="53"/>
       <c r="AR45" s="4" t="s">
         <v>810</v>
       </c>
@@ -12122,7 +12121,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>813</v>
       </c>
@@ -12179,12 +12178,6 @@
       <c r="AN46" s="33" t="s">
         <v>783</v>
       </c>
-      <c r="AO46" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="AP46" s="3" t="s">
-        <v>867</v>
-      </c>
       <c r="AR46" s="4" t="s">
         <v>827</v>
       </c>
@@ -12192,7 +12185,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1">
       <c r="E47" s="7">
         <v>8</v>
       </c>
@@ -12244,17 +12237,11 @@
       <c r="AL47" s="69"/>
       <c r="AM47" s="69"/>
       <c r="AN47" s="69"/>
-      <c r="AO47" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="AP47" s="70" t="s">
-        <v>896</v>
-      </c>
       <c r="AR47" s="4" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>843</v>
       </c>
@@ -12302,17 +12289,11 @@
       <c r="AI48" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="AO48" s="70" t="s">
-        <v>909</v>
-      </c>
-      <c r="AP48" s="70" t="s">
-        <v>910</v>
-      </c>
       <c r="AR48" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>863</v>
       </c>
@@ -12346,14 +12327,8 @@
       <c r="AG49" s="70" t="s">
         <v>873</v>
       </c>
-      <c r="AO49" s="70" t="s">
-        <v>925</v>
-      </c>
-      <c r="AP49" s="70" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:46" ht="14.25" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>876</v>
       </c>
@@ -12400,12 +12375,6 @@
       <c r="AI50" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="AO50" s="70" t="s">
-        <v>947</v>
-      </c>
-      <c r="AP50" s="70" t="s">
-        <v>948</v>
-      </c>
       <c r="AR50" s="3" t="s">
         <v>880</v>
       </c>
@@ -12416,7 +12385,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>897</v>
       </c>
@@ -12466,12 +12435,6 @@
       <c r="AL51" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="AO51" s="70" t="s">
-        <v>971</v>
-      </c>
-      <c r="AP51" s="70" t="s">
-        <v>972</v>
-      </c>
       <c r="AR51" s="4" t="s">
         <v>911</v>
       </c>
@@ -12482,7 +12445,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1">
       <c r="F52" s="4" t="s">
         <v>914</v>
       </c>
@@ -12523,12 +12486,6 @@
       <c r="AL52" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="AO52" s="70" t="s">
-        <v>981</v>
-      </c>
-      <c r="AP52" s="70" t="s">
-        <v>982</v>
-      </c>
       <c r="AR52" s="4" t="s">
         <v>928</v>
       </c>
@@ -12539,7 +12496,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1">
       <c r="B53" s="71"/>
       <c r="C53" s="3" t="s">
         <v>916</v>
@@ -12609,7 +12566,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>927</v>
       </c>
@@ -12668,7 +12625,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>940</v>
       </c>
@@ -12723,11 +12680,15 @@
       <c r="AL55" s="4" t="s">
         <v>924</v>
       </c>
+      <c r="AO55" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="AP55" s="53"/>
       <c r="AR55" s="56" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>940</v>
       </c>
@@ -12777,6 +12738,12 @@
       <c r="AL56" s="4" t="s">
         <v>946</v>
       </c>
+      <c r="AO56" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="AP56" s="3" t="s">
+        <v>867</v>
+      </c>
       <c r="AR56" s="3" t="s">
         <v>957</v>
       </c>
@@ -12787,7 +12754,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>940</v>
       </c>
@@ -12836,6 +12803,12 @@
       <c r="AL57" s="4" t="s">
         <v>970</v>
       </c>
+      <c r="AO57" s="70" t="s">
+        <v>895</v>
+      </c>
+      <c r="AP57" s="70" t="s">
+        <v>896</v>
+      </c>
       <c r="AQ57" s="7" t="s">
         <v>973</v>
       </c>
@@ -12849,7 +12822,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>952</v>
       </c>
@@ -12888,6 +12861,12 @@
       <c r="AL58" s="4" t="s">
         <v>980</v>
       </c>
+      <c r="AO58" s="70" t="s">
+        <v>909</v>
+      </c>
+      <c r="AP58" s="70" t="s">
+        <v>910</v>
+      </c>
       <c r="AQ58" s="7" t="s">
         <v>995</v>
       </c>
@@ -12901,7 +12880,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>952</v>
       </c>
@@ -12946,6 +12925,12 @@
       <c r="AL59" s="4" t="s">
         <v>993</v>
       </c>
+      <c r="AO59" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="AP59" s="70" t="s">
+        <v>926</v>
+      </c>
       <c r="AQ59" s="7" t="s">
         <v>1008</v>
       </c>
@@ -12959,7 +12944,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>952</v>
       </c>
@@ -13007,8 +12992,14 @@
       <c r="AL60" s="4" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO60" s="70" t="s">
+        <v>947</v>
+      </c>
+      <c r="AP60" s="70" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" ht="14.25" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>960</v>
       </c>
@@ -13056,12 +13047,18 @@
       <c r="AL61" s="4" t="s">
         <v>1010</v>
       </c>
+      <c r="AO61" s="70" t="s">
+        <v>971</v>
+      </c>
+      <c r="AP61" s="70" t="s">
+        <v>972</v>
+      </c>
       <c r="AS61" s="7"/>
       <c r="AT61" s="3" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>960</v>
       </c>
@@ -13109,6 +13106,12 @@
       <c r="AL62" s="3" t="s">
         <v>1006</v>
       </c>
+      <c r="AO62" s="70" t="s">
+        <v>981</v>
+      </c>
+      <c r="AP62" s="70" t="s">
+        <v>982</v>
+      </c>
       <c r="AS62" s="7" t="s">
         <v>1071</v>
       </c>
@@ -13116,7 +13119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>960</v>
       </c>
@@ -13169,7 +13172,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1">
       <c r="H64" t="s">
         <v>1045</v>
       </c>
@@ -13204,7 +13207,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="65" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" ht="14.25" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>1048</v>
       </c>
@@ -13237,7 +13240,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="66" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" ht="14.25" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>1057</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="67" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" ht="14.25" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>1062</v>
       </c>
@@ -13352,7 +13355,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="68" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" ht="14.25" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13424,7 +13427,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="69" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" ht="14.25" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>1090</v>
       </c>
@@ -13483,7 +13486,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="70" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" ht="14.25" customHeight="1">
       <c r="H70" s="7" t="s">
         <v>1182</v>
       </c>
@@ -13548,7 +13551,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="71" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="14.25" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
@@ -13604,7 +13607,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="72" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" ht="14.25" customHeight="1">
       <c r="A72" s="18" t="s">
         <v>1193</v>
       </c>
@@ -13669,7 +13672,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" ht="14.25" customHeight="1">
       <c r="A73" s="18" t="s">
         <v>1199</v>
       </c>
@@ -13732,7 +13735,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="74" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" ht="14.25" customHeight="1">
       <c r="A74" s="18" t="s">
         <v>1209</v>
       </c>
@@ -13797,7 +13800,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="75" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" ht="14.25" customHeight="1">
       <c r="G75" t="s">
         <v>1091</v>
       </c>
@@ -13853,7 +13856,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" ht="14.25" customHeight="1">
       <c r="C76" s="3" t="s">
         <v>1115</v>
       </c>
@@ -13897,7 +13900,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="77" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" ht="14.25" customHeight="1">
       <c r="B77" s="7" t="s">
         <v>1119</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="78" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" ht="14.25" customHeight="1">
       <c r="B78" s="7" t="s">
         <v>1138</v>
       </c>
@@ -13976,7 +13979,7 @@
         <v>115</v>
       </c>
       <c r="U78" s="5" t="s">
-        <v>115</v>
+        <v>1379</v>
       </c>
       <c r="V78" s="5" t="s">
         <v>50</v>
@@ -13991,7 +13994,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="79" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" ht="14.25" customHeight="1">
       <c r="B79" s="7" t="s">
         <v>1129</v>
       </c>
@@ -14033,7 +14036,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="80" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" ht="14.25" customHeight="1">
       <c r="B80" s="7" t="s">
         <v>1243</v>
       </c>
@@ -14047,7 +14050,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="14.25" customHeight="1">
       <c r="B81" s="7" t="s">
         <v>1139</v>
       </c>
@@ -14076,7 +14079,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="14.25" customHeight="1">
       <c r="B82" s="7" t="s">
         <v>1248</v>
       </c>
@@ -14113,7 +14116,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="14.25" customHeight="1">
       <c r="B83" s="7" t="s">
         <v>1256</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="14.25" customHeight="1">
       <c r="F84" s="7" t="s">
         <v>1002</v>
       </c>
@@ -14188,7 +14191,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="14.25" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>1270</v>
       </c>
@@ -14226,7 +14229,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="14.25" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>1277</v>
       </c>
@@ -14259,7 +14262,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="14.25" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>1285</v>
       </c>
@@ -14290,7 +14293,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="14.25" customHeight="1">
       <c r="A88" s="7" t="s">
         <v>1293</v>
       </c>
@@ -14314,7 +14317,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="14.25" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>1299</v>
       </c>
@@ -14329,7 +14332,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="14.25" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>1303</v>
       </c>
@@ -14347,7 +14350,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="14.25" customHeight="1">
       <c r="A91" s="7" t="s">
         <v>1307</v>
       </c>
@@ -14361,7 +14364,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="14.25" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>940</v>
       </c>
@@ -14378,7 +14381,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="14.25" customHeight="1">
       <c r="A93" s="7" t="s">
         <v>960</v>
       </c>
@@ -14398,7 +14401,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="14.25" customHeight="1">
       <c r="A94" s="7" t="s">
         <v>952</v>
       </c>
@@ -14418,7 +14421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="14.25" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>1320</v>
       </c>
@@ -14432,7 +14435,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="14.25" customHeight="1">
       <c r="A96" s="7" t="s">
         <v>1321</v>
       </c>
@@ -14443,7 +14446,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="14.25" customHeight="1">
       <c r="A97" s="7" t="s">
         <v>1324</v>
       </c>
@@ -14457,7 +14460,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1">
       <c r="A98" s="7" t="s">
         <v>1328</v>
       </c>
@@ -14468,7 +14471,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1">
       <c r="A99" s="7" t="s">
         <v>1331</v>
       </c>
@@ -14479,7 +14482,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1">
       <c r="A100" s="7" t="s">
         <v>1334</v>
       </c>
@@ -14490,7 +14493,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1">
       <c r="F101" s="7" t="s">
         <v>1337</v>
       </c>
@@ -14498,7 +14501,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>1339</v>
       </c>
@@ -14512,7 +14515,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>1343</v>
       </c>
@@ -14523,7 +14526,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>1346</v>
       </c>
@@ -14531,7 +14534,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>1348</v>
       </c>
@@ -14539,7 +14542,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1">
       <c r="A106" s="7" t="s">
         <v>1350</v>
       </c>
@@ -14547,7 +14550,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="14.25" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>1352</v>
       </c>
@@ -14558,7 +14561,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>1355</v>
       </c>
@@ -14566,907 +14569,907 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1">
       <c r="C109" s="5" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1">
       <c r="C110" s="5" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1">
       <c r="C111" s="5" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AT3:AU3"/>

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACB82F-9E61-7B47-9C34-D0B4C34FECFD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA939F0-2017-FA40-B522-BA28A659CD3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="460" windowWidth="30260" windowHeight="19960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="1220" windowWidth="21260" windowHeight="19960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1402">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -4218,12 +4218,87 @@
   <si>
     <t>XML, publish-subscribe</t>
   </si>
+  <si>
+    <t>0.0.0.0/8</t>
+  </si>
+  <si>
+    <t>10.0.0.0/8</t>
+  </si>
+  <si>
+    <t>100.64.0.0/10</t>
+  </si>
+  <si>
+    <t>127.0.0.0/8</t>
+  </si>
+  <si>
+    <t>169.254.0.0/16</t>
+  </si>
+  <si>
+    <t>172.16.0.0/12</t>
+  </si>
+  <si>
+    <t>192.0.0.0/24</t>
+  </si>
+  <si>
+    <t>192.0.2.0/24</t>
+  </si>
+  <si>
+    <t>192.168.0.0/16</t>
+  </si>
+  <si>
+    <t>198.18.0.0/15</t>
+  </si>
+  <si>
+    <t>198.51.100.0/24</t>
+  </si>
+  <si>
+    <t>203.0.113.0/24</t>
+  </si>
+  <si>
+    <t>224.0.0.0/3</t>
+  </si>
+  <si>
+    <t>ipv4 bogons</t>
+  </si>
+  <si>
+    <t>carrier-grade NAT</t>
+  </si>
+  <si>
+    <t>link local</t>
+  </si>
+  <si>
+    <t>IETF protocol assignments</t>
+  </si>
+  <si>
+    <t>TEST-NET-1, documentation and examples</t>
+  </si>
+  <si>
+    <t>loopback</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>current network (source only)</t>
+  </si>
+  <si>
+    <t>private testing between subnets</t>
+  </si>
+  <si>
+    <t>TEST-NET-2</t>
+  </si>
+  <si>
+    <t>TEST-NET-3</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4293,6 +4368,11 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4377,7 +4457,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4495,6 +4575,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8807,8 +8888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="AJ24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AN45" sqref="AN45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8822,9 +8903,8 @@
     <col min="7" max="7" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="10" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="22.33203125" customWidth="1"/>
     <col min="15" max="15" width="23.5" customWidth="1"/>
@@ -8851,8 +8931,8 @@
     <col min="36" max="36" width="8.6640625" customWidth="1"/>
     <col min="37" max="37" width="11.83203125" customWidth="1"/>
     <col min="38" max="38" width="26.5" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" customWidth="1"/>
-    <col min="40" max="40" width="24.83203125" customWidth="1"/>
+    <col min="39" max="39" width="16.33203125" customWidth="1"/>
+    <col min="40" max="40" width="28.1640625" customWidth="1"/>
     <col min="41" max="41" width="24" customWidth="1"/>
     <col min="42" max="42" width="21.33203125" customWidth="1"/>
     <col min="43" max="43" width="16.5" customWidth="1"/>
@@ -9123,10 +9203,10 @@
       <c r="AS3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AT3" s="81" t="s">
+      <c r="AT3" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="82"/>
+      <c r="AU3" s="83"/>
     </row>
     <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -9203,10 +9283,10 @@
       <c r="AQ4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS4" s="81" t="s">
+      <c r="AS4" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="AT4" s="82"/>
+      <c r="AT4" s="83"/>
       <c r="AU4" s="14"/>
     </row>
     <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9255,10 +9335,10 @@
       <c r="AS5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AT5" s="81" t="s">
+      <c r="AT5" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="AU5" s="82"/>
+      <c r="AU5" s="83"/>
     </row>
     <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -13276,6 +13356,11 @@
       <c r="I67" s="4" t="s">
         <v>935</v>
       </c>
+      <c r="K67" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="81"/>
       <c r="S67" s="7" t="s">
         <v>1148</v>
       </c>
@@ -13340,6 +13425,12 @@
       <c r="I68" s="4" t="s">
         <v>1159</v>
       </c>
+      <c r="K68" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L68" s="81" t="s">
+        <v>1397</v>
+      </c>
       <c r="N68" s="3" t="s">
         <v>1034</v>
       </c>
@@ -13412,6 +13503,12 @@
       <c r="I69" s="4" t="s">
         <v>1173</v>
       </c>
+      <c r="K69" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L69" s="81" t="s">
+        <v>1396</v>
+      </c>
       <c r="N69" s="56" t="s">
         <v>1043</v>
       </c>
@@ -13462,6 +13559,12 @@
       <c r="I70" s="4" t="s">
         <v>1183</v>
       </c>
+      <c r="K70" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>1391</v>
+      </c>
       <c r="N70" s="18" t="s">
         <v>1184</v>
       </c>
@@ -13524,6 +13627,12 @@
       <c r="A71" s="3" t="s">
         <v>1095</v>
       </c>
+      <c r="K71" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L71" s="81" t="s">
+        <v>1395</v>
+      </c>
       <c r="N71" s="18" t="s">
         <v>1190</v>
       </c>
@@ -13574,6 +13683,12 @@
       <c r="B72" s="18">
         <v>0</v>
       </c>
+      <c r="K72" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>1392</v>
+      </c>
       <c r="N72" s="18" t="s">
         <v>1194</v>
       </c>
@@ -13637,6 +13752,12 @@
       <c r="I73" s="3" t="s">
         <v>1201</v>
       </c>
+      <c r="K73" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L73" s="81" t="s">
+        <v>1396</v>
+      </c>
       <c r="N73" s="18" t="s">
         <v>1202</v>
       </c>
@@ -13702,6 +13823,12 @@
       <c r="I74" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="K74" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>1393</v>
+      </c>
       <c r="N74" s="18" t="s">
         <v>1210</v>
       </c>
@@ -13761,6 +13888,12 @@
       <c r="I75" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="K75" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>1394</v>
+      </c>
       <c r="N75" s="56" t="s">
         <v>1092</v>
       </c>
@@ -13820,6 +13953,12 @@
       <c r="I76" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="K76" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L76" s="81" t="s">
+        <v>1396</v>
+      </c>
       <c r="N76" s="18" t="s">
         <v>1219</v>
       </c>
@@ -13867,6 +14006,12 @@
       <c r="I77" s="4" t="s">
         <v>1226</v>
       </c>
+      <c r="K77" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L77" s="81" t="s">
+        <v>1398</v>
+      </c>
       <c r="N77" s="18" t="s">
         <v>1227</v>
       </c>
@@ -13914,6 +14059,12 @@
       <c r="I78" s="4" t="s">
         <v>1233</v>
       </c>
+      <c r="K78" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L78" s="81" t="s">
+        <v>1399</v>
+      </c>
       <c r="N78" s="18" t="s">
         <v>1190</v>
       </c>
@@ -13961,6 +14112,12 @@
       <c r="I79" s="4" t="s">
         <v>1238</v>
       </c>
+      <c r="K79" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L79" s="81" t="s">
+        <v>1400</v>
+      </c>
       <c r="O79" s="18" t="s">
         <v>1239</v>
       </c>
@@ -13993,6 +14150,12 @@
       </c>
       <c r="D80" s="18" t="s">
         <v>1244</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="L80" s="81" t="s">
+        <v>1401</v>
       </c>
       <c r="N80" s="56" t="s">
         <v>1110</v>

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA939F0-2017-FA40-B522-BA28A659CD3C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5704AD4-D7E2-7940-80AF-89DF02D2CE3B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="1220" windowWidth="21260" windowHeight="19960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="740" windowWidth="21260" windowHeight="19960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1403">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -3532,9 +3532,6 @@
     <t>mac flooding</t>
   </si>
   <si>
-    <t>dynamic spoke-to-spoke</t>
-  </si>
-  <si>
     <t>vtp primary server</t>
   </si>
   <si>
@@ -4292,6 +4289,12 @@
   </si>
   <si>
     <t>Multicast</t>
+  </si>
+  <si>
+    <t>dynamic spoke-to-spoke tunneling</t>
+  </si>
+  <si>
+    <t>depends on routing protocol</t>
   </si>
 </sst>
 </file>
@@ -8888,8 +8891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AN45" sqref="AN45"/>
+    <sheetView tabSelected="1" topLeftCell="S60" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9790,7 +9793,7 @@
         <v>220</v>
       </c>
       <c r="AK11" s="45" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="AL11" s="79"/>
       <c r="AM11" s="45" t="s">
@@ -9872,12 +9875,12 @@
         <v>239</v>
       </c>
       <c r="AK12" s="7" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="AL12" s="79"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="AO12" s="28"/>
       <c r="AP12" s="19" t="s">
@@ -13357,12 +13360,12 @@
         <v>935</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="81"/>
       <c r="S67" s="7" t="s">
-        <v>1148</v>
+        <v>1401</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>115</v>
@@ -13374,7 +13377,7 @@
         <v>50</v>
       </c>
       <c r="X67" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Y67" s="76" t="s">
         <v>1088</v>
@@ -13383,30 +13386,30 @@
         <v>1094</v>
       </c>
       <c r="AB67" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AC67" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AD67" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AL67" s="3"/>
       <c r="AN67" s="7" t="s">
         <v>1073</v>
       </c>
       <c r="AO67" s="70" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AP67" s="70" t="s">
         <v>1153</v>
-      </c>
-      <c r="AP67" s="70" t="s">
-        <v>1154</v>
       </c>
       <c r="AQ67" s="70"/>
       <c r="AS67" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AT67" s="18" t="s">
         <v>1155</v>
-      </c>
-      <c r="AT67" s="18" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="68" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13414,22 +13417,22 @@
         <v>1076</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C68" s="62"/>
       <c r="D68" s="62"/>
       <c r="E68" s="62"/>
       <c r="H68" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>1159</v>
-      </c>
       <c r="K68" s="7" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="L68" s="81" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>1034</v>
@@ -13438,19 +13441,19 @@
         <v>708</v>
       </c>
       <c r="S68" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="T68" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="T68" s="5" t="s">
+      <c r="U68" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="U68" s="5" t="s">
+      <c r="V68" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="X68" s="19" t="s">
         <v>1162</v>
-      </c>
-      <c r="V68" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="X68" s="19" t="s">
-        <v>1163</v>
       </c>
       <c r="Y68" s="77" t="s">
         <v>115</v>
@@ -13459,13 +13462,13 @@
         <v>50</v>
       </c>
       <c r="AB68" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AC68" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="AC68" s="7" t="s">
+      <c r="AD68" s="7" t="s">
         <v>1165</v>
-      </c>
-      <c r="AD68" s="7" t="s">
-        <v>1166</v>
       </c>
       <c r="AL68" s="3" t="s">
         <v>1053</v>
@@ -13474,17 +13477,17 @@
         <v>1089</v>
       </c>
       <c r="AO68" s="70" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AP68" s="70" t="s">
         <v>1167</v>
-      </c>
-      <c r="AP68" s="70" t="s">
-        <v>1168</v>
       </c>
       <c r="AQ68" s="70"/>
       <c r="AS68" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AT68" s="18" t="s">
         <v>1169</v>
-      </c>
-      <c r="AT68" s="18" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="69" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13492,40 +13495,40 @@
         <v>1090</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
       <c r="E69" s="62"/>
       <c r="H69" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>1173</v>
-      </c>
       <c r="K69" s="7" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="L69" s="81" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="N69" s="56" t="s">
         <v>1043</v>
       </c>
       <c r="S69" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="T69" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="T69" s="5" t="s">
+      <c r="U69" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="V69" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="U69" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="V69" s="5" t="s">
+      <c r="X69" s="19" t="s">
         <v>1176</v>
-      </c>
-      <c r="X69" s="19" t="s">
-        <v>1177</v>
       </c>
       <c r="Y69" s="78" t="s">
         <v>115</v>
@@ -13534,7 +13537,7 @@
         <v>50</v>
       </c>
       <c r="AB69" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AC69" s="7" t="s">
         <v>50</v>
@@ -13546,36 +13549,36 @@
         <v>1141</v>
       </c>
       <c r="AS69" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AT69" s="18" t="s">
         <v>1180</v>
-      </c>
-      <c r="AT69" s="18" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="70" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H70" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="K70" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="N70" s="18" t="s">
         <v>1183</v>
       </c>
-      <c r="K70" s="7" t="s">
-        <v>1379</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>1391</v>
-      </c>
-      <c r="N70" s="18" t="s">
+      <c r="O70" s="18" t="s">
         <v>1184</v>
       </c>
-      <c r="O70" s="18" t="s">
+      <c r="S70" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="S70" s="7" t="s">
-        <v>1186</v>
-      </c>
       <c r="T70" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>115</v>
@@ -13593,16 +13596,16 @@
         <v>115</v>
       </c>
       <c r="AB70" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AC70" s="7" t="s">
         <v>115</v>
       </c>
       <c r="AD70" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AL70" s="4" t="s">
         <v>1151</v>
-      </c>
-      <c r="AL70" s="4" t="s">
-        <v>1152</v>
       </c>
       <c r="AN70" s="3" t="s">
         <v>1098</v>
@@ -13617,10 +13620,10 @@
         <v>1102</v>
       </c>
       <c r="AS70" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AT70" s="18" t="s">
         <v>1188</v>
-      </c>
-      <c r="AT70" s="18" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="71" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13628,19 +13631,19 @@
         <v>1095</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="L71" s="81" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="N71" s="18" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O71" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S71" s="7" t="s">
         <v>1190</v>
-      </c>
-      <c r="O71" s="18" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>1191</v>
       </c>
       <c r="T71" s="5" t="s">
         <v>115</v>
@@ -13652,7 +13655,7 @@
         <v>50</v>
       </c>
       <c r="X71" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Y71" s="77" t="s">
         <v>115</v>
@@ -13667,36 +13670,36 @@
         <v>1107</v>
       </c>
       <c r="AO71" s="70" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AP71" s="70" t="s">
         <v>1205</v>
       </c>
-      <c r="AP71" s="70" t="s">
+      <c r="AQ71" s="70" t="s">
         <v>1206</v>
-      </c>
-      <c r="AQ71" s="70" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="72" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B72" s="18">
         <v>0</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="N72" s="18" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O72" s="18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S72" s="7" t="s">
         <v>1194</v>
-      </c>
-      <c r="O72" s="18" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S72" s="7" t="s">
-        <v>1195</v>
       </c>
       <c r="T72" s="5" t="s">
         <v>115</v>
@@ -13708,7 +13711,7 @@
         <v>50</v>
       </c>
       <c r="X72" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Y72" s="77" t="s">
         <v>115</v>
@@ -13717,55 +13720,55 @@
         <v>50</v>
       </c>
       <c r="AL72" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AN72" s="7" t="s">
         <v>1111</v>
       </c>
       <c r="AO72" s="70" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AP72" s="70" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AQ72" s="70" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AS72" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AT72" s="3" t="s">
         <v>1197</v>
-      </c>
-      <c r="AT72" s="3" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="73" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B73" s="18">
         <v>1</v>
       </c>
       <c r="G73" s="71"/>
       <c r="H73" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="K73" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L73" s="81" t="s">
+        <v>1395</v>
+      </c>
+      <c r="N73" s="18" t="s">
         <v>1201</v>
       </c>
-      <c r="K73" s="7" t="s">
-        <v>1382</v>
-      </c>
-      <c r="L73" s="81" t="s">
-        <v>1396</v>
-      </c>
-      <c r="N73" s="18" t="s">
+      <c r="O73" s="18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="S73" s="7" t="s">
         <v>1202</v>
-      </c>
-      <c r="O73" s="18" t="s">
-        <v>1202</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>1203</v>
       </c>
       <c r="T73" s="5" t="s">
         <v>115</v>
@@ -13777,7 +13780,7 @@
         <v>50</v>
       </c>
       <c r="X73" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Y73" s="78" t="s">
         <v>115</v>
@@ -13789,13 +13792,13 @@
         <v>1114</v>
       </c>
       <c r="AO73" s="70" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AP73" s="70" t="s">
         <v>1216</v>
       </c>
-      <c r="AP73" s="70" t="s">
-        <v>1217</v>
-      </c>
       <c r="AQ73" s="70" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AS73" s="18" t="s">
         <v>50</v>
@@ -13804,12 +13807,12 @@
         <v>50</v>
       </c>
       <c r="AU73" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="74" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B74" s="18">
         <v>2</v>
@@ -13824,19 +13827,19 @@
         <v>115</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="N74" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="O74" s="18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="S74" s="7" t="s">
         <v>1210</v>
-      </c>
-      <c r="O74" s="18" t="s">
-        <v>1210</v>
-      </c>
-      <c r="S74" s="7" t="s">
-        <v>1211</v>
       </c>
       <c r="T74" s="5" t="s">
         <v>115</v>
@@ -13848,7 +13851,7 @@
         <v>115</v>
       </c>
       <c r="X74" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Y74" s="78" t="s">
         <v>115</v>
@@ -13860,13 +13863,13 @@
         <v>1118</v>
       </c>
       <c r="AO74" s="70" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AP74" s="70" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AQ74" s="70" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AS74" s="18" t="s">
         <v>115</v>
@@ -13875,7 +13878,7 @@
         <v>50</v>
       </c>
       <c r="AU74" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="75" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13889,19 +13892,19 @@
         <v>50</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="N75" s="56" t="s">
         <v>1092</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="T75" s="5" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="U75" s="5" t="s">
         <v>115</v>
@@ -13919,16 +13922,16 @@
         <v>1122</v>
       </c>
       <c r="AO75" s="70" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AP75" s="70" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AQ75" s="70" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AS75" s="18" t="s">
         <v>1217</v>
-      </c>
-      <c r="AQ75" s="70" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AS75" s="18" t="s">
-        <v>1218</v>
       </c>
       <c r="AT75" s="18" t="s">
         <v>455</v>
@@ -13954,19 +13957,19 @@
         <v>115</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="L76" s="81" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="N76" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O76" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="S76" s="7" t="s">
         <v>1219</v>
-      </c>
-      <c r="O76" s="18" t="s">
-        <v>1219</v>
-      </c>
-      <c r="S76" s="7" t="s">
-        <v>1220</v>
       </c>
       <c r="T76" s="5" t="s">
         <v>115</v>
@@ -13984,7 +13987,7 @@
         <v>115</v>
       </c>
       <c r="AU76" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="77" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13992,34 +13995,34 @@
         <v>1119</v>
       </c>
       <c r="C77" s="18" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D77" s="18" t="s">
         <v>1223</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>1224</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>1096</v>
       </c>
       <c r="H77" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="K77" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L77" s="81" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N77" s="18" t="s">
         <v>1226</v>
       </c>
-      <c r="K77" s="7" t="s">
-        <v>1386</v>
-      </c>
-      <c r="L77" s="81" t="s">
-        <v>1398</v>
-      </c>
-      <c r="N77" s="18" t="s">
+      <c r="O77" s="18" t="s">
+        <v>1226</v>
+      </c>
+      <c r="S77" s="7" t="s">
         <v>1227</v>
-      </c>
-      <c r="O77" s="18" t="s">
-        <v>1227</v>
-      </c>
-      <c r="S77" s="7" t="s">
-        <v>1228</v>
       </c>
       <c r="T77" s="5" t="s">
         <v>115</v>
@@ -14037,7 +14040,7 @@
         <v>50</v>
       </c>
       <c r="AU77" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="78" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14045,10 +14048,10 @@
         <v>1138</v>
       </c>
       <c r="C78" s="18" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>1231</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>1232</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>1097</v>
@@ -14057,22 +14060,22 @@
         <v>50</v>
       </c>
       <c r="I78" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L78" s="81" t="s">
+        <v>1398</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O78" s="18" t="s">
         <v>1233</v>
       </c>
-      <c r="K78" s="7" t="s">
-        <v>1387</v>
-      </c>
-      <c r="L78" s="81" t="s">
-        <v>1399</v>
-      </c>
-      <c r="N78" s="18" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O78" s="18" t="s">
+      <c r="S78" s="7" t="s">
         <v>1234</v>
-      </c>
-      <c r="S78" s="7" t="s">
-        <v>1235</v>
       </c>
       <c r="T78" s="5" t="s">
         <v>115</v>
@@ -14090,7 +14093,7 @@
         <v>50</v>
       </c>
       <c r="AU78" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="79" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14107,22 +14110,22 @@
         <v>1104</v>
       </c>
       <c r="H79" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="K79" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L79" s="81" t="s">
+        <v>1399</v>
+      </c>
+      <c r="O79" s="18" t="s">
         <v>1238</v>
       </c>
-      <c r="K79" s="7" t="s">
-        <v>1388</v>
-      </c>
-      <c r="L79" s="81" t="s">
-        <v>1400</v>
-      </c>
-      <c r="O79" s="18" t="s">
+      <c r="S79" s="7" t="s">
         <v>1239</v>
-      </c>
-      <c r="S79" s="7" t="s">
-        <v>1240</v>
       </c>
       <c r="T79" s="5"/>
       <c r="U79" s="5" t="s">
@@ -14135,27 +14138,27 @@
         <v>115</v>
       </c>
       <c r="AT79" s="18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AU79" s="7" t="s">
         <v>1241</v>
-      </c>
-      <c r="AU79" s="7" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="80" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="L80" s="81" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="N80" s="56" t="s">
         <v>1110</v>
@@ -14166,7 +14169,7 @@
         <v>1139</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>115</v>
@@ -14181,13 +14184,13 @@
         <v>2</v>
       </c>
       <c r="O81" s="48" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="P81" s="56" t="s">
         <v>1113</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>681</v>
@@ -14195,19 +14198,19 @@
     </row>
     <row r="82" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C82" s="18" t="s">
         <v>1248</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="D82" s="18" t="s">
         <v>1249</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>1250</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>963</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -14218,36 +14221,36 @@
         <v>15</v>
       </c>
       <c r="O82" s="48" t="s">
+        <v>1251</v>
+      </c>
+      <c r="R82" s="15" t="s">
         <v>1252</v>
       </c>
-      <c r="R82" s="15" t="s">
+      <c r="S82" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="S82" s="7" t="s">
+      <c r="T82" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="T82" s="5" t="s">
-        <v>1255</v>
-      </c>
       <c r="V82" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>1256</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="D83" s="18" t="s">
         <v>1257</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>1258</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>983</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -14260,19 +14263,19 @@
       <c r="O83" s="48"/>
       <c r="R83" s="10"/>
       <c r="S83" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="T83" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="T83" s="5" t="s">
+      <c r="V83" s="7" t="s">
         <v>1261</v>
-      </c>
-      <c r="V83" s="7" t="s">
-        <v>1262</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>613</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14280,7 +14283,7 @@
         <v>1002</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -14293,30 +14296,30 @@
       <c r="O84" s="48"/>
       <c r="R84" s="10"/>
       <c r="S84" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="T84" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="T84" s="5" t="s">
+      <c r="V84" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="V84" s="7" t="s">
+      <c r="W84" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="W84" s="5" t="s">
+      <c r="X84" s="5" t="s">
         <v>1268</v>
-      </c>
-      <c r="X84" s="5" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>1012</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -14327,135 +14330,135 @@
         <v>1117</v>
       </c>
       <c r="O85" s="48" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="R85" s="10"/>
       <c r="S85" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="T85" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="V85" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="W85" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="W85" s="5" t="s">
+      <c r="X85" s="5" t="s">
         <v>1275</v>
-      </c>
-      <c r="X85" s="5" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>1277</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>1278</v>
       </c>
       <c r="M86" s="7" t="s">
         <v>1137</v>
       </c>
       <c r="N86" s="48" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O86" s="48" t="s">
         <v>1279</v>
-      </c>
-      <c r="O86" s="48" t="s">
-        <v>1280</v>
       </c>
       <c r="R86" s="10"/>
       <c r="S86" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="T86" s="5" t="s">
         <v>1281</v>
       </c>
-      <c r="T86" s="5" t="s">
+      <c r="W86" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="W86" s="5" t="s">
+      <c r="X86" s="5" t="s">
         <v>1283</v>
-      </c>
-      <c r="X86" s="5" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="F87" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="G87" s="5" t="s">
         <v>1287</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>1288</v>
       </c>
       <c r="H87" s="5"/>
       <c r="R87" s="10"/>
       <c r="S87" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="T87" s="5" t="s">
         <v>1289</v>
       </c>
-      <c r="T87" s="5" t="s">
+      <c r="W87" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="W87" s="5" t="s">
+      <c r="X87" s="5" t="s">
         <v>1291</v>
-      </c>
-      <c r="X87" s="5" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>1293</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="F88" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="G88" s="5" t="s">
         <v>1295</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>1296</v>
       </c>
       <c r="H88" s="5"/>
       <c r="R88" s="15" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="S88" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="T88" s="4" t="s">
         <v>1297</v>
-      </c>
-      <c r="T88" s="4" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>1299</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>1300</v>
       </c>
       <c r="R89" s="10"/>
       <c r="S89" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="T89" s="5" t="s">
         <v>1301</v>
-      </c>
-      <c r="T89" s="5" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>1304</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>1305</v>
       </c>
       <c r="R90" s="10"/>
       <c r="S90" s="7" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="T90" s="5" t="s">
         <v>794</v>
@@ -14463,16 +14466,16 @@
     </row>
     <row r="91" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>1307</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="F91" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="4" t="s">
         <v>1309</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14480,25 +14483,25 @@
         <v>940</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="G92" s="5" t="s">
-        <v>1313</v>
-      </c>
       <c r="S92" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="T92" t="s">
         <v>1363</v>
       </c>
-      <c r="T92" t="s">
-        <v>1364</v>
-      </c>
       <c r="U92" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="V92" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14506,25 +14509,25 @@
         <v>960</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>1314</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="G93" s="5" t="s">
         <v>1315</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>1316</v>
       </c>
       <c r="S93" t="s">
         <v>443</v>
       </c>
       <c r="T93" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="U93" s="5" t="s">
         <v>1370</v>
       </c>
-      <c r="U93" s="5" t="s">
-        <v>1371</v>
-      </c>
       <c r="V93" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14532,194 +14535,194 @@
         <v>952</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>1319</v>
-      </c>
       <c r="S94" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="T94" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="S95" t="s">
+        <v>1365</v>
+      </c>
+      <c r="T95" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="T95" s="5" t="s">
-        <v>1367</v>
-      </c>
       <c r="U95" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="V95" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="F96" s="3" t="s">
         <v>1322</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="F97" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="G97" s="4" t="s">
         <v>1326</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="G98" s="5" t="s">
         <v>1329</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>1331</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="G99" s="5" t="s">
         <v>1332</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="G100" s="5" t="s">
         <v>1335</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F101" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>1337</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="G102" s="5" t="s">
         <v>1341</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="G103" s="5" t="s">
         <v>1344</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>1346</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>1348</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>1350</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="G107" s="5" t="s">
         <v>1353</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>1355</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="5" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\admin\git\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C4CB403-E7E3-488B-A743-5A18E4CCAEA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F3AEB-C2EC-FE4E-A4E6-E73AB25B531A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="855" windowWidth="21255" windowHeight="19965" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="820" windowWidth="21260" windowHeight="19960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
@@ -4208,9 +4208,6 @@
   </si>
   <si>
     <t>glbp</t>
-  </si>
-  <si>
-    <t>0007.b400.xxyy (x=group number, y=avf number)</t>
   </si>
   <si>
     <t>hsrp</t>
@@ -4266,6 +4263,9 @@
   </si>
   <si>
     <t>dhcpv4 options</t>
+  </si>
+  <si>
+    <t>0007.b40x.xxyy (x=group number, y=avf number)</t>
   </si>
 </sst>
 </file>
@@ -5005,57 +5005,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" customWidth="1"/>
-    <col min="21" max="21" width="32.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" customWidth="1"/>
-    <col min="24" max="24" width="45.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" customWidth="1"/>
-    <col min="26" max="26" width="24.28515625" customWidth="1"/>
-    <col min="27" max="27" width="29.140625" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" customWidth="1"/>
-    <col min="30" max="30" width="17.7109375" customWidth="1"/>
-    <col min="31" max="31" width="27.7109375" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" customWidth="1"/>
-    <col min="33" max="33" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.5" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="19" max="19" width="22.5" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" customWidth="1"/>
+    <col min="21" max="21" width="32.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" customWidth="1"/>
+    <col min="24" max="24" width="45.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" customWidth="1"/>
+    <col min="26" max="26" width="24.33203125" customWidth="1"/>
+    <col min="27" max="27" width="29.1640625" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" customWidth="1"/>
+    <col min="29" max="29" width="22.5" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" customWidth="1"/>
+    <col min="31" max="31" width="27.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19.1640625" customWidth="1"/>
+    <col min="33" max="33" width="25.5" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="26.42578125" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" customWidth="1"/>
-    <col min="38" max="38" width="26.42578125" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" customWidth="1"/>
-    <col min="40" max="40" width="24.85546875" customWidth="1"/>
+    <col min="35" max="35" width="26.5" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="11.83203125" customWidth="1"/>
+    <col min="38" max="38" width="26.5" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" customWidth="1"/>
+    <col min="40" max="40" width="24.83203125" customWidth="1"/>
     <col min="41" max="41" width="24" customWidth="1"/>
-    <col min="42" max="42" width="21.28515625" customWidth="1"/>
-    <col min="43" max="43" width="16.42578125" customWidth="1"/>
-    <col min="44" max="44" width="28.85546875" customWidth="1"/>
-    <col min="45" max="45" width="24.28515625" customWidth="1"/>
-    <col min="46" max="47" width="18.140625" customWidth="1"/>
-    <col min="48" max="48" width="24.42578125" customWidth="1"/>
+    <col min="42" max="42" width="21.33203125" customWidth="1"/>
+    <col min="43" max="43" width="16.5" customWidth="1"/>
+    <col min="44" max="44" width="28.83203125" customWidth="1"/>
+    <col min="45" max="45" width="24.33203125" customWidth="1"/>
+    <col min="46" max="47" width="18.1640625" customWidth="1"/>
+    <col min="48" max="48" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -5185,7 +5185,7 @@
       <c r="AT2" s="11"/>
       <c r="AU2" s="11"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>10</v>
@@ -5230,7 +5230,7 @@
       <c r="AT3" s="11"/>
       <c r="AU3" s="11"/>
     </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>7</v>
@@ -5274,7 +5274,7 @@
       <c r="AT4" s="11"/>
       <c r="AU4" s="11"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>4</v>
@@ -5300,7 +5300,7 @@
       <c r="AT5" s="11"/>
       <c r="AU5" s="11"/>
     </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>3</v>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="C7">
         <v>1</v>
@@ -5408,7 +5408,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="C8">
         <v>0</v>
@@ -5449,7 +5449,7 @@
       <c r="AN8" s="5"/>
       <c r="AT8" s="15"/>
     </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -5484,7 +5484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="G10" s="5"/>
       <c r="J10" s="7" t="s">
@@ -5530,7 +5530,7 @@
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>166</v>
@@ -5586,7 +5586,7 @@
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
       <c r="J12" s="7" t="s">
@@ -5636,7 +5636,7 @@
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>242</v>
       </c>
@@ -5687,7 +5687,7 @@
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
       <c r="F18" s="5"/>
       <c r="H18" s="5"/>
@@ -5932,7 +5932,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
@@ -5992,7 +5992,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>376</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="AS20" s="11"/>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
         <v>394</v>
@@ -6079,7 +6079,7 @@
       <c r="AS21" s="11"/>
       <c r="AT21" s="11"/>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>409</v>
@@ -6120,7 +6120,7 @@
       <c r="AS22" s="11"/>
       <c r="AT22" s="11"/>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>423</v>
@@ -6170,7 +6170,7 @@
       <c r="AS23" s="11"/>
       <c r="AT23" s="11"/>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>438</v>
@@ -6212,7 +6212,7 @@
       <c r="AS24" s="11"/>
       <c r="AT24" s="11"/>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>454</v>
@@ -6262,7 +6262,7 @@
       <c r="AS25" s="11"/>
       <c r="AT25" s="11"/>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="5"/>
       <c r="F26" s="5"/>
       <c r="H26" s="5"/>
@@ -6304,7 +6304,7 @@
       <c r="AS26" s="11"/>
       <c r="AT26" s="43"/>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>488</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="AO27" s="42"/>
       <c r="AP27" s="42"/>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>504</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="AS28" s="48"/>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="D29" s="4"/>
       <c r="F29" s="49"/>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="AQ29" s="11"/>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="49"/>
@@ -6458,7 +6458,7 @@
       <c r="AR30" s="11"/>
       <c r="AS30" s="11"/>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="49"/>
@@ -6508,7 +6508,7 @@
       <c r="AR31" s="11"/>
       <c r="AS31" s="11"/>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="49"/>
@@ -6559,7 +6559,7 @@
       <c r="AR32" s="11"/>
       <c r="AS32" s="11"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51" t="s">
         <v>582</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="AO33" s="21"/>
       <c r="AP33" s="21"/>
     </row>
-    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>601</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="D35" s="44" t="s">
         <v>621</v>
@@ -6684,7 +6684,7 @@
       <c r="AP35" s="15"/>
       <c r="AQ35" s="56"/>
     </row>
-    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="D36" s="49"/>
       <c r="F36" s="49"/>
@@ -6741,7 +6741,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="D37" s="49"/>
       <c r="F37" s="49"/>
@@ -6793,7 +6793,7 @@
       <c r="AT37" s="57"/>
       <c r="AU37" s="57"/>
     </row>
-    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="D38" s="49"/>
       <c r="F38" s="49"/>
@@ -6836,7 +6836,7 @@
       <c r="AT38" s="57"/>
       <c r="AU38" s="57"/>
     </row>
-    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="D39" s="49"/>
       <c r="J39" s="3" t="s">
@@ -6870,7 +6870,7 @@
       <c r="AT39" s="57"/>
       <c r="AU39" s="57"/>
     </row>
-    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6899,7 +6899,7 @@
       <c r="AT40" s="57"/>
       <c r="AU40" s="57"/>
     </row>
-    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>719</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="AT41" s="57"/>
       <c r="AU41" s="57"/>
     </row>
-    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="D42" s="49"/>
       <c r="E42" s="7">
@@ -6990,7 +6990,7 @@
       <c r="AT42" s="57"/>
       <c r="AU42" s="57"/>
     </row>
-    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="D43" s="49"/>
       <c r="E43" s="7">
@@ -7026,7 +7026,7 @@
       <c r="AN43" s="30"/>
       <c r="AO43" s="19"/>
     </row>
-    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="D44" s="3" t="s">
         <v>755</v>
@@ -7063,7 +7063,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="D45" s="49"/>
       <c r="E45" s="7">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="AR45" s="4"/>
     </row>
-    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="D46" s="49"/>
       <c r="E46" s="7">
@@ -7126,7 +7126,7 @@
       <c r="AI46" s="4"/>
       <c r="AR46" s="4"/>
     </row>
-    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="7">
         <v>8</v>
       </c>
@@ -7170,7 +7170,7 @@
       <c r="AI47" s="4"/>
       <c r="AR47" s="4"/>
     </row>
-    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>837</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="AO48" s="48"/>
       <c r="AR48" s="4"/>
     </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -7259,7 +7259,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7299,7 +7299,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7333,7 +7333,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I52" s="3" t="s">
         <v>892</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="64"/>
       <c r="C53" s="3" t="s">
         <v>910</v>
@@ -7398,7 +7398,7 @@
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
     </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>921</v>
       </c>
@@ -7431,7 +7431,7 @@
       <c r="AN54" s="63"/>
       <c r="AO54" s="63"/>
     </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>934</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>934</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>934</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="AS57" s="65"/>
       <c r="AT57" s="65"/>
     </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>945</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="AS58" s="65"/>
       <c r="AT58" s="65"/>
     </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>945</v>
       </c>
@@ -7611,7 +7611,7 @@
       <c r="AS59" s="65"/>
       <c r="AT59" s="65"/>
     </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>945</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="AA60" s="5"/>
       <c r="AL60" s="4"/>
     </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>953</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="AA61" s="5"/>
       <c r="AL61" s="4"/>
     </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>953</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="AA62" s="4"/>
       <c r="AL62" s="4"/>
     </row>
-    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>953</v>
       </c>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="AL63" s="4"/>
     </row>
-    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
         <v>1033</v>
       </c>
@@ -7750,7 +7750,7 @@
       <c r="AL64" s="3"/>
       <c r="AN64" s="3"/>
     </row>
-    <row r="65" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>1036</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>1045</v>
       </c>
@@ -7787,7 +7787,7 @@
       <c r="AP66" s="63"/>
       <c r="AQ66" s="63"/>
     </row>
-    <row r="67" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>1050</v>
       </c>
@@ -7812,7 +7812,7 @@
       <c r="AP67" s="63"/>
       <c r="AQ67" s="63"/>
     </row>
-    <row r="68" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>1064</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="AP68" s="63"/>
       <c r="AQ68" s="63"/>
     </row>
-    <row r="69" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>1078</v>
       </c>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="AL69" s="4"/>
     </row>
-    <row r="70" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" s="64" t="s">
         <v>1081</v>
       </c>
@@ -7862,7 +7862,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
     </row>
-    <row r="71" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>1083</v>
       </c>
@@ -7874,7 +7874,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
     </row>
-    <row r="72" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="F72" s="64" t="s">
@@ -7897,7 +7897,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="F73" s="64" t="s">
@@ -7913,7 +7913,7 @@
       <c r="AP73" s="63"/>
       <c r="AQ73" s="63"/>
     </row>
-    <row r="74" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="N74" s="51" t="s">
@@ -7926,7 +7926,7 @@
       <c r="AP74" s="63"/>
       <c r="AQ74" s="63"/>
     </row>
-    <row r="75" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M75" s="7" t="s">
         <v>1100</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="AP75" s="63"/>
       <c r="AQ75" s="63"/>
     </row>
-    <row r="76" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="3" t="s">
         <v>1103</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="AP76" s="63"/>
       <c r="AQ76" s="63"/>
     </row>
-    <row r="77" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>1107</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="AP77" s="63"/>
       <c r="AQ77" s="63"/>
     </row>
-    <row r="78" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>519</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="N78" s="43"/>
       <c r="O78" s="43"/>
     </row>
-    <row r="79" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>1117</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="N79" s="43"/>
       <c r="O79" s="43"/>
     </row>
-    <row r="80" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>1122</v>
       </c>
@@ -8015,936 +8015,936 @@
       <c r="N80" s="43"/>
       <c r="O80" s="43"/>
     </row>
-    <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>1126</v>
       </c>
       <c r="C81" s="56"/>
       <c r="D81" s="56"/>
     </row>
-    <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>1127</v>
       </c>
       <c r="C82" s="56"/>
       <c r="D82" s="56"/>
     </row>
-    <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8960,69 +8960,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="72" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" style="73" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" style="72" customWidth="1"/>
+    <col min="13" max="13" width="26.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" style="71" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="71" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="72" customWidth="1"/>
-    <col min="17" max="17" width="38.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="72" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" style="71" customWidth="1"/>
-    <col min="22" max="22" width="20.42578125" style="71" customWidth="1"/>
-    <col min="23" max="23" width="28.85546875" style="71" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" style="71" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" style="72" customWidth="1"/>
-    <col min="26" max="26" width="29.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="51.42578125" style="73" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.7109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="49.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" style="72" customWidth="1"/>
-    <col min="31" max="31" width="24.28515625" style="71" customWidth="1"/>
-    <col min="32" max="32" width="29.140625" style="71" customWidth="1"/>
-    <col min="33" max="33" width="22.140625" style="71" customWidth="1"/>
-    <col min="34" max="34" width="22.42578125" style="71" customWidth="1"/>
-    <col min="35" max="35" width="17.7109375" style="71" customWidth="1"/>
-    <col min="36" max="36" width="27.7109375" style="71" customWidth="1"/>
-    <col min="37" max="37" width="5.140625" style="72" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" style="71" customWidth="1"/>
-    <col min="39" max="39" width="25.42578125" style="71" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" style="72" customWidth="1"/>
+    <col min="17" max="17" width="38.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" style="72" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="71" customWidth="1"/>
+    <col min="22" max="22" width="20.5" style="71" customWidth="1"/>
+    <col min="23" max="23" width="28.83203125" style="71" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" style="71" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" style="72" customWidth="1"/>
+    <col min="26" max="26" width="29.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="51.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="49.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.1640625" style="72" customWidth="1"/>
+    <col min="31" max="31" width="24.33203125" style="71" customWidth="1"/>
+    <col min="32" max="32" width="29.1640625" style="71" customWidth="1"/>
+    <col min="33" max="33" width="22.1640625" style="71" customWidth="1"/>
+    <col min="34" max="34" width="22.5" style="71" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" style="71" customWidth="1"/>
+    <col min="36" max="36" width="27.6640625" style="71" customWidth="1"/>
+    <col min="37" max="37" width="5.1640625" style="72" customWidth="1"/>
+    <col min="38" max="38" width="19.1640625" style="71" customWidth="1"/>
+    <col min="39" max="39" width="25.5" style="71" customWidth="1"/>
     <col min="40" max="40" width="13" style="71" customWidth="1"/>
-    <col min="41" max="41" width="26.42578125" style="71" customWidth="1"/>
-    <col min="42" max="42" width="5.140625" style="72" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" style="71" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="37.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.42578125" style="71" customWidth="1"/>
-    <col min="46" max="46" width="20.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.140625" style="72" customWidth="1"/>
-    <col min="48" max="48" width="28.140625" style="71" customWidth="1"/>
+    <col min="41" max="41" width="26.5" style="71" customWidth="1"/>
+    <col min="42" max="42" width="5.1640625" style="72" customWidth="1"/>
+    <col min="43" max="43" width="25.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="37.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.5" style="71" customWidth="1"/>
+    <col min="46" max="46" width="20.83203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.1640625" style="72" customWidth="1"/>
+    <col min="48" max="48" width="28.1640625" style="71" customWidth="1"/>
     <col min="49" max="49" width="24" style="71" customWidth="1"/>
-    <col min="50" max="50" width="32.5703125" style="71" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.42578125" style="71" customWidth="1"/>
-    <col min="52" max="52" width="5.140625" style="72" customWidth="1"/>
-    <col min="53" max="53" width="28.85546875" style="71" customWidth="1"/>
-    <col min="54" max="54" width="27.28515625" style="71" customWidth="1"/>
-    <col min="55" max="55" width="28.42578125" style="71" customWidth="1"/>
-    <col min="56" max="16384" width="14.42578125" style="71"/>
+    <col min="50" max="50" width="32.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.5" style="71" customWidth="1"/>
+    <col min="52" max="52" width="5.1640625" style="72" customWidth="1"/>
+    <col min="53" max="53" width="28.83203125" style="71" customWidth="1"/>
+    <col min="54" max="54" width="27.33203125" style="71" customWidth="1"/>
+    <col min="55" max="55" width="28.5" style="71" customWidth="1"/>
+    <col min="56" max="16384" width="14.5" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
@@ -9037,7 +9039,7 @@
         <v>263</v>
       </c>
       <c r="Q1" s="74" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="R1" s="74" t="s">
         <v>4</v>
@@ -9099,7 +9101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="76" t="s">
         <v>27</v>
       </c>
@@ -9186,7 +9188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="76" t="s">
         <v>61</v>
       </c>
@@ -9267,7 +9269,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="76" t="s">
         <v>90</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="76" t="s">
         <v>116</v>
       </c>
@@ -9394,7 +9396,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="76" t="s">
         <v>132</v>
       </c>
@@ -9472,7 +9474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="76" t="s">
         <v>146</v>
       </c>
@@ -9562,7 +9564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="76" t="s">
         <v>171</v>
       </c>
@@ -9640,7 +9642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="76" t="s">
         <v>185</v>
       </c>
@@ -9709,7 +9711,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="76" t="s">
         <v>200</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="11" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="76" t="s">
         <v>210</v>
       </c>
@@ -9866,7 +9868,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H12" s="76" t="s">
         <v>243</v>
       </c>
@@ -9940,7 +9942,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="13" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="113" t="s">
         <v>242</v>
       </c>
@@ -10013,7 +10015,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="14" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="105" t="s">
         <v>261</v>
       </c>
@@ -10085,7 +10087,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="105" t="s">
         <v>280</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="16" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="105" t="s">
         <v>294</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="105" t="s">
         <v>316</v>
       </c>
@@ -10263,7 +10265,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="18" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H18" s="93" t="s">
         <v>363</v>
       </c>
@@ -10322,7 +10324,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="19" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H19" s="95" t="s">
         <v>380</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="20" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="74" t="s">
         <v>376</v>
       </c>
@@ -10460,7 +10462,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="21" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="75" t="s">
         <v>395</v>
       </c>
@@ -10519,7 +10521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="76" t="s">
         <v>274</v>
       </c>
@@ -10589,7 +10591,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="23" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="75" t="s">
         <v>429</v>
       </c>
@@ -10649,7 +10651,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="24" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="75" t="s">
         <v>445</v>
       </c>
@@ -10685,7 +10687,7 @@
         <v>389</v>
       </c>
       <c r="AL24" s="74" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="AQ24" s="94"/>
       <c r="AR24" s="94" t="s">
@@ -10711,7 +10713,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="25" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="75" t="s">
         <v>455</v>
       </c>
@@ -10764,7 +10766,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="26" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H26" s="71"/>
       <c r="J26" s="75" t="s">
         <v>447</v>
@@ -10823,7 +10825,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="74" t="s">
         <v>488</v>
       </c>
@@ -10874,7 +10876,7 @@
       <c r="AW27" s="92"/>
       <c r="AX27" s="92"/>
     </row>
-    <row r="28" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="75" t="s">
         <v>502</v>
       </c>
@@ -10938,7 +10940,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="29" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="75" t="s">
         <v>520</v>
       </c>
@@ -10996,7 +10998,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="30" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="75" t="s">
         <v>538</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="75" t="s">
         <v>550</v>
       </c>
@@ -11116,7 +11118,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="32" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="75" t="s">
         <v>571</v>
       </c>
@@ -11142,16 +11144,16 @@
         <v>546</v>
       </c>
       <c r="S32" s="77" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="U32" s="76" t="s">
         <v>583</v>
       </c>
       <c r="Z32" s="73" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AA32" s="75" t="s">
         <v>1385</v>
-      </c>
-      <c r="AA32" s="75" t="s">
-        <v>1386</v>
       </c>
       <c r="AE32" s="76" t="s">
         <v>590</v>
@@ -11179,7 +11181,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="98" t="s">
         <v>582</v>
       </c>
@@ -11203,7 +11205,7 @@
         <v>568</v>
       </c>
       <c r="S33" s="77" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="U33" s="75" t="s">
         <v>599</v>
@@ -11212,7 +11214,7 @@
         <v>1383</v>
       </c>
       <c r="AA33" s="75" t="s">
-        <v>1384</v>
+        <v>1391</v>
       </c>
       <c r="AE33" s="75" t="s">
         <v>604</v>
@@ -11240,7 +11242,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="34" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="74" t="s">
         <v>601</v>
       </c>
@@ -11304,7 +11306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="75" t="s">
         <v>620</v>
       </c>
@@ -11348,7 +11350,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="36" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="75" t="s">
         <v>639</v>
       </c>
@@ -11410,7 +11412,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="37" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="75" t="s">
         <v>663</v>
       </c>
@@ -11473,7 +11475,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="38" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="75" t="s">
         <v>679</v>
       </c>
@@ -11532,7 +11534,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="39" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="75" t="s">
         <v>695</v>
       </c>
@@ -11581,7 +11583,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="40" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H40" s="74" t="s">
         <v>720</v>
       </c>
@@ -11640,7 +11642,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="41" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="74" t="s">
         <v>719</v>
       </c>
@@ -11700,7 +11702,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="42" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="75" t="s">
         <v>745</v>
       </c>
@@ -11756,7 +11758,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="43" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="75" t="s">
         <v>765</v>
       </c>
@@ -11816,7 +11818,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="44" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="75" t="s">
         <v>779</v>
       </c>
@@ -11880,7 +11882,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="45" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="75" t="s">
         <v>791</v>
       </c>
@@ -11954,7 +11956,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="46" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="75" t="s">
         <v>807</v>
       </c>
@@ -12011,7 +12013,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="47" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G47" s="71"/>
       <c r="H47" s="74" t="s">
         <v>849</v>
@@ -12060,7 +12062,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="74" t="s">
         <v>837</v>
       </c>
@@ -12104,7 +12106,7 @@
         <v>853</v>
       </c>
       <c r="AG48" s="71" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AL48" s="74" t="s">
         <v>649</v>
@@ -12134,7 +12136,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="49" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="76" t="s">
         <v>857</v>
       </c>
@@ -12182,7 +12184,7 @@
         <v>866</v>
       </c>
       <c r="AG49" s="71" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AL49" s="76" t="s">
         <v>674</v>
@@ -12218,7 +12220,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="50" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="76" t="s">
         <v>870</v>
       </c>
@@ -12265,7 +12267,7 @@
         <v>884</v>
       </c>
       <c r="AG50" s="71" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AL50" s="75" t="s">
         <v>689</v>
@@ -12304,7 +12306,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="51" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="75" t="s">
         <v>891</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>900</v>
       </c>
       <c r="AG51" s="71" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AL51" s="76" t="s">
         <v>704</v>
@@ -12390,7 +12392,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="52" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" s="71"/>
       <c r="H52" s="71"/>
       <c r="J52" s="74" t="s">
@@ -12448,7 +12450,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="53" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="74" t="s">
         <v>910</v>
       </c>
@@ -12506,7 +12508,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="54" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="74" t="s">
         <v>925</v>
       </c>
@@ -12569,7 +12571,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="76" t="s">
         <v>965</v>
       </c>
@@ -12630,7 +12632,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="56" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="76" t="s">
         <v>965</v>
       </c>
@@ -12690,7 +12692,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="57" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="75" t="s">
         <v>966</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="58" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="76" t="s">
         <v>965</v>
       </c>
@@ -12787,7 +12789,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="59" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="76" t="s">
         <v>1005</v>
       </c>
@@ -12856,7 +12858,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="60" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="75" t="s">
         <v>1007</v>
       </c>
@@ -12921,7 +12923,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="61" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="75" t="s">
         <v>966</v>
       </c>
@@ -12982,7 +12984,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="62" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="76" t="s">
         <v>1007</v>
       </c>
@@ -13047,7 +13049,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="63" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="75" t="s">
         <v>1007</v>
       </c>
@@ -13113,7 +13115,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="64" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H64" s="71"/>
       <c r="J64" s="77" t="s">
         <v>954</v>
@@ -13185,7 +13187,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="65" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="74" t="s">
         <v>1036</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="66" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="77" t="s">
         <v>1045</v>
       </c>
@@ -13316,7 +13318,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="67" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="77" t="s">
         <v>1050</v>
       </c>
@@ -13383,7 +13385,7 @@
       </c>
       <c r="AS67" s="74"/>
     </row>
-    <row r="68" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="77" t="s">
         <v>1064</v>
       </c>
@@ -13445,7 +13447,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="69" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="77" t="s">
         <v>1078</v>
       </c>
@@ -13499,7 +13501,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H70" s="71"/>
       <c r="J70" s="74" t="s">
         <v>1282</v>
@@ -13535,7 +13537,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="71" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="83" t="s">
         <v>1083</v>
       </c>
@@ -13570,7 +13572,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="72" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="77">
         <v>0</v>
       </c>
@@ -13609,7 +13611,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="73" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="77">
         <v>1</v>
       </c>
@@ -13654,7 +13656,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="74" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="77">
         <v>2</v>
       </c>
@@ -13702,7 +13704,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="75" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J75" s="77" t="s">
         <v>1302</v>
       </c>
@@ -13736,7 +13738,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="74" t="s">
         <v>1103</v>
       </c>
@@ -13778,7 +13780,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="77" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="87" t="s">
         <v>1107</v>
       </c>
@@ -13812,7 +13814,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="78" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="87" t="s">
         <v>1126</v>
       </c>
@@ -13849,7 +13851,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="79" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="87" t="s">
         <v>1117</v>
       </c>
@@ -13895,7 +13897,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="80" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="87" t="s">
         <v>1230</v>
       </c>
@@ -13944,7 +13946,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="81" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="87" t="s">
         <v>1127</v>
       </c>
@@ -13985,7 +13987,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="82" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="87" t="s">
         <v>1235</v>
       </c>
@@ -14035,7 +14037,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="87" t="s">
         <v>1243</v>
       </c>
@@ -14078,7 +14080,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="71"/>
       <c r="K84" s="76" t="s">
         <v>1326</v>
@@ -14107,7 +14109,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="85" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="74" t="s">
         <v>1257</v>
       </c>
@@ -14135,7 +14137,7 @@
       </c>
       <c r="AA85" s="71"/>
     </row>
-    <row r="86" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="77" t="s">
         <v>1264</v>
       </c>
@@ -14175,7 +14177,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="87" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="77" t="s">
         <v>1272</v>
       </c>
@@ -14224,7 +14226,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="88" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="77" t="s">
         <v>1280</v>
       </c>
@@ -14264,7 +14266,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="89" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="77" t="s">
         <v>1286</v>
       </c>
@@ -14308,7 +14310,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="90" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="77" t="s">
         <v>1290</v>
       </c>
@@ -14348,7 +14350,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="91" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="77" t="s">
         <v>1294</v>
       </c>
@@ -14383,7 +14385,7 @@
       </c>
       <c r="AA91" s="71"/>
     </row>
-    <row r="92" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="77" t="s">
         <v>934</v>
       </c>
@@ -14429,7 +14431,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="93" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="77" t="s">
         <v>953</v>
       </c>
@@ -14473,7 +14475,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="94" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="77" t="s">
         <v>945</v>
       </c>
@@ -14499,7 +14501,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="95" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="77" t="s">
         <v>1307</v>
       </c>
@@ -14522,7 +14524,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="96" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="77" t="s">
         <v>1308</v>
       </c>
@@ -14530,7 +14532,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="77" t="s">
         <v>1311</v>
       </c>
@@ -14538,7 +14540,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="77" t="s">
         <v>1315</v>
       </c>
@@ -14546,7 +14548,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="77" t="s">
         <v>1318</v>
       </c>
@@ -14554,7 +14556,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="77" t="s">
         <v>1321</v>
       </c>
@@ -14562,948 +14564,948 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
     </row>
-    <row r="102" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
     </row>
-    <row r="103" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
     </row>
-    <row r="104" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
     </row>
-    <row r="105" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
     </row>
-    <row r="106" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
     </row>
-    <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
     </row>
-    <row r="108" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
     </row>
-    <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
     </row>
-    <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\admin\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F3AEB-C2EC-FE4E-A4E6-E73AB25B531A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E83FC2A7-5ACC-4606-849D-B91A397FACC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="820" windowWidth="21260" windowHeight="19960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="825" windowWidth="21255" windowHeight="19965" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fill-in" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="1409">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -4267,12 +4267,63 @@
   <si>
     <t>0007.b40x.xxyy (x=group number, y=avf number)</t>
   </si>
+  <si>
+    <t>ip helper</t>
+  </si>
+  <si>
+    <t>udp broadcast forwarding</t>
+  </si>
+  <si>
+    <t>udp 69</t>
+  </si>
+  <si>
+    <t>tftp</t>
+  </si>
+  <si>
+    <t>udp 67</t>
+  </si>
+  <si>
+    <t>bootp client</t>
+  </si>
+  <si>
+    <t>udp 68</t>
+  </si>
+  <si>
+    <t>bootp server</t>
+  </si>
+  <si>
+    <t>udp 37</t>
+  </si>
+  <si>
+    <t>time protocol</t>
+  </si>
+  <si>
+    <t>udp 49</t>
+  </si>
+  <si>
+    <t>tacacs</t>
+  </si>
+  <si>
+    <t>udp 53</t>
+  </si>
+  <si>
+    <t>udp 137</t>
+  </si>
+  <si>
+    <t>netbios</t>
+  </si>
+  <si>
+    <t>udp 138</t>
+  </si>
+  <si>
+    <t>netbios datagram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5005,57 +5056,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.5" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
-    <col min="19" max="19" width="22.5" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" customWidth="1"/>
-    <col min="21" max="21" width="32.1640625" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="25.1640625" customWidth="1"/>
-    <col min="24" max="24" width="45.33203125" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" customWidth="1"/>
-    <col min="26" max="26" width="24.33203125" customWidth="1"/>
-    <col min="27" max="27" width="29.1640625" customWidth="1"/>
-    <col min="28" max="28" width="18.6640625" customWidth="1"/>
-    <col min="29" max="29" width="22.5" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" customWidth="1"/>
-    <col min="31" max="31" width="27.6640625" customWidth="1"/>
-    <col min="32" max="32" width="19.1640625" customWidth="1"/>
-    <col min="33" max="33" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" customWidth="1"/>
+    <col min="24" max="24" width="45.28515625" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="26" max="26" width="24.28515625" customWidth="1"/>
+    <col min="27" max="27" width="29.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" customWidth="1"/>
+    <col min="29" max="29" width="22.42578125" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" customWidth="1"/>
+    <col min="31" max="31" width="27.7109375" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="26.5" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" customWidth="1"/>
-    <col min="37" max="37" width="11.83203125" customWidth="1"/>
-    <col min="38" max="38" width="26.5" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" customWidth="1"/>
-    <col min="40" max="40" width="24.83203125" customWidth="1"/>
+    <col min="35" max="35" width="26.42578125" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="38" max="38" width="26.42578125" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" customWidth="1"/>
+    <col min="40" max="40" width="24.85546875" customWidth="1"/>
     <col min="41" max="41" width="24" customWidth="1"/>
-    <col min="42" max="42" width="21.33203125" customWidth="1"/>
-    <col min="43" max="43" width="16.5" customWidth="1"/>
-    <col min="44" max="44" width="28.83203125" customWidth="1"/>
-    <col min="45" max="45" width="24.33203125" customWidth="1"/>
-    <col min="46" max="47" width="18.1640625" customWidth="1"/>
-    <col min="48" max="48" width="24.5" customWidth="1"/>
+    <col min="42" max="42" width="21.28515625" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" customWidth="1"/>
+    <col min="44" max="44" width="28.85546875" customWidth="1"/>
+    <col min="45" max="45" width="24.28515625" customWidth="1"/>
+    <col min="46" max="47" width="18.140625" customWidth="1"/>
+    <col min="48" max="48" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5129,7 +5180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="14.25" customHeight="1">
       <c r="A2" s="4"/>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -5185,7 +5236,7 @@
       <c r="AT2" s="11"/>
       <c r="AU2" s="11"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1">
       <c r="A3" s="4"/>
       <c r="C3">
         <v>10</v>
@@ -5230,7 +5281,7 @@
       <c r="AT3" s="11"/>
       <c r="AU3" s="11"/>
     </row>
-    <row r="4" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="14.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="C4">
         <v>7</v>
@@ -5274,7 +5325,7 @@
       <c r="AT4" s="11"/>
       <c r="AU4" s="11"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="14.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="C5">
         <v>4</v>
@@ -5300,7 +5351,7 @@
       <c r="AT5" s="11"/>
       <c r="AU5" s="11"/>
     </row>
-    <row r="6" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" ht="14.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="C6">
         <v>3</v>
@@ -5355,7 +5406,7 @@
       </c>
       <c r="AQ6" s="10"/>
     </row>
-    <row r="7" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="C7">
         <v>1</v>
@@ -5408,7 +5459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" ht="14.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="C8">
         <v>0</v>
@@ -5449,7 +5500,7 @@
       <c r="AN8" s="5"/>
       <c r="AT8" s="15"/>
     </row>
-    <row r="9" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="14.25" customHeight="1">
       <c r="A9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -5484,7 +5535,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" ht="14.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="G10" s="5"/>
       <c r="J10" s="7" t="s">
@@ -5530,7 +5581,7 @@
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
     </row>
-    <row r="11" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" ht="14.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="D11" s="2" t="s">
         <v>166</v>
@@ -5586,7 +5637,7 @@
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" ht="14.25" customHeight="1">
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
       <c r="J12" s="7" t="s">
@@ -5636,7 +5687,7 @@
       <c r="AQ12" s="10"/>
       <c r="AR12" s="10"/>
     </row>
-    <row r="13" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>242</v>
       </c>
@@ -5687,7 +5738,7 @@
       <c r="AQ13" s="10"/>
       <c r="AR13" s="10"/>
     </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -5735,7 +5786,7 @@
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
     </row>
-    <row r="15" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -5777,7 +5828,7 @@
       <c r="AQ15" s="10"/>
       <c r="AR15" s="10"/>
     </row>
-    <row r="16" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -5828,7 +5879,7 @@
       <c r="AQ16" s="10"/>
       <c r="AR16" s="10"/>
     </row>
-    <row r="17" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -5873,7 +5924,7 @@
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
     </row>
-    <row r="18" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" ht="14.25" customHeight="1">
       <c r="D18" s="5"/>
       <c r="F18" s="5"/>
       <c r="H18" s="5"/>
@@ -5932,7 +5983,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" ht="14.25" customHeight="1">
       <c r="D19" s="5"/>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
@@ -5992,7 +6043,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" ht="14.25" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>376</v>
       </c>
@@ -6035,7 +6086,7 @@
       <c r="AS20" s="11"/>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
         <v>394</v>
@@ -6079,7 +6130,7 @@
       <c r="AS21" s="11"/>
       <c r="AT21" s="11"/>
     </row>
-    <row r="22" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" ht="14.25" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>409</v>
@@ -6120,7 +6171,7 @@
       <c r="AS22" s="11"/>
       <c r="AT22" s="11"/>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>423</v>
@@ -6170,7 +6221,7 @@
       <c r="AS23" s="11"/>
       <c r="AT23" s="11"/>
     </row>
-    <row r="24" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>438</v>
@@ -6212,7 +6263,7 @@
       <c r="AS24" s="11"/>
       <c r="AT24" s="11"/>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>454</v>
@@ -6262,7 +6313,7 @@
       <c r="AS25" s="11"/>
       <c r="AT25" s="11"/>
     </row>
-    <row r="26" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" ht="14.25" customHeight="1">
       <c r="D26" s="5"/>
       <c r="F26" s="5"/>
       <c r="H26" s="5"/>
@@ -6304,7 +6355,7 @@
       <c r="AS26" s="11"/>
       <c r="AT26" s="43"/>
     </row>
-    <row r="27" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" ht="14.25" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>488</v>
       </c>
@@ -6349,7 +6400,7 @@
       <c r="AO27" s="42"/>
       <c r="AP27" s="42"/>
     </row>
-    <row r="28" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" ht="14.25" customHeight="1">
       <c r="A28" s="4"/>
       <c r="D28" s="3" t="s">
         <v>504</v>
@@ -6396,7 +6447,7 @@
       </c>
       <c r="AS28" s="48"/>
     </row>
-    <row r="29" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="D29" s="4"/>
       <c r="F29" s="49"/>
@@ -6432,7 +6483,7 @@
       </c>
       <c r="AQ29" s="11"/>
     </row>
-    <row r="30" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" ht="14.25" customHeight="1">
       <c r="A30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="49"/>
@@ -6458,7 +6509,7 @@
       <c r="AR30" s="11"/>
       <c r="AS30" s="11"/>
     </row>
-    <row r="31" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" ht="14.25" customHeight="1">
       <c r="A31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="49"/>
@@ -6508,7 +6559,7 @@
       <c r="AR31" s="11"/>
       <c r="AS31" s="11"/>
     </row>
-    <row r="32" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" ht="14.25" customHeight="1">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="49"/>
@@ -6559,7 +6610,7 @@
       <c r="AR32" s="11"/>
       <c r="AS32" s="11"/>
     </row>
-    <row r="33" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" ht="14.25" customHeight="1">
       <c r="A33" s="51" t="s">
         <v>582</v>
       </c>
@@ -6598,7 +6649,7 @@
       <c r="AO33" s="21"/>
       <c r="AP33" s="21"/>
     </row>
-    <row r="34" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" ht="14.25" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>601</v>
       </c>
@@ -6645,7 +6696,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" ht="14.25" customHeight="1">
       <c r="A35" s="4"/>
       <c r="D35" s="44" t="s">
         <v>621</v>
@@ -6684,7 +6735,7 @@
       <c r="AP35" s="15"/>
       <c r="AQ35" s="56"/>
     </row>
-    <row r="36" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" ht="14.25" customHeight="1">
       <c r="A36" s="4"/>
       <c r="D36" s="49"/>
       <c r="F36" s="49"/>
@@ -6741,7 +6792,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" ht="14.25" customHeight="1">
       <c r="A37" s="4"/>
       <c r="D37" s="49"/>
       <c r="F37" s="49"/>
@@ -6793,7 +6844,7 @@
       <c r="AT37" s="57"/>
       <c r="AU37" s="57"/>
     </row>
-    <row r="38" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" ht="14.25" customHeight="1">
       <c r="A38" s="4"/>
       <c r="D38" s="49"/>
       <c r="F38" s="49"/>
@@ -6836,7 +6887,7 @@
       <c r="AT38" s="57"/>
       <c r="AU38" s="57"/>
     </row>
-    <row r="39" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" ht="14.25" customHeight="1">
       <c r="A39" s="4"/>
       <c r="D39" s="49"/>
       <c r="J39" s="3" t="s">
@@ -6870,7 +6921,7 @@
       <c r="AT39" s="57"/>
       <c r="AU39" s="57"/>
     </row>
-    <row r="40" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" ht="14.25" customHeight="1">
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6899,7 +6950,7 @@
       <c r="AT40" s="57"/>
       <c r="AU40" s="57"/>
     </row>
-    <row r="41" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" ht="14.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>719</v>
       </c>
@@ -6953,7 +7004,7 @@
       <c r="AT41" s="57"/>
       <c r="AU41" s="57"/>
     </row>
-    <row r="42" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" ht="14.25" customHeight="1">
       <c r="A42" s="4"/>
       <c r="D42" s="49"/>
       <c r="E42" s="7">
@@ -6990,7 +7041,7 @@
       <c r="AT42" s="57"/>
       <c r="AU42" s="57"/>
     </row>
-    <row r="43" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" ht="14.25" customHeight="1">
       <c r="A43" s="4"/>
       <c r="D43" s="49"/>
       <c r="E43" s="7">
@@ -7026,7 +7077,7 @@
       <c r="AN43" s="30"/>
       <c r="AO43" s="19"/>
     </row>
-    <row r="44" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" ht="14.25" customHeight="1">
       <c r="A44" s="4"/>
       <c r="D44" s="3" t="s">
         <v>755</v>
@@ -7063,7 +7114,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" ht="14.25" customHeight="1">
       <c r="A45" s="4"/>
       <c r="D45" s="49"/>
       <c r="E45" s="7">
@@ -7095,7 +7146,7 @@
       </c>
       <c r="AR45" s="4"/>
     </row>
-    <row r="46" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47" ht="14.25" customHeight="1">
       <c r="A46" s="4"/>
       <c r="D46" s="49"/>
       <c r="E46" s="7">
@@ -7126,7 +7177,7 @@
       <c r="AI46" s="4"/>
       <c r="AR46" s="4"/>
     </row>
-    <row r="47" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47" ht="14.25" customHeight="1">
       <c r="E47" s="7">
         <v>8</v>
       </c>
@@ -7170,7 +7221,7 @@
       <c r="AI47" s="4"/>
       <c r="AR47" s="4"/>
     </row>
-    <row r="48" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47" ht="14.25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>837</v>
       </c>
@@ -7220,7 +7271,7 @@
       <c r="AO48" s="48"/>
       <c r="AR48" s="4"/>
     </row>
-    <row r="49" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" ht="14.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -7259,7 +7310,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" ht="14.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7299,7 +7350,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" ht="14.25" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7333,7 +7384,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" ht="14.25" customHeight="1">
       <c r="I52" s="3" t="s">
         <v>892</v>
       </c>
@@ -7364,7 +7415,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" ht="14.25" customHeight="1">
       <c r="B53" s="64"/>
       <c r="C53" s="3" t="s">
         <v>910</v>
@@ -7398,7 +7449,7 @@
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
     </row>
-    <row r="54" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" ht="14.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>921</v>
       </c>
@@ -7431,7 +7482,7 @@
       <c r="AN54" s="63"/>
       <c r="AO54" s="63"/>
     </row>
-    <row r="55" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" ht="14.25" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>934</v>
       </c>
@@ -7464,7 +7515,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" ht="14.25" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>934</v>
       </c>
@@ -7497,7 +7548,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" ht="14.25" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>934</v>
       </c>
@@ -7534,7 +7585,7 @@
       <c r="AS57" s="65"/>
       <c r="AT57" s="65"/>
     </row>
-    <row r="58" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" ht="14.25" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>945</v>
       </c>
@@ -7572,7 +7623,7 @@
       <c r="AS58" s="65"/>
       <c r="AT58" s="65"/>
     </row>
-    <row r="59" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" ht="14.25" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>945</v>
       </c>
@@ -7611,7 +7662,7 @@
       <c r="AS59" s="65"/>
       <c r="AT59" s="65"/>
     </row>
-    <row r="60" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" ht="14.25" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>945</v>
       </c>
@@ -7642,7 +7693,7 @@
       <c r="AA60" s="5"/>
       <c r="AL60" s="4"/>
     </row>
-    <row r="61" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" ht="14.25" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>953</v>
       </c>
@@ -7672,7 +7723,7 @@
       <c r="AA61" s="5"/>
       <c r="AL61" s="4"/>
     </row>
-    <row r="62" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" ht="14.25" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>953</v>
       </c>
@@ -7708,7 +7759,7 @@
       <c r="AA62" s="4"/>
       <c r="AL62" s="4"/>
     </row>
-    <row r="63" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" ht="14.25" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>953</v>
       </c>
@@ -7735,7 +7786,7 @@
       </c>
       <c r="AL63" s="4"/>
     </row>
-    <row r="64" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" ht="14.25" customHeight="1">
       <c r="H64" t="s">
         <v>1033</v>
       </c>
@@ -7750,7 +7801,7 @@
       <c r="AL64" s="3"/>
       <c r="AN64" s="3"/>
     </row>
-    <row r="65" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" ht="14.25" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>1036</v>
       </c>
@@ -7769,7 +7820,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" ht="14.25" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>1045</v>
       </c>
@@ -7787,7 +7838,7 @@
       <c r="AP66" s="63"/>
       <c r="AQ66" s="63"/>
     </row>
-    <row r="67" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" ht="14.25" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>1050</v>
       </c>
@@ -7812,7 +7863,7 @@
       <c r="AP67" s="63"/>
       <c r="AQ67" s="63"/>
     </row>
-    <row r="68" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" ht="14.25" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>1064</v>
       </c>
@@ -7835,7 +7886,7 @@
       <c r="AP68" s="63"/>
       <c r="AQ68" s="63"/>
     </row>
-    <row r="69" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" ht="14.25" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>1078</v>
       </c>
@@ -7853,7 +7904,7 @@
       </c>
       <c r="AL69" s="4"/>
     </row>
-    <row r="70" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" ht="14.25" customHeight="1">
       <c r="F70" s="64" t="s">
         <v>1081</v>
       </c>
@@ -7862,7 +7913,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
     </row>
-    <row r="71" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" ht="14.25" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>1083</v>
       </c>
@@ -7874,7 +7925,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
     </row>
-    <row r="72" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" ht="14.25" customHeight="1">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="F72" s="64" t="s">
@@ -7897,7 +7948,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" ht="14.25" customHeight="1">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="F73" s="64" t="s">
@@ -7913,7 +7964,7 @@
       <c r="AP73" s="63"/>
       <c r="AQ73" s="63"/>
     </row>
-    <row r="74" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" ht="14.25" customHeight="1">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="N74" s="51" t="s">
@@ -7926,7 +7977,7 @@
       <c r="AP74" s="63"/>
       <c r="AQ74" s="63"/>
     </row>
-    <row r="75" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" ht="14.25" customHeight="1">
       <c r="M75" s="7" t="s">
         <v>1100</v>
       </c>
@@ -7942,7 +7993,7 @@
       <c r="AP75" s="63"/>
       <c r="AQ75" s="63"/>
     </row>
-    <row r="76" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" ht="14.25" customHeight="1">
       <c r="C76" s="3" t="s">
         <v>1103</v>
       </c>
@@ -7961,7 +8012,7 @@
       <c r="AP76" s="63"/>
       <c r="AQ76" s="63"/>
     </row>
-    <row r="77" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" ht="14.25" customHeight="1">
       <c r="B77" s="7" t="s">
         <v>1107</v>
       </c>
@@ -7979,7 +8030,7 @@
       <c r="AP77" s="63"/>
       <c r="AQ77" s="63"/>
     </row>
-    <row r="78" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" ht="14.25" customHeight="1">
       <c r="B78" s="7" t="s">
         <v>519</v>
       </c>
@@ -7991,7 +8042,7 @@
       <c r="N78" s="43"/>
       <c r="O78" s="43"/>
     </row>
-    <row r="79" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" ht="14.25" customHeight="1">
       <c r="B79" s="7" t="s">
         <v>1117</v>
       </c>
@@ -8003,7 +8054,7 @@
       <c r="N79" s="43"/>
       <c r="O79" s="43"/>
     </row>
-    <row r="80" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" ht="14.25" customHeight="1">
       <c r="B80" s="7" t="s">
         <v>1122</v>
       </c>
@@ -8015,936 +8066,936 @@
       <c r="N80" s="43"/>
       <c r="O80" s="43"/>
     </row>
-    <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" ht="14.25" customHeight="1">
       <c r="B81" s="7" t="s">
         <v>1126</v>
       </c>
       <c r="C81" s="56"/>
       <c r="D81" s="56"/>
     </row>
-    <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" ht="14.25" customHeight="1">
       <c r="B82" s="7" t="s">
         <v>1127</v>
       </c>
       <c r="C82" s="56"/>
       <c r="D82" s="56"/>
     </row>
-    <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="84" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="85" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="86" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="87" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="88" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="89" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="90" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="91" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="92" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="93" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="94" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="95" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="96" spans="2:4" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8960,71 +9011,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AM56" sqref="AM56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" style="72" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="72" customWidth="1"/>
-    <col min="13" max="13" width="26.5" style="73" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="72" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="73" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" style="71" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="71" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" style="72" customWidth="1"/>
-    <col min="17" max="17" width="38.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" style="72" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="71" customWidth="1"/>
-    <col min="22" max="22" width="20.5" style="71" customWidth="1"/>
-    <col min="23" max="23" width="28.83203125" style="71" customWidth="1"/>
-    <col min="24" max="24" width="22.33203125" style="71" customWidth="1"/>
-    <col min="25" max="25" width="5.1640625" style="72" customWidth="1"/>
-    <col min="26" max="26" width="29.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="51.5" style="73" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="49.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.1640625" style="72" customWidth="1"/>
-    <col min="31" max="31" width="24.33203125" style="71" customWidth="1"/>
-    <col min="32" max="32" width="29.1640625" style="71" customWidth="1"/>
-    <col min="33" max="33" width="22.1640625" style="71" customWidth="1"/>
-    <col min="34" max="34" width="22.5" style="71" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" style="71" customWidth="1"/>
-    <col min="36" max="36" width="27.6640625" style="71" customWidth="1"/>
-    <col min="37" max="37" width="5.1640625" style="72" customWidth="1"/>
-    <col min="38" max="38" width="19.1640625" style="71" customWidth="1"/>
-    <col min="39" max="39" width="25.5" style="71" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="72" customWidth="1"/>
+    <col min="17" max="17" width="38.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="72" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="71" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" style="71" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" style="71" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" style="71" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" style="72" customWidth="1"/>
+    <col min="26" max="26" width="29.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="51.42578125" style="73" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" style="71" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="49.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="72" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" style="71" customWidth="1"/>
+    <col min="32" max="32" width="29.140625" style="71" customWidth="1"/>
+    <col min="33" max="33" width="22.140625" style="71" customWidth="1"/>
+    <col min="34" max="34" width="22.42578125" style="71" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" style="71" customWidth="1"/>
+    <col min="36" max="36" width="27.7109375" style="71" customWidth="1"/>
+    <col min="37" max="37" width="5.140625" style="72" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" style="71" customWidth="1"/>
+    <col min="39" max="39" width="25.42578125" style="71" customWidth="1"/>
     <col min="40" max="40" width="13" style="71" customWidth="1"/>
-    <col min="41" max="41" width="26.5" style="71" customWidth="1"/>
-    <col min="42" max="42" width="5.1640625" style="72" customWidth="1"/>
-    <col min="43" max="43" width="25.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="37.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.5" style="71" customWidth="1"/>
-    <col min="46" max="46" width="20.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.1640625" style="72" customWidth="1"/>
-    <col min="48" max="48" width="28.1640625" style="71" customWidth="1"/>
+    <col min="41" max="41" width="26.42578125" style="71" customWidth="1"/>
+    <col min="42" max="42" width="5.140625" style="72" customWidth="1"/>
+    <col min="43" max="43" width="25.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="37.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.42578125" style="71" customWidth="1"/>
+    <col min="46" max="46" width="20.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.140625" style="72" customWidth="1"/>
+    <col min="48" max="48" width="28.140625" style="71" customWidth="1"/>
     <col min="49" max="49" width="24" style="71" customWidth="1"/>
-    <col min="50" max="50" width="32.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.5" style="71" customWidth="1"/>
-    <col min="52" max="52" width="5.1640625" style="72" customWidth="1"/>
-    <col min="53" max="53" width="28.83203125" style="71" customWidth="1"/>
-    <col min="54" max="54" width="27.33203125" style="71" customWidth="1"/>
-    <col min="55" max="55" width="28.5" style="71" customWidth="1"/>
-    <col min="56" max="16384" width="14.5" style="71"/>
+    <col min="50" max="50" width="32.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.42578125" style="71" customWidth="1"/>
+    <col min="52" max="52" width="5.140625" style="72" customWidth="1"/>
+    <col min="53" max="53" width="28.85546875" style="71" customWidth="1"/>
+    <col min="54" max="54" width="27.28515625" style="71" customWidth="1"/>
+    <col min="55" max="55" width="28.42578125" style="71" customWidth="1"/>
+    <col min="56" max="16384" width="14.42578125" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:54" ht="14.25" customHeight="1">
       <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
@@ -9101,7 +9152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:54" ht="14.25" customHeight="1">
       <c r="B2" s="76" t="s">
         <v>27</v>
       </c>
@@ -9188,7 +9239,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:54" ht="14.25" customHeight="1">
       <c r="B3" s="76" t="s">
         <v>61</v>
       </c>
@@ -9269,7 +9320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:54" ht="14.25" customHeight="1">
       <c r="B4" s="76" t="s">
         <v>90</v>
       </c>
@@ -9343,7 +9394,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:54" ht="14.25" customHeight="1">
       <c r="B5" s="76" t="s">
         <v>116</v>
       </c>
@@ -9396,7 +9447,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:54" ht="14.25" customHeight="1">
       <c r="B6" s="76" t="s">
         <v>132</v>
       </c>
@@ -9474,7 +9525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:54" ht="14.25" customHeight="1">
       <c r="B7" s="76" t="s">
         <v>146</v>
       </c>
@@ -9564,7 +9615,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:54" ht="14.25" customHeight="1">
       <c r="B8" s="76" t="s">
         <v>171</v>
       </c>
@@ -9642,7 +9693,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:54" ht="14.25" customHeight="1">
       <c r="B9" s="76" t="s">
         <v>185</v>
       </c>
@@ -9711,7 +9762,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:54" ht="14.25" customHeight="1">
       <c r="B10" s="76" t="s">
         <v>200</v>
       </c>
@@ -9783,7 +9834,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="11" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:54" ht="14.25" customHeight="1">
       <c r="B11" s="76" t="s">
         <v>210</v>
       </c>
@@ -9868,7 +9919,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:54" ht="14.25" customHeight="1">
       <c r="H12" s="76" t="s">
         <v>243</v>
       </c>
@@ -9942,7 +9993,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="13" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:54" ht="14.25" customHeight="1">
       <c r="B13" s="113" t="s">
         <v>242</v>
       </c>
@@ -10015,7 +10066,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="14" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:54" ht="14.25" customHeight="1">
       <c r="B14" s="105" t="s">
         <v>261</v>
       </c>
@@ -10087,7 +10138,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:54" ht="14.25" customHeight="1">
       <c r="B15" s="105" t="s">
         <v>280</v>
       </c>
@@ -10137,7 +10188,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="16" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:54" ht="14.25" customHeight="1">
       <c r="B16" s="105" t="s">
         <v>294</v>
       </c>
@@ -10203,7 +10254,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="17" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:55" ht="14.25" customHeight="1">
       <c r="B17" s="105" t="s">
         <v>316</v>
       </c>
@@ -10265,7 +10316,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="18" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:55" ht="14.25" customHeight="1">
       <c r="H18" s="93" t="s">
         <v>363</v>
       </c>
@@ -10324,7 +10375,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="19" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:55" ht="14.25" customHeight="1">
       <c r="H19" s="95" t="s">
         <v>380</v>
       </c>
@@ -10394,7 +10445,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="20" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:55" ht="14.25" customHeight="1">
       <c r="B20" s="74" t="s">
         <v>376</v>
       </c>
@@ -10462,7 +10513,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="21" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:55" ht="14.25" customHeight="1">
       <c r="B21" s="75" t="s">
         <v>395</v>
       </c>
@@ -10521,7 +10572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:55" ht="14.25" customHeight="1">
       <c r="B22" s="76" t="s">
         <v>274</v>
       </c>
@@ -10591,7 +10642,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="23" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:55" ht="14.25" customHeight="1">
       <c r="B23" s="75" t="s">
         <v>429</v>
       </c>
@@ -10651,7 +10702,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="24" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:55" ht="14.25" customHeight="1">
       <c r="B24" s="75" t="s">
         <v>445</v>
       </c>
@@ -10713,7 +10764,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="25" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:55" ht="14.25" customHeight="1">
       <c r="B25" s="75" t="s">
         <v>455</v>
       </c>
@@ -10766,7 +10817,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="26" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:55" ht="14.25" customHeight="1">
       <c r="H26" s="71"/>
       <c r="J26" s="75" t="s">
         <v>447</v>
@@ -10825,7 +10876,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:55" ht="14.25" customHeight="1">
       <c r="B27" s="74" t="s">
         <v>488</v>
       </c>
@@ -10876,7 +10927,7 @@
       <c r="AW27" s="92"/>
       <c r="AX27" s="92"/>
     </row>
-    <row r="28" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:55" ht="14.25" customHeight="1">
       <c r="B28" s="75" t="s">
         <v>502</v>
       </c>
@@ -10940,7 +10991,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="29" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:55" ht="14.25" customHeight="1">
       <c r="B29" s="75" t="s">
         <v>520</v>
       </c>
@@ -10998,7 +11049,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="30" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:55" ht="14.25" customHeight="1">
       <c r="B30" s="75" t="s">
         <v>538</v>
       </c>
@@ -11050,7 +11101,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:55" ht="14.25" customHeight="1">
       <c r="B31" s="75" t="s">
         <v>550</v>
       </c>
@@ -11118,7 +11169,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="32" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:55" ht="14.25" customHeight="1">
       <c r="B32" s="75" t="s">
         <v>571</v>
       </c>
@@ -11181,7 +11232,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:55" ht="14.25" customHeight="1">
       <c r="B33" s="98" t="s">
         <v>582</v>
       </c>
@@ -11242,7 +11293,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="34" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:55" ht="14.25" customHeight="1">
       <c r="B34" s="74" t="s">
         <v>601</v>
       </c>
@@ -11306,7 +11357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:55" ht="14.25" customHeight="1">
       <c r="B35" s="75" t="s">
         <v>620</v>
       </c>
@@ -11350,7 +11401,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="36" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:55" ht="14.25" customHeight="1">
       <c r="B36" s="75" t="s">
         <v>639</v>
       </c>
@@ -11412,7 +11463,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="37" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:55" ht="14.25" customHeight="1">
       <c r="B37" s="75" t="s">
         <v>663</v>
       </c>
@@ -11475,7 +11526,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="38" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:55" ht="14.25" customHeight="1">
       <c r="B38" s="75" t="s">
         <v>679</v>
       </c>
@@ -11534,7 +11585,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="39" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:55" ht="14.25" customHeight="1">
       <c r="B39" s="75" t="s">
         <v>695</v>
       </c>
@@ -11583,7 +11634,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="40" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:55" ht="14.25" customHeight="1">
       <c r="H40" s="74" t="s">
         <v>720</v>
       </c>
@@ -11642,7 +11693,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="41" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:55" ht="14.25" customHeight="1">
       <c r="B41" s="74" t="s">
         <v>719</v>
       </c>
@@ -11702,7 +11753,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="42" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:55" ht="14.25" customHeight="1">
       <c r="B42" s="75" t="s">
         <v>745</v>
       </c>
@@ -11758,7 +11809,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="43" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:55" ht="14.25" customHeight="1">
       <c r="B43" s="75" t="s">
         <v>765</v>
       </c>
@@ -11818,7 +11869,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="44" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:55" ht="14.25" customHeight="1">
       <c r="B44" s="75" t="s">
         <v>779</v>
       </c>
@@ -11882,7 +11933,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="45" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:55" ht="14.25" customHeight="1">
       <c r="B45" s="75" t="s">
         <v>791</v>
       </c>
@@ -11956,7 +12007,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="46" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:55" ht="14.25" customHeight="1">
       <c r="B46" s="75" t="s">
         <v>807</v>
       </c>
@@ -12013,7 +12064,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="47" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:55" ht="14.25" customHeight="1">
       <c r="G47" s="71"/>
       <c r="H47" s="74" t="s">
         <v>849</v>
@@ -12062,7 +12113,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="48" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:55" ht="14.25" customHeight="1">
       <c r="B48" s="74" t="s">
         <v>837</v>
       </c>
@@ -12136,7 +12187,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="49" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:55" ht="14.25" customHeight="1">
       <c r="B49" s="76" t="s">
         <v>857</v>
       </c>
@@ -12220,7 +12271,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="50" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:55" ht="14.25" customHeight="1">
       <c r="B50" s="76" t="s">
         <v>870</v>
       </c>
@@ -12306,7 +12357,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="51" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:55" ht="14.25" customHeight="1">
       <c r="B51" s="75" t="s">
         <v>891</v>
       </c>
@@ -12392,7 +12443,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="52" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:55" ht="14.25" customHeight="1">
       <c r="G52" s="71"/>
       <c r="H52" s="71"/>
       <c r="J52" s="74" t="s">
@@ -12450,7 +12501,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="53" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:55" ht="14.25" customHeight="1">
       <c r="B53" s="74" t="s">
         <v>910</v>
       </c>
@@ -12504,11 +12555,17 @@
       <c r="AG53" s="77" t="s">
         <v>938</v>
       </c>
+      <c r="AL53" s="71" t="s">
+        <v>1392</v>
+      </c>
+      <c r="AM53" s="71" t="s">
+        <v>1393</v>
+      </c>
       <c r="AQ53" s="75" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="54" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:55" ht="14.25" customHeight="1">
       <c r="B54" s="74" t="s">
         <v>925</v>
       </c>
@@ -12558,6 +12615,12 @@
       <c r="AG54" s="77" t="s">
         <v>958</v>
       </c>
+      <c r="AL54" s="71" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AM54" s="76" t="s">
+        <v>1395</v>
+      </c>
       <c r="AQ54" s="75" t="s">
         <v>961</v>
       </c>
@@ -12571,7 +12634,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:55" ht="14.25" customHeight="1">
       <c r="B55" s="76" t="s">
         <v>965</v>
       </c>
@@ -12619,6 +12682,12 @@
       <c r="AG55" s="77" t="s">
         <v>968</v>
       </c>
+      <c r="AL55" s="71" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AM55" s="76" t="s">
+        <v>1397</v>
+      </c>
       <c r="AQ55" s="75" t="s">
         <v>969</v>
       </c>
@@ -12632,7 +12701,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="56" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:55" ht="14.25" customHeight="1">
       <c r="B56" s="76" t="s">
         <v>965</v>
       </c>
@@ -12679,6 +12748,12 @@
       <c r="AG56" s="77" t="s">
         <v>980</v>
       </c>
+      <c r="AL56" s="71" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AM56" s="76" t="s">
+        <v>1399</v>
+      </c>
       <c r="AQ56" s="75" t="s">
         <v>981</v>
       </c>
@@ -12692,7 +12767,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="57" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:55" ht="14.25" customHeight="1">
       <c r="B57" s="75" t="s">
         <v>966</v>
       </c>
@@ -12727,6 +12802,12 @@
       <c r="AA57" s="77" t="s">
         <v>493</v>
       </c>
+      <c r="AL57" s="71" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AM57" s="76" t="s">
+        <v>1401</v>
+      </c>
       <c r="AQ57" s="75" t="s">
         <v>986</v>
       </c>
@@ -12740,7 +12821,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="58" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:55" ht="14.25" customHeight="1">
       <c r="B58" s="76" t="s">
         <v>965</v>
       </c>
@@ -12785,11 +12866,17 @@
       <c r="AE58" s="74" t="s">
         <v>916</v>
       </c>
+      <c r="AL58" s="71" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AM58" s="76" t="s">
+        <v>1403</v>
+      </c>
       <c r="AQ58" s="75" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="59" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:55" ht="14.25" customHeight="1">
       <c r="B59" s="76" t="s">
         <v>1005</v>
       </c>
@@ -12842,6 +12929,12 @@
       <c r="AF59" s="75" t="s">
         <v>1017</v>
       </c>
+      <c r="AL59" s="71" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AM59" s="76" t="s">
+        <v>424</v>
+      </c>
       <c r="AQ59" s="74" t="s">
         <v>994</v>
       </c>
@@ -12858,7 +12951,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="60" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:55" ht="14.25" customHeight="1">
       <c r="B60" s="75" t="s">
         <v>1007</v>
       </c>
@@ -12907,6 +13000,12 @@
       <c r="AF60" s="75" t="s">
         <v>1034</v>
       </c>
+      <c r="AL60" s="71" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AM60" s="76" t="s">
+        <v>1406</v>
+      </c>
       <c r="AQ60" s="75" t="s">
         <v>961</v>
       </c>
@@ -12923,7 +13022,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="61" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:55" ht="14.25" customHeight="1">
       <c r="B61" s="75" t="s">
         <v>966</v>
       </c>
@@ -12968,6 +13067,12 @@
       <c r="AA61" s="77" t="s">
         <v>556</v>
       </c>
+      <c r="AL61" s="71" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AM61" s="76" t="s">
+        <v>1408</v>
+      </c>
       <c r="AQ61" s="75" t="s">
         <v>1047</v>
       </c>
@@ -12984,7 +13089,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="62" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:55" ht="14.25" customHeight="1">
       <c r="B62" s="76" t="s">
         <v>1007</v>
       </c>
@@ -13049,7 +13154,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="63" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:55" ht="14.25" customHeight="1">
       <c r="B63" s="75" t="s">
         <v>1007</v>
       </c>
@@ -13115,7 +13220,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="64" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:55" ht="14.25" customHeight="1">
       <c r="H64" s="71"/>
       <c r="J64" s="77" t="s">
         <v>954</v>
@@ -13187,7 +13292,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="65" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:45" ht="14.25" customHeight="1">
       <c r="B65" s="74" t="s">
         <v>1036</v>
       </c>
@@ -13252,7 +13357,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="66" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:45" ht="14.25" customHeight="1">
       <c r="B66" s="77" t="s">
         <v>1045</v>
       </c>
@@ -13318,7 +13423,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="67" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:45" ht="14.25" customHeight="1">
       <c r="B67" s="77" t="s">
         <v>1050</v>
       </c>
@@ -13385,7 +13490,7 @@
       </c>
       <c r="AS67" s="74"/>
     </row>
-    <row r="68" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:45" ht="14.25" customHeight="1">
       <c r="B68" s="77" t="s">
         <v>1064</v>
       </c>
@@ -13447,7 +13552,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="69" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:45" ht="14.25" customHeight="1">
       <c r="B69" s="77" t="s">
         <v>1078</v>
       </c>
@@ -13501,7 +13606,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:45" ht="14.25" customHeight="1">
       <c r="H70" s="71"/>
       <c r="J70" s="74" t="s">
         <v>1282</v>
@@ -13537,7 +13642,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="71" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:45" ht="14.25" customHeight="1">
       <c r="B71" s="83" t="s">
         <v>1083</v>
       </c>
@@ -13572,7 +13677,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="72" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:45" ht="14.25" customHeight="1">
       <c r="B72" s="77">
         <v>0</v>
       </c>
@@ -13611,7 +13716,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="73" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:45" ht="14.25" customHeight="1">
       <c r="B73" s="77">
         <v>1</v>
       </c>
@@ -13656,7 +13761,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="74" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:45" ht="14.25" customHeight="1">
       <c r="B74" s="77">
         <v>2</v>
       </c>
@@ -13704,7 +13809,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="75" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:45" ht="14.25" customHeight="1">
       <c r="J75" s="77" t="s">
         <v>1302</v>
       </c>
@@ -13738,7 +13843,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:45" ht="14.25" customHeight="1">
       <c r="C76" s="74" t="s">
         <v>1103</v>
       </c>
@@ -13780,7 +13885,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="77" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:45" ht="14.25" customHeight="1">
       <c r="B77" s="87" t="s">
         <v>1107</v>
       </c>
@@ -13814,7 +13919,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="78" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:45" ht="14.25" customHeight="1">
       <c r="B78" s="87" t="s">
         <v>1126</v>
       </c>
@@ -13851,7 +13956,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="79" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:45" ht="14.25" customHeight="1">
       <c r="B79" s="87" t="s">
         <v>1117</v>
       </c>
@@ -13897,7 +14002,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="80" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:45" ht="14.25" customHeight="1">
       <c r="B80" s="87" t="s">
         <v>1230</v>
       </c>
@@ -13946,7 +14051,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="81" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:31" ht="14.25" customHeight="1">
       <c r="B81" s="87" t="s">
         <v>1127</v>
       </c>
@@ -13987,7 +14092,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="82" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:31" ht="14.25" customHeight="1">
       <c r="B82" s="87" t="s">
         <v>1235</v>
       </c>
@@ -14037,7 +14142,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:31" ht="14.25" customHeight="1">
       <c r="B83" s="87" t="s">
         <v>1243</v>
       </c>
@@ -14080,7 +14185,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:31" ht="14.25" customHeight="1">
       <c r="J84" s="71"/>
       <c r="K84" s="76" t="s">
         <v>1326</v>
@@ -14109,7 +14214,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="85" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:31" ht="14.25" customHeight="1">
       <c r="B85" s="74" t="s">
         <v>1257</v>
       </c>
@@ -14137,7 +14242,7 @@
       </c>
       <c r="AA85" s="71"/>
     </row>
-    <row r="86" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:31" ht="14.25" customHeight="1">
       <c r="B86" s="77" t="s">
         <v>1264</v>
       </c>
@@ -14177,7 +14282,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="87" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:31" ht="14.25" customHeight="1">
       <c r="B87" s="77" t="s">
         <v>1272</v>
       </c>
@@ -14226,7 +14331,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="88" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:31" ht="14.25" customHeight="1">
       <c r="B88" s="77" t="s">
         <v>1280</v>
       </c>
@@ -14266,7 +14371,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="89" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:31" ht="14.25" customHeight="1">
       <c r="B89" s="77" t="s">
         <v>1286</v>
       </c>
@@ -14310,7 +14415,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="90" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:31" ht="14.25" customHeight="1">
       <c r="B90" s="77" t="s">
         <v>1290</v>
       </c>
@@ -14350,7 +14455,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="91" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:31" ht="14.25" customHeight="1">
       <c r="B91" s="77" t="s">
         <v>1294</v>
       </c>
@@ -14385,7 +14490,7 @@
       </c>
       <c r="AA91" s="71"/>
     </row>
-    <row r="92" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:31" ht="14.25" customHeight="1">
       <c r="B92" s="77" t="s">
         <v>934</v>
       </c>
@@ -14431,7 +14536,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="93" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:31" ht="14.25" customHeight="1">
       <c r="B93" s="77" t="s">
         <v>953</v>
       </c>
@@ -14475,7 +14580,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="94" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:31" ht="14.25" customHeight="1">
       <c r="B94" s="77" t="s">
         <v>945</v>
       </c>
@@ -14501,7 +14606,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="95" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:31" ht="14.25" customHeight="1">
       <c r="B95" s="77" t="s">
         <v>1307</v>
       </c>
@@ -14524,7 +14629,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="96" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:31" ht="14.25" customHeight="1">
       <c r="B96" s="77" t="s">
         <v>1308</v>
       </c>
@@ -14532,7 +14637,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="14.25" customHeight="1">
       <c r="B97" s="77" t="s">
         <v>1311</v>
       </c>
@@ -14540,7 +14645,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="14.25" customHeight="1">
       <c r="B98" s="77" t="s">
         <v>1315</v>
       </c>
@@ -14548,7 +14653,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="14.25" customHeight="1">
       <c r="B99" s="77" t="s">
         <v>1318</v>
       </c>
@@ -14556,7 +14661,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="14.25" customHeight="1">
       <c r="B100" s="77" t="s">
         <v>1321</v>
       </c>
@@ -14564,948 +14669,948 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="14.25" customHeight="1">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
     </row>
-    <row r="102" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="14.25" customHeight="1">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
     </row>
-    <row r="103" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="14.25" customHeight="1">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
     </row>
-    <row r="104" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="14.25" customHeight="1">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
     </row>
-    <row r="105" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="14.25" customHeight="1">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
     </row>
-    <row r="106" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="14.25" customHeight="1">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
     </row>
-    <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="14.25" customHeight="1">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
     </row>
-    <row r="108" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="14.25" customHeight="1">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
     </row>
-    <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="14.25" customHeight="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
     </row>
-    <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qdd/Google Drive/git/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\admin\git\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4F993E-3261-8942-8D00-9D98F8D01BEB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21580" yWindow="840" windowWidth="26620" windowHeight="19960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21585" yWindow="840" windowWidth="26625" windowHeight="19965" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1402">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -4245,11 +4244,32 @@
   <si>
     <t>freezer</t>
   </si>
+  <si>
+    <t>HTTP codes</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>request fail, client-side issue</t>
+  </si>
+  <si>
+    <t>unauthorized, client not authenticated</t>
+  </si>
+  <si>
+    <t>forbidden, access not granted based on credentials</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4841,74 +4861,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AR90" sqref="AR90"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AW62" sqref="AW62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="26.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="38.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="28.83203125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.33203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="5.1640625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="51.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="49.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.1640625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="24.33203125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="29.1640625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="22.1640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.5" style="3" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="27.6640625" style="3" customWidth="1"/>
-    <col min="37" max="37" width="5.1640625" style="4" customWidth="1"/>
-    <col min="38" max="38" width="19.1640625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="25.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="38.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="28.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="51.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="49.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="24.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="29.140625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="22.140625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.42578125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="27.7109375" style="3" customWidth="1"/>
+    <col min="37" max="37" width="5.140625" style="4" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="25.42578125" style="3" customWidth="1"/>
     <col min="40" max="40" width="13" style="3" customWidth="1"/>
-    <col min="41" max="41" width="26.5" style="3" customWidth="1"/>
-    <col min="42" max="42" width="5.1640625" style="4" customWidth="1"/>
-    <col min="43" max="43" width="25.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26.5" style="3" customWidth="1"/>
-    <col min="46" max="46" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.1640625" style="4" customWidth="1"/>
-    <col min="48" max="48" width="28.1640625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="26.42578125" style="3" customWidth="1"/>
+    <col min="42" max="42" width="5.140625" style="4" customWidth="1"/>
+    <col min="43" max="43" width="25.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="26.42578125" style="3" customWidth="1"/>
+    <col min="46" max="46" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.140625" style="4" customWidth="1"/>
+    <col min="48" max="48" width="28.140625" style="3" customWidth="1"/>
     <col min="49" max="49" width="24" style="3" customWidth="1"/>
-    <col min="50" max="50" width="32.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.5" style="3" customWidth="1"/>
-    <col min="52" max="52" width="5.1640625" style="4" customWidth="1"/>
-    <col min="53" max="53" width="28.83203125" style="3" customWidth="1"/>
-    <col min="54" max="54" width="27.33203125" style="3" customWidth="1"/>
-    <col min="55" max="55" width="28.5" style="3" customWidth="1"/>
-    <col min="56" max="16384" width="14.5" style="3"/>
+    <col min="50" max="50" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.42578125" style="3" customWidth="1"/>
+    <col min="52" max="52" width="5.140625" style="4" customWidth="1"/>
+    <col min="53" max="53" width="28.85546875" style="3" customWidth="1"/>
+    <col min="54" max="54" width="27.28515625" style="3" customWidth="1"/>
+    <col min="55" max="55" width="28.42578125" style="3" customWidth="1"/>
+    <col min="56" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4985,7 +5005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
@@ -5072,7 +5092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>59</v>
       </c>
@@ -5153,7 +5173,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>88</v>
       </c>
@@ -5227,7 +5247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>113</v>
       </c>
@@ -5280,7 +5300,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>129</v>
       </c>
@@ -5358,7 +5378,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>143</v>
       </c>
@@ -5448,7 +5468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>168</v>
       </c>
@@ -5526,7 +5546,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>182</v>
       </c>
@@ -5595,7 +5615,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>197</v>
       </c>
@@ -5667,7 +5687,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>207</v>
       </c>
@@ -5752,7 +5772,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="12" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
         <v>239</v>
       </c>
@@ -5826,7 +5846,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="13" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>238</v>
       </c>
@@ -5899,7 +5919,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="14" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
         <v>256</v>
       </c>
@@ -5971,7 +5991,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="15" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
         <v>274</v>
       </c>
@@ -6021,7 +6041,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="16" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>287</v>
       </c>
@@ -6087,7 +6107,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="17" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>309</v>
       </c>
@@ -6149,7 +6169,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="18" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="25" t="s">
         <v>356</v>
       </c>
@@ -6208,7 +6228,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="19" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="27" t="s">
         <v>373</v>
       </c>
@@ -6278,7 +6298,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="20" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>369</v>
       </c>
@@ -6346,7 +6366,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="21" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>387</v>
       </c>
@@ -6405,7 +6425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>268</v>
       </c>
@@ -6475,7 +6495,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="23" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>421</v>
       </c>
@@ -6535,7 +6555,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>437</v>
       </c>
@@ -6597,7 +6617,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="25" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>447</v>
       </c>
@@ -6650,7 +6670,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
       <c r="J26" s="7" t="s">
         <v>439</v>
@@ -6709,7 +6729,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="27" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>480</v>
       </c>
@@ -6760,7 +6780,7 @@
       <c r="AW27" s="24"/>
       <c r="AX27" s="24"/>
     </row>
-    <row r="28" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>494</v>
       </c>
@@ -6824,7 +6844,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="29" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>512</v>
       </c>
@@ -6882,7 +6902,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="30" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>530</v>
       </c>
@@ -6934,7 +6954,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="31" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>542</v>
       </c>
@@ -7002,7 +7022,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="32" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>561</v>
       </c>
@@ -7065,7 +7085,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="30" t="s">
         <v>571</v>
       </c>
@@ -7126,7 +7146,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="34" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>589</v>
       </c>
@@ -7190,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>608</v>
       </c>
@@ -7234,7 +7254,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="36" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>626</v>
       </c>
@@ -7296,7 +7316,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="37" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>648</v>
       </c>
@@ -7359,7 +7379,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="38" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>664</v>
       </c>
@@ -7418,7 +7438,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="39" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>680</v>
       </c>
@@ -7467,7 +7487,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="40" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" s="6" t="s">
         <v>705</v>
       </c>
@@ -7526,7 +7546,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="41" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>704</v>
       </c>
@@ -7586,7 +7606,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="42" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>730</v>
       </c>
@@ -7642,7 +7662,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="43" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>750</v>
       </c>
@@ -7702,7 +7722,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="44" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>764</v>
       </c>
@@ -7766,7 +7786,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="45" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>776</v>
       </c>
@@ -7840,7 +7860,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="46" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>791</v>
       </c>
@@ -7897,7 +7917,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="47" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="3"/>
       <c r="H47" s="6" t="s">
         <v>831</v>
@@ -7946,7 +7966,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>819</v>
       </c>
@@ -8020,7 +8040,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="49" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>838</v>
       </c>
@@ -8104,7 +8124,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="50" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>850</v>
       </c>
@@ -8190,7 +8210,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="51" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>870</v>
       </c>
@@ -8276,7 +8296,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="52" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="J52" s="6" t="s">
@@ -8334,7 +8354,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="53" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>888</v>
       </c>
@@ -8392,7 +8412,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="54" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>903</v>
       </c>
@@ -8455,7 +8475,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="55" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>943</v>
       </c>
@@ -8516,7 +8536,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="56" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>943</v>
       </c>
@@ -8576,7 +8596,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="57" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>944</v>
       </c>
@@ -8624,7 +8644,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="58" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>943</v>
       </c>
@@ -8673,7 +8693,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="59" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>983</v>
       </c>
@@ -8742,7 +8762,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="60" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
         <v>985</v>
       </c>
@@ -8807,7 +8827,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="61" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>944</v>
       </c>
@@ -8868,7 +8888,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="62" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>985</v>
       </c>
@@ -8933,7 +8953,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="63" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>985</v>
       </c>
@@ -8999,7 +9019,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="64" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H64" s="3"/>
       <c r="J64" s="9" t="s">
         <v>932</v>
@@ -9071,7 +9091,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="65" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>1014</v>
       </c>
@@ -9136,7 +9156,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="66" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>1023</v>
       </c>
@@ -9201,8 +9221,11 @@
       <c r="AQ66" s="7" t="s">
         <v>1113</v>
       </c>
+      <c r="AV66" s="3" t="s">
+        <v>1395</v>
+      </c>
     </row>
-    <row r="67" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>1028</v>
       </c>
@@ -9268,8 +9291,14 @@
         <v>939</v>
       </c>
       <c r="AS67" s="6"/>
+      <c r="AV67" s="3">
+        <v>200</v>
+      </c>
+      <c r="AW67" s="3" t="s">
+        <v>1396</v>
+      </c>
     </row>
-    <row r="68" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>1040</v>
       </c>
@@ -9330,8 +9359,14 @@
       <c r="AQ68" s="7" t="s">
         <v>1140</v>
       </c>
+      <c r="AV68" s="3">
+        <v>201</v>
+      </c>
+      <c r="AW68" s="3" t="s">
+        <v>1397</v>
+      </c>
     </row>
-    <row r="69" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>1054</v>
       </c>
@@ -9384,8 +9419,14 @@
       <c r="AC69" s="8" t="s">
         <v>226</v>
       </c>
+      <c r="AV69" s="3">
+        <v>400</v>
+      </c>
+      <c r="AW69" s="3" t="s">
+        <v>1398</v>
+      </c>
     </row>
-    <row r="70" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H70" s="3"/>
       <c r="J70" s="6" t="s">
         <v>1256</v>
@@ -9423,8 +9464,14 @@
       <c r="AQ70" s="3" t="s">
         <v>1369</v>
       </c>
+      <c r="AV70" s="3">
+        <v>401</v>
+      </c>
+      <c r="AW70" s="3" t="s">
+        <v>1399</v>
+      </c>
     </row>
-    <row r="71" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>1059</v>
       </c>
@@ -9464,8 +9511,14 @@
       <c r="AR71" s="7" t="s">
         <v>947</v>
       </c>
+      <c r="AV71" s="3">
+        <v>403</v>
+      </c>
+      <c r="AW71" s="3" t="s">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="72" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9">
         <v>0</v>
       </c>
@@ -9509,8 +9562,14 @@
       <c r="AR72" s="7" t="s">
         <v>1371</v>
       </c>
+      <c r="AV72" s="3">
+        <v>404</v>
+      </c>
+      <c r="AW72" s="3" t="s">
+        <v>1401</v>
+      </c>
     </row>
-    <row r="73" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9">
         <v>1</v>
       </c>
@@ -9561,7 +9620,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="74" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9">
         <v>2</v>
       </c>
@@ -9615,7 +9674,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="75" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J75" s="9" t="s">
         <v>1276</v>
       </c>
@@ -9655,7 +9714,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="76" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
         <v>1078</v>
       </c>
@@ -9703,7 +9762,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="77" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="19" t="s">
         <v>1082</v>
       </c>
@@ -9743,7 +9802,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="78" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
         <v>1100</v>
       </c>
@@ -9786,7 +9845,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="79" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
         <v>1092</v>
       </c>
@@ -9838,7 +9897,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="80" spans="2:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
         <v>1204</v>
       </c>
@@ -9893,7 +9952,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="81" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="19" t="s">
         <v>1101</v>
       </c>
@@ -9940,7 +9999,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="82" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
         <v>1209</v>
       </c>
@@ -9996,7 +10055,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="83" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="19" t="s">
         <v>1217</v>
       </c>
@@ -10045,7 +10104,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="84" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J84" s="3"/>
       <c r="K84" s="8" t="s">
         <v>1300</v>
@@ -10083,7 +10142,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="85" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>1231</v>
       </c>
@@ -10123,7 +10182,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="86" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>1238</v>
       </c>
@@ -10169,7 +10228,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="87" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
         <v>1246</v>
       </c>
@@ -10218,7 +10277,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="88" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>1254</v>
       </c>
@@ -10258,7 +10317,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="89" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
         <v>1260</v>
       </c>
@@ -10302,7 +10361,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="90" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>1264</v>
       </c>
@@ -10342,7 +10401,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>1268</v>
       </c>
@@ -10377,7 +10436,7 @@
       </c>
       <c r="AA91" s="3"/>
     </row>
-    <row r="92" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
         <v>912</v>
       </c>
@@ -10423,7 +10482,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="93" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>931</v>
       </c>
@@ -10467,7 +10526,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="94" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>923</v>
       </c>
@@ -10493,7 +10552,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="95" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
         <v>1281</v>
       </c>
@@ -10516,7 +10575,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="96" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
         <v>1282</v>
       </c>
@@ -10524,7 +10583,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
         <v>1285</v>
       </c>
@@ -10532,7 +10591,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>1289</v>
       </c>
@@ -10540,7 +10599,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
         <v>1292</v>
       </c>
@@ -10548,7 +10607,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
         <v>1295</v>
       </c>
@@ -10556,948 +10615,948 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
     </row>
-    <row r="102" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
     </row>
-    <row r="103" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
     </row>
-    <row r="104" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
     </row>
-    <row r="105" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
     </row>
-    <row r="106" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
     </row>
-    <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
     </row>
-    <row r="108" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
     </row>
-    <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
     </row>
-    <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -15,16 +15,11 @@
     <sheet name="answers" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1425">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -4264,6 +4259,75 @@
   </si>
   <si>
     <t>not found</t>
+  </si>
+  <si>
+    <t>pim snooping</t>
+  </si>
+  <si>
+    <t>igmp snooping</t>
+  </si>
+  <si>
+    <t>requires the other be enabled</t>
+  </si>
+  <si>
+    <t>default setting</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>supports ipv6</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>NETCONF</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>OIDs (object identifier)</t>
+  </si>
+  <si>
+    <t>Paths</t>
+  </si>
+  <si>
+    <t>Data Models</t>
+  </si>
+  <si>
+    <t>Defined in MIBs</t>
+  </si>
+  <si>
+    <t>YANG Core Models</t>
+  </si>
+  <si>
+    <t>Data Modeling Language</t>
+  </si>
+  <si>
+    <t>SMI (Structure of Management Inform)</t>
+  </si>
+  <si>
+    <t>YANG</t>
+  </si>
+  <si>
+    <t>Management Operations</t>
+  </si>
+  <si>
+    <t>Encoding</t>
+  </si>
+  <si>
+    <t>BER (Bit Error Rate)</t>
+  </si>
+  <si>
+    <t>XML, JSON</t>
+  </si>
+  <si>
+    <t>Transport Stack</t>
+  </si>
+  <si>
+    <t>SSH/TCP</t>
   </si>
 </sst>
 </file>
@@ -4864,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AW62" sqref="AW62"/>
+    <sheetView tabSelected="1" topLeftCell="AS57" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AV74" sqref="AV74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9091,7 +9155,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="65" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>1014</v>
       </c>
@@ -9156,7 +9220,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="66" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>1023</v>
       </c>
@@ -9221,11 +9285,11 @@
       <c r="AQ66" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="AV66" s="3" t="s">
+      <c r="AW66" s="1" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="67" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>1028</v>
       </c>
@@ -9294,11 +9358,11 @@
       <c r="AV67" s="3">
         <v>200</v>
       </c>
-      <c r="AW67" s="3" t="s">
+      <c r="AW67" s="39" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="68" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>1040</v>
       </c>
@@ -9362,11 +9426,11 @@
       <c r="AV68" s="3">
         <v>201</v>
       </c>
-      <c r="AW68" s="3" t="s">
+      <c r="AW68" s="39" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="69" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>1054</v>
       </c>
@@ -9422,11 +9486,11 @@
       <c r="AV69" s="3">
         <v>400</v>
       </c>
-      <c r="AW69" s="3" t="s">
+      <c r="AW69" s="39" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="70" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H70" s="3"/>
       <c r="J70" s="6" t="s">
         <v>1256</v>
@@ -9467,11 +9531,11 @@
       <c r="AV70" s="3">
         <v>401</v>
       </c>
-      <c r="AW70" s="3" t="s">
+      <c r="AW70" s="39" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="71" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>1059</v>
       </c>
@@ -9514,11 +9578,11 @@
       <c r="AV71" s="3">
         <v>403</v>
       </c>
-      <c r="AW71" s="3" t="s">
+      <c r="AW71" s="39" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="72" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9">
         <v>0</v>
       </c>
@@ -9565,11 +9629,11 @@
       <c r="AV72" s="3">
         <v>404</v>
       </c>
-      <c r="AW72" s="3" t="s">
+      <c r="AW72" s="39" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="73" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9">
         <v>1</v>
       </c>
@@ -9620,7 +9684,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="74" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9">
         <v>2</v>
       </c>
@@ -9673,8 +9737,14 @@
       <c r="AR74" s="7" t="s">
         <v>959</v>
       </c>
+      <c r="AW74" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AX74" s="1" t="s">
+        <v>1409</v>
+      </c>
     </row>
-    <row r="75" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J75" s="9" t="s">
         <v>1276</v>
       </c>
@@ -9713,8 +9783,17 @@
       <c r="AR75" s="7" t="s">
         <v>1376</v>
       </c>
+      <c r="AV75" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AW75" s="39" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AX75" s="39" t="s">
+        <v>1412</v>
+      </c>
     </row>
-    <row r="76" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
         <v>1078</v>
       </c>
@@ -9761,8 +9840,17 @@
       <c r="AR76" s="7" t="s">
         <v>867</v>
       </c>
+      <c r="AV76" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AW76" s="39" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AX76" s="39" t="s">
+        <v>1415</v>
+      </c>
     </row>
-    <row r="77" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="19" t="s">
         <v>1082</v>
       </c>
@@ -9801,8 +9889,17 @@
       <c r="AR77" s="7" t="s">
         <v>964</v>
       </c>
+      <c r="AV77" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AW77" s="39" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AX77" s="39" t="s">
+        <v>1418</v>
+      </c>
     </row>
-    <row r="78" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
         <v>1100</v>
       </c>
@@ -9844,8 +9941,17 @@
       <c r="AR78" s="7" t="s">
         <v>880</v>
       </c>
+      <c r="AV78" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AW78" s="39" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AX78" s="39" t="s">
+        <v>1409</v>
+      </c>
     </row>
-    <row r="79" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
         <v>1092</v>
       </c>
@@ -9896,8 +10002,17 @@
       <c r="AR79" s="7" t="s">
         <v>1381</v>
       </c>
+      <c r="AV79" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AW79" s="39" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AX79" s="39" t="s">
+        <v>1422</v>
+      </c>
     </row>
-    <row r="80" spans="2:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
         <v>1204</v>
       </c>
@@ -9950,6 +10065,15 @@
       </c>
       <c r="AR80" s="7" t="s">
         <v>1382</v>
+      </c>
+      <c r="AV80" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AW80" s="39" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AX80" s="39" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="81" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10276,6 +10400,12 @@
       <c r="AC87" s="7">
         <v>2029</v>
       </c>
+      <c r="AF87" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AG87" s="1" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="88" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
@@ -10316,6 +10446,15 @@
       <c r="AC88" s="7">
         <v>4096</v>
       </c>
+      <c r="AE88" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AF88" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG88" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="89" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
@@ -10360,6 +10499,15 @@
       <c r="AC89" s="16" t="s">
         <v>956</v>
       </c>
+      <c r="AE89" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AF89" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AG89" s="7" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="90" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
@@ -10399,6 +10547,15 @@
       </c>
       <c r="AC90" s="16" t="s">
         <v>418</v>
+      </c>
+      <c r="AE90" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AF90" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG90" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11560,10 +11717,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/written-exam-memory-drills.xlsx
+++ b/written-exam-memory-drills.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1434">
   <si>
     <t>bgp best-path</t>
   </si>
@@ -2526,9 +2526,6 @@
     <t>port duplex</t>
   </si>
   <si>
-    <t>better licensing (services/base)</t>
-  </si>
-  <si>
     <t>removed from stack</t>
   </si>
   <si>
@@ -2614,9 +2611,6 @@
   </si>
   <si>
     <t>third-party devices</t>
-  </si>
-  <si>
-    <t>uptime</t>
   </si>
   <si>
     <t>fails</t>
@@ -4328,6 +4322,39 @@
   </si>
   <si>
     <t>SSH/TCP</t>
+  </si>
+  <si>
+    <t>current master</t>
+  </si>
+  <si>
+    <t>highest feature set priority (services, crypto, base)</t>
+  </si>
+  <si>
+    <t>shortest start-up time</t>
+  </si>
+  <si>
+    <t>mlp bundle naming</t>
+  </si>
+  <si>
+    <t>authenticated</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>each client has a unique username</t>
+  </si>
+  <si>
+    <t>endpoint discriminator used</t>
+  </si>
+  <si>
+    <t>none or fallback</t>
+  </si>
+  <si>
+    <t>caller id</t>
+  </si>
+  <si>
+    <t>authenticated and username</t>
   </si>
 </sst>
 </file>
@@ -4928,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS57" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AV74" sqref="AV74"/>
+    <sheetView tabSelected="1" topLeftCell="AI45" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AL53" sqref="AL53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5007,7 +5034,7 @@
         <v>258</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>3</v>
@@ -5269,7 +5296,7 @@
         <v>92</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>56</v>
@@ -5815,7 +5842,7 @@
         <v>234</v>
       </c>
       <c r="AQ11" s="6" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="AR11" s="6" t="s">
         <v>96</v>
@@ -5891,11 +5918,11 @@
         <v>254</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="AV12" s="19" t="s">
         <v>236</v>
@@ -6503,7 +6530,7 @@
         <v>356</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>388</v>
@@ -6573,7 +6600,7 @@
         <v>389</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q23" s="9" t="s">
         <v>403</v>
@@ -6633,7 +6660,7 @@
         <v>404</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>418</v>
@@ -6655,7 +6682,7 @@
         <v>381</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="26" t="s">
@@ -6695,7 +6722,7 @@
         <v>422</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>434</v>
@@ -6740,7 +6767,7 @@
         <v>439</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>449</v>
@@ -6790,7 +6817,7 @@
         <v>479</v>
       </c>
       <c r="BA26" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="27" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6804,7 +6831,7 @@
         <v>450</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>468</v>
@@ -6858,7 +6885,7 @@
         <v>464</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>482</v>
@@ -6899,13 +6926,13 @@
         <v>511</v>
       </c>
       <c r="BA28" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="BB28" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="BB28" s="6" t="s">
+      <c r="BC28" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="BC28" s="6" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="29" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6919,7 +6946,7 @@
         <v>533</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>498</v>
@@ -6957,13 +6984,13 @@
         <v>528</v>
       </c>
       <c r="BA29" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="BB29" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="BC29" s="7" t="s">
         <v>883</v>
-      </c>
-      <c r="BB29" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="BC29" s="7" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="30" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7009,13 +7036,13 @@
         <v>541</v>
       </c>
       <c r="BA30" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="BB30" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="BB30" s="7" t="s">
+      <c r="BC30" s="7" t="s">
         <v>902</v>
-      </c>
-      <c r="BC30" s="7" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="31" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7035,10 +7062,10 @@
         <v>516</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="U31" s="6" t="s">
         <v>548</v>
@@ -7077,13 +7104,13 @@
         <v>560</v>
       </c>
       <c r="BA31" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="BB31" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="BC31" s="7" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="32" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7103,25 +7130,25 @@
         <v>130</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>538</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="U32" s="8" t="s">
         <v>572</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="AA32" s="7" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="AE32" s="8" t="s">
         <v>578</v>
@@ -7161,10 +7188,10 @@
         <v>272</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>558</v>
@@ -7173,16 +7200,16 @@
         <v>559</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>587</v>
       </c>
       <c r="Z33" s="5" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="AE33" s="7" t="s">
         <v>592</v>
@@ -7207,7 +7234,7 @@
       <c r="AX33" s="20"/>
       <c r="BA33" s="9"/>
       <c r="BB33" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="34" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7224,10 +7251,10 @@
         <v>114</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>585</v>
@@ -7268,7 +7295,7 @@
       </c>
       <c r="AW34" s="21"/>
       <c r="BA34" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="BB34" s="18">
         <v>1</v>
@@ -7282,10 +7309,10 @@
         <v>627</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>599</v>
@@ -7312,10 +7339,10 @@
         <v>625</v>
       </c>
       <c r="BA35" s="9" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="BB35" s="18" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="36" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7329,10 +7356,10 @@
         <v>591</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>612</v>
@@ -7374,10 +7401,10 @@
         <v>643</v>
       </c>
       <c r="BA36" s="9" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="BB36" s="18" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="37" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7394,10 +7421,10 @@
         <v>610</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>629</v>
@@ -7437,10 +7464,10 @@
       <c r="AT37" s="26"/>
       <c r="AW37" s="20"/>
       <c r="BA37" s="9" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="BB37" s="18" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="38" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7457,10 +7484,10 @@
         <v>114</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="Q38" s="30" t="s">
         <v>644</v>
@@ -7496,10 +7523,10 @@
       </c>
       <c r="AW38" s="29"/>
       <c r="BA38" s="9" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="BB38" s="18" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="39" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7514,10 +7541,10 @@
         <v>272</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="U39" s="9" t="s">
         <v>683</v>
@@ -7539,16 +7566,16 @@
         <v>652</v>
       </c>
       <c r="AV39" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="AW39" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="AW39" s="6" t="s">
-        <v>842</v>
-      </c>
       <c r="BA39" s="9" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="BB39" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="40" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7562,10 +7589,10 @@
         <v>272</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>681</v>
@@ -7598,16 +7625,16 @@
         <v>426</v>
       </c>
       <c r="AV40" s="39" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AW40" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="BA40" s="9" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="BB40" s="18" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="41" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7658,16 +7685,16 @@
       <c r="AS41" s="26"/>
       <c r="AT41" s="26"/>
       <c r="AV41" s="39" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AW41" s="39" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="BA41" s="9" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="BB41" s="18" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="42" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7678,10 +7705,10 @@
         <v>751</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>719</v>
@@ -7714,16 +7741,16 @@
       <c r="AS42" s="26"/>
       <c r="AT42" s="26"/>
       <c r="AV42" s="39" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AW42" s="39" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="BA42" s="9" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="BB42" s="18" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="43" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7738,7 +7765,7 @@
       </c>
       <c r="K43" s="34"/>
       <c r="M43" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>48</v>
@@ -7780,10 +7807,10 @@
       <c r="AS43" s="26"/>
       <c r="AT43" s="26"/>
       <c r="AV43" s="39" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AW43" s="39" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="44" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7800,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>111</v>
@@ -7838,16 +7865,16 @@
       <c r="AS44" s="20"/>
       <c r="AT44" s="20"/>
       <c r="AV44" s="39" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AW44" s="39" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="BA44" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="BB44" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7864,7 +7891,7 @@
         <v>2</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>48</v>
@@ -7909,10 +7936,10 @@
         <v>747</v>
       </c>
       <c r="AV45" s="39" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AW45" s="39" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="BA45" s="18" t="s">
         <v>48</v>
@@ -7921,7 +7948,7 @@
         <v>48</v>
       </c>
       <c r="BC45" s="9" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="46" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7936,13 +7963,13 @@
         <v>3</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>779</v>
@@ -7978,7 +8005,7 @@
         <v>48</v>
       </c>
       <c r="BC46" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="47" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7993,13 +8020,13 @@
         <v>4</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>48</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>794</v>
@@ -8021,7 +8048,7 @@
       <c r="AT47" s="36"/>
       <c r="AV47" s="36"/>
       <c r="BA47" s="18" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="BB47" s="18" t="s">
         <v>446</v>
@@ -8044,7 +8071,7 @@
         <v>1002</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>793</v>
@@ -8053,13 +8080,13 @@
         <v>5</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>808</v>
@@ -8074,7 +8101,7 @@
         <v>834</v>
       </c>
       <c r="AG48" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="AL48" s="6" t="s">
         <v>636</v>
@@ -8092,7 +8119,7 @@
         <v>826</v>
       </c>
       <c r="AW48" s="30" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="BA48" s="18" t="s">
         <v>48</v>
@@ -8101,15 +8128,15 @@
         <v>111</v>
       </c>
       <c r="BC48" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="49" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>111</v>
@@ -8118,7 +8145,7 @@
         <v>1003</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>807</v>
@@ -8134,25 +8161,25 @@
         <v>783</v>
       </c>
       <c r="Z49" s="6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AA49" s="43" t="s">
+        <v>950</v>
+      </c>
+      <c r="AB49" s="6" t="s">
         <v>952</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>954</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>642</v>
       </c>
       <c r="AE49" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="AF49" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="AF49" s="13" t="s">
-        <v>847</v>
-      </c>
       <c r="AG49" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="AL49" s="8" t="s">
         <v>659</v>
@@ -8167,16 +8194,16 @@
         <v>661</v>
       </c>
       <c r="AQ49" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AW49" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="AX49" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="AY49" s="6" t="s">
         <v>928</v>
-      </c>
-      <c r="AX49" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="AY49" s="6" t="s">
-        <v>930</v>
       </c>
       <c r="BA49" s="18" t="s">
         <v>111</v>
@@ -8185,15 +8212,15 @@
         <v>48</v>
       </c>
       <c r="BC49" s="9" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="50" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>850</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>851</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>111</v>
@@ -8202,7 +8229,7 @@
         <v>1004</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>829</v>
@@ -8211,31 +8238,31 @@
         <v>9</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Z50" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AA50" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AB50" s="7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AC50" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AE50" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="AF50" s="39" t="s">
         <v>863</v>
       </c>
-      <c r="AF50" s="39" t="s">
-        <v>864</v>
-      </c>
       <c r="AG50" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="AL50" s="7" t="s">
         <v>674</v>
@@ -8250,19 +8277,19 @@
         <v>675</v>
       </c>
       <c r="AQ50" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AV50" s="9" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AW50" s="39" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AX50" s="39" t="s">
+        <v>965</v>
+      </c>
+      <c r="AY50" s="39" t="s">
         <v>967</v>
-      </c>
-      <c r="AY50" s="39" t="s">
-        <v>969</v>
       </c>
       <c r="BA50" s="18" t="s">
         <v>111</v>
@@ -8271,57 +8298,57 @@
         <v>48</v>
       </c>
       <c r="BC50" s="9" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="51" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>870</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>872</v>
       </c>
       <c r="G51" s="9">
         <v>1005</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M51" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="N51" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>860</v>
-      </c>
       <c r="R51" s="6" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="S51" s="6" t="s">
         <v>688</v>
       </c>
       <c r="Z51" s="9" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AA51" s="8" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AB51" s="8" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AC51" s="8" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AE51" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AF51" s="13" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AG51" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="AL51" s="8" t="s">
         <v>689</v>
@@ -8336,62 +8363,62 @@
         <v>675</v>
       </c>
       <c r="AQ51" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AV51" s="9" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AW51" s="39" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="AX51" s="39" t="s">
+        <v>978</v>
+      </c>
+      <c r="AY51" s="39" t="s">
         <v>980</v>
-      </c>
-      <c r="AY51" s="39" t="s">
-        <v>982</v>
       </c>
       <c r="BA51" s="18" t="s">
         <v>111</v>
       </c>
       <c r="BB51" s="18" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="BC51" s="9" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="52" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="J52" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>853</v>
-      </c>
       <c r="M52" s="8" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="R52" s="30" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="V52" s="6" t="s">
         <v>728</v>
       </c>
       <c r="Z52" s="9" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="AA52" s="8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AB52" s="8" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AC52" s="8" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AE52" s="39" t="s">
         <v>48</v>
@@ -8400,50 +8427,50 @@
         <v>48</v>
       </c>
       <c r="AG52" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AQ52" s="7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AV52" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AW52" s="39" t="s">
+        <v>997</v>
+      </c>
+      <c r="AX52" s="39" t="s">
         <v>999</v>
       </c>
-      <c r="AX52" s="39" t="s">
-        <v>1001</v>
-      </c>
       <c r="AY52" s="39" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C53" s="6"/>
       <c r="G53" s="3"/>
       <c r="H53" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="U53" s="19" t="s">
         <v>434</v>
@@ -8452,16 +8479,16 @@
         <v>759</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AA53" s="7" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AB53" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AC53" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AE53" s="13" t="s">
         <v>48</v>
@@ -8470,45 +8497,48 @@
         <v>111</v>
       </c>
       <c r="AG53" s="9" t="s">
-        <v>916</v>
+        <v>914</v>
+      </c>
+      <c r="AL53" s="1" t="s">
+        <v>1426</v>
       </c>
       <c r="AQ53" s="7" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="54" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>905</v>
-      </c>
       <c r="D54" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>901</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="R54" s="18" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="S54" s="18" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="U54" s="19" t="s">
         <v>784</v>
@@ -8518,22 +8548,28 @@
       </c>
       <c r="AA54" s="3"/>
       <c r="AE54" s="39" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AF54" s="39" t="s">
+        <v>932</v>
+      </c>
+      <c r="AG54" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="AG54" s="9" t="s">
-        <v>936</v>
+      <c r="AL54" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AM54" s="8" t="s">
+        <v>1429</v>
       </c>
       <c r="AQ54" s="7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AV54" s="6" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW54" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AX54" s="6" t="s">
         <v>511</v>
@@ -8541,32 +8577,32 @@
     </row>
     <row r="55" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="R55" s="18" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="S55" s="18" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="U55" s="19" t="s">
         <v>796</v>
@@ -8585,46 +8621,52 @@
         <v>48</v>
       </c>
       <c r="AG55" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
+      </c>
+      <c r="AL55" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AM55" s="8" t="s">
+        <v>1430</v>
       </c>
       <c r="AQ55" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AV55" s="9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AW55" s="39" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AX55" s="39" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="56" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="U56" s="19" t="s">
         <v>810</v>
@@ -8645,49 +8687,55 @@
         <v>111</v>
       </c>
       <c r="AG56" s="9" t="s">
-        <v>958</v>
+        <v>956</v>
+      </c>
+      <c r="AL56" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AM56" s="7" t="s">
+        <v>1433</v>
       </c>
       <c r="AQ56" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AV56" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AW56" s="39" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AX56" s="39" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="57" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="R57" s="18" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Z57" s="7" t="s">
         <v>484</v>
@@ -8695,48 +8743,54 @@
       <c r="AA57" s="9" t="s">
         <v>485</v>
       </c>
+      <c r="AL57" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AM57" s="8" t="s">
+        <v>1432</v>
+      </c>
       <c r="AQ57" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AV57" s="9" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AW57" s="39" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AX57" s="39" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="58" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="J58" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="R58" s="30" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="U58" s="6" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="V58" s="40" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="W58" s="40">
         <v>2</v>
@@ -8751,43 +8805,43 @@
         <v>500</v>
       </c>
       <c r="AE58" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AQ58" s="7" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="59" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>985</v>
-      </c>
       <c r="D59" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="6" t="s">
         <v>489</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="R59" s="18" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="U59" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="V59" s="8" t="s">
         <v>111</v>
@@ -8805,63 +8859,63 @@
         <v>520</v>
       </c>
       <c r="AE59" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AF59" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AQ59" s="6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AV59" s="6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="AW59" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AX59" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="AX59" s="6" t="s">
-        <v>1065</v>
-      </c>
       <c r="AY59" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="60" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>505</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="U60" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V60" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="W60" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="V60" s="8" t="s">
-        <v>1122</v>
-      </c>
-      <c r="W60" s="8" t="s">
-        <v>1123</v>
-      </c>
       <c r="X60" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="Z60" s="7" t="s">
         <v>537</v>
@@ -8870,65 +8924,65 @@
         <v>529</v>
       </c>
       <c r="AE60" s="9" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AF60" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AQ60" s="7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AV60" s="9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="AW60" s="39" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AX60" s="39" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AY60" s="39" t="s">
         <v>1166</v>
-      </c>
-      <c r="AX60" s="39" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AY60" s="39" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="61" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H61" s="9"/>
       <c r="J61" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="N61" s="9"/>
       <c r="R61" s="18" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="U61" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="V61" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="W61" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="X61" s="8" t="s">
         <v>1135</v>
-      </c>
-      <c r="V61" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="W61" s="8" t="s">
-        <v>1355</v>
-      </c>
-      <c r="X61" s="8" t="s">
-        <v>1137</v>
       </c>
       <c r="Z61" s="7" t="s">
         <v>555</v>
@@ -8937,51 +8991,51 @@
         <v>547</v>
       </c>
       <c r="AQ61" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AV61" s="9" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AW61" s="39" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AX61" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AY61" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="62" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>490</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="U62" s="9" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="W62" s="8" t="s">
         <v>111</v>
@@ -8996,57 +9050,57 @@
         <v>564</v>
       </c>
       <c r="AF62" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AQ62" s="7" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AV62" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AW62" s="39" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AX62" s="39" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AY62" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="63" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>506</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="R63" s="30" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="U63" s="9" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="V63" s="8" t="s">
         <v>111</v>
@@ -9059,55 +9113,55 @@
       </c>
       <c r="AA63" s="3"/>
       <c r="AE63" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AF63" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="AF63" s="7" t="s">
-        <v>1086</v>
-      </c>
       <c r="AG63" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AQ63" s="7" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AV63" s="9" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AW63" s="39" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AX63" s="39" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AY63" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="64" spans="2:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H64" s="3"/>
       <c r="J64" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="R64" s="28">
         <v>2</v>
       </c>
       <c r="S64" s="28" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="U64" s="9" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="V64" s="8" t="s">
         <v>111</v>
@@ -9131,7 +9185,7 @@
         <v>151</v>
       </c>
       <c r="AE64" s="9" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AF64" s="7" t="s">
         <v>48</v>
@@ -9140,51 +9194,51 @@
         <v>111</v>
       </c>
       <c r="AQ64" s="6" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AV64" s="9" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AW64" s="39" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AX64" s="39" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="AY64" s="39" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="65" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="R65" s="28">
         <v>15</v>
       </c>
       <c r="S65" s="28" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="U65" s="9" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="V65" s="8" t="s">
         <v>111</v>
@@ -9208,49 +9262,49 @@
         <v>210</v>
       </c>
       <c r="AE65" s="9" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="AF65" s="7" t="s">
         <v>48</v>
       </c>
       <c r="AG65" s="7" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AQ65" s="7" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="66" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="R66" s="28">
         <v>20</v>
       </c>
       <c r="S66" s="28"/>
       <c r="U66" s="9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="V66" s="8" t="s">
         <v>111</v>
@@ -9274,55 +9328,55 @@
         <v>226</v>
       </c>
       <c r="AE66" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AF66" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AG66" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="AF66" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AG66" s="7" t="s">
-        <v>1127</v>
-      </c>
       <c r="AQ66" s="7" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AW66" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="67" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="R67" s="28">
         <v>300</v>
       </c>
       <c r="S67" s="28"/>
       <c r="U67" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="W67" s="8" t="s">
         <v>111</v>
@@ -9343,7 +9397,7 @@
         <v>226</v>
       </c>
       <c r="AE67" s="9" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AF67" s="7" t="s">
         <v>48</v>
@@ -9352,43 +9406,43 @@
         <v>111</v>
       </c>
       <c r="AQ67" s="7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="AS67" s="6"/>
       <c r="AV67" s="3">
         <v>200</v>
       </c>
       <c r="AW67" s="39" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="68" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="R68" s="28" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="S68" s="28" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="V68" s="8" t="s">
         <v>111</v>
@@ -9412,55 +9466,55 @@
         <v>210</v>
       </c>
       <c r="AE68" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AF68" s="7" t="s">
         <v>111</v>
       </c>
       <c r="AG68" s="7" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AQ68" s="7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AV68" s="3">
         <v>201</v>
       </c>
       <c r="AW68" s="39" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="69" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H69" s="3"/>
       <c r="J69" s="6" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="R69" s="28" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="S69" s="28" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="V69" s="8" t="s">
         <v>111</v>
@@ -9487,25 +9541,25 @@
         <v>400</v>
       </c>
       <c r="AW69" s="39" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="70" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H70" s="3"/>
       <c r="J70" s="6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="U70" s="9" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="V70" s="8" t="s">
         <v>111</v>
@@ -9526,37 +9580,37 @@
         <v>803</v>
       </c>
       <c r="AQ70" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="AV70" s="3">
         <v>401</v>
       </c>
       <c r="AW70" s="39" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="71" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H71" s="3"/>
       <c r="M71" s="9" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="Q71" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="R71" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="R71" s="6" t="s">
-        <v>937</v>
-      </c>
       <c r="S71" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="V71" s="8"/>
       <c r="W71" s="8" t="s">
@@ -9570,16 +9624,16 @@
         <v>825</v>
       </c>
       <c r="AQ71" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="AR71" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AV71" s="3">
         <v>403</v>
       </c>
       <c r="AW71" s="39" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="72" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9587,17 +9641,17 @@
         <v>0</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H72" s="3"/>
       <c r="J72" s="6" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="Q72" s="8" t="s">
         <v>99</v>
@@ -9606,7 +9660,7 @@
         <v>816</v>
       </c>
       <c r="S72" s="8" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="Z72" s="6" t="s">
         <v>594</v>
@@ -9618,19 +9672,19 @@
         <v>597</v>
       </c>
       <c r="AE72" s="39" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AQ72" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="AR72" s="7" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="AV72" s="3">
         <v>404</v>
       </c>
       <c r="AW72" s="39" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="73" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9638,32 +9692,32 @@
         <v>1</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H73" s="3"/>
       <c r="J73" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="Q73" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="S73" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="R73" s="8" t="s">
-        <v>991</v>
-      </c>
-      <c r="S73" s="8" t="s">
-        <v>992</v>
-      </c>
       <c r="V73" s="6" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="Z73" s="9" t="s">
         <v>614</v>
@@ -9675,13 +9729,13 @@
         <v>616</v>
       </c>
       <c r="AE73" s="39" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AQ73" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="AR73" s="7" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="74" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9689,35 +9743,35 @@
         <v>2</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H74" s="3"/>
       <c r="J74" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="R74" s="8" t="s">
         <v>773</v>
       </c>
       <c r="S74" s="8" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="U74" s="15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="V74" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="W74" s="8" t="s">
         <v>1214</v>
-      </c>
-      <c r="V74" s="9" t="s">
-        <v>1215</v>
-      </c>
-      <c r="W74" s="8" t="s">
-        <v>1216</v>
       </c>
       <c r="Z74" s="9" t="s">
         <v>630</v>
@@ -9729,41 +9783,41 @@
         <v>616</v>
       </c>
       <c r="AE74" s="39" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AQ74" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="AR74" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="AW74" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="AX74" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="75" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J75" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="M75" s="3"/>
       <c r="R75" s="8" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="S75" s="8" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="U75" s="19"/>
       <c r="V75" s="9" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="W75" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="Z75" s="9" t="s">
         <v>646</v>
@@ -9775,36 +9829,36 @@
         <v>615</v>
       </c>
       <c r="AE75" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AQ75" s="3" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="AR75" s="7" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="AV75" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AW75" s="39" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AX75" s="39" t="s">
         <v>1410</v>
-      </c>
-      <c r="AW75" s="39" t="s">
-        <v>1411</v>
-      </c>
-      <c r="AX75" s="39" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="76" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>5</v>
@@ -9816,14 +9870,14 @@
         <v>7</v>
       </c>
       <c r="R76" s="8" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="U76" s="19"/>
       <c r="V76" s="9" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="W76" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="Z76" s="9" t="s">
         <v>666</v>
@@ -9835,30 +9889,30 @@
         <v>668</v>
       </c>
       <c r="AQ76" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="AR76" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AV76" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AW76" s="39" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AX76" s="39" t="s">
         <v>1413</v>
-      </c>
-      <c r="AW76" s="39" t="s">
-        <v>1414</v>
-      </c>
-      <c r="AX76" s="39" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="77" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="19" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>34</v>
@@ -9870,47 +9924,47 @@
         <v>34</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="U77" s="19"/>
       <c r="V77" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="W77" s="8" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AA77" s="3"/>
       <c r="AE77" s="6" t="s">
         <v>802</v>
       </c>
       <c r="AQ77" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="AR77" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AV77" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AW77" s="39" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AX77" s="39" t="s">
         <v>1416</v>
-      </c>
-      <c r="AW77" s="39" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AX77" s="39" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="78" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="19" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>68</v>
@@ -9923,37 +9977,37 @@
       </c>
       <c r="U78" s="19"/>
       <c r="V78" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="W78" s="8" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="Z78" s="6" t="s">
         <v>314</v>
       </c>
       <c r="AA78" s="3"/>
       <c r="AE78" s="39" t="s">
-        <v>818</v>
+        <v>1423</v>
       </c>
       <c r="AQ78" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="AR78" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AV78" s="3" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="AW78" s="39" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="AX78" s="39" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="79" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>48</v>
@@ -9962,10 +10016,10 @@
         <v>111</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="8" t="s">
@@ -9975,17 +10029,17 @@
         <v>94</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="S79" s="40" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="U79" s="19"/>
       <c r="V79" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="W79" s="8" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Z79" s="9" t="s">
         <v>329</v>
@@ -9994,37 +10048,37 @@
         <v>349</v>
       </c>
       <c r="AE79" s="39" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="AQ79" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="AR79" s="7" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="AV79" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AW79" s="39" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AX79" s="39" t="s">
         <v>1420</v>
-      </c>
-      <c r="AW79" s="39" t="s">
-        <v>1421</v>
-      </c>
-      <c r="AX79" s="39" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="80" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="8" t="s">
@@ -10034,7 +10088,7 @@
         <v>118</v>
       </c>
       <c r="Q80" s="19" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="R80" s="41" t="s">
         <v>111</v>
@@ -10043,13 +10097,13 @@
         <v>48</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="V80" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="W80" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Z80" s="9" t="s">
         <v>342</v>
@@ -10058,37 +10112,37 @@
         <v>359</v>
       </c>
       <c r="AE80" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AQ80" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AR80" s="7" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="AV80" s="3" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="AW80" s="39" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AX80" s="39" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="81" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="19" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>111</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="8" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="M81" s="3"/>
       <c r="N81" s="8" t="s">
@@ -10098,7 +10152,7 @@
         <v>135</v>
       </c>
       <c r="Q81" s="19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="R81" s="41" t="s">
         <v>111</v>
@@ -10108,34 +10162,34 @@
       </c>
       <c r="U81" s="19"/>
       <c r="V81" s="9" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="W81" s="8" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="AE81" s="39" t="s">
-        <v>865</v>
+        <v>1424</v>
       </c>
       <c r="AQ81" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="AR81" s="7" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="82" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>1209</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>1211</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="8" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" s="8" t="s">
@@ -10145,7 +10199,7 @@
         <v>156</v>
       </c>
       <c r="Q82" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="R82" s="41" t="s">
         <v>48</v>
@@ -10155,7 +10209,7 @@
       </c>
       <c r="U82" s="19"/>
       <c r="V82" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="W82" s="8" t="s">
         <v>773</v>
@@ -10170,30 +10224,30 @@
         <v>392</v>
       </c>
       <c r="AE82" s="39" t="s">
-        <v>546</v>
+        <v>1425</v>
       </c>
       <c r="AQ82" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="AR82" s="7" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="83" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>1217</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>1219</v>
-      </c>
       <c r="J83" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="N83" s="42"/>
       <c r="O83" s="42"/>
@@ -10207,7 +10261,7 @@
         <v>48</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="Z83" s="9" t="s">
         <v>405</v>
@@ -10221,24 +10275,27 @@
       <c r="AC83" s="7" t="s">
         <v>410</v>
       </c>
+      <c r="AE83" s="39" t="s">
+        <v>546</v>
+      </c>
       <c r="AQ83" s="3" t="s">
         <v>416</v>
       </c>
       <c r="AR83" s="7" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="84" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J84" s="3"/>
       <c r="K84" s="8" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="M84" s="43" t="s">
         <v>788</v>
       </c>
       <c r="O84" s="42"/>
       <c r="Q84" s="19" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="R84" s="41" t="s">
         <v>111</v>
@@ -10247,7 +10304,7 @@
         <v>48</v>
       </c>
       <c r="V84" s="8" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AA84" s="8"/>
       <c r="AB84" s="7" t="s">
@@ -10256,25 +10313,22 @@
       <c r="AC84" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="AE84" s="1" t="s">
-        <v>1366</v>
-      </c>
       <c r="AQ84" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="AR84" s="7" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="85" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="M85" s="5" t="s">
         <v>799</v>
@@ -10284,7 +10338,7 @@
       </c>
       <c r="O85" s="42"/>
       <c r="Q85" s="19" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="R85" s="41" t="s">
         <v>111</v>
@@ -10293,39 +10347,36 @@
         <v>48</v>
       </c>
       <c r="AA85" s="3"/>
-      <c r="AE85" s="7" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AF85" s="7" t="s">
-        <v>1368</v>
+      <c r="AE85" s="1" t="s">
+        <v>1364</v>
       </c>
       <c r="AQ85" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AR85" s="7" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="86" spans="2:44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="7" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="M86" s="5" t="s">
         <v>815</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O86" s="42"/>
       <c r="Q86" s="19" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="R86" s="41" t="s">
         <v>111</v>
@@ -10345,33 +10396,39 @@
       <c r="AC86" s="6" t="s">
         <v>809</v>
       </c>
+  